--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_8_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_8_9.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58820.1879907632</v>
+        <v>-26909.74587178841</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>590948.8332937378</v>
+        <v>1342985.434732039</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26523443.1649504</v>
+        <v>25690050.57595446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4344989.102201859</v>
+        <v>4667625.55511569</v>
       </c>
     </row>
     <row r="11">
@@ -8693,16 +8695,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>108.5919157831171</v>
+        <v>69.5519447733833</v>
       </c>
       <c r="M11" t="n">
-        <v>94.50134181136153</v>
+        <v>30.60554356118956</v>
       </c>
       <c r="N11" t="n">
-        <v>89.21461903306823</v>
+        <v>24.28491996620807</v>
       </c>
       <c r="O11" t="n">
-        <v>99.00804712831379</v>
+        <v>42.63137903675033</v>
       </c>
       <c r="P11" t="n">
         <v>83.66766412458549</v>
@@ -8769,22 +8771,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>68.76096162327045</v>
+        <v>50.89233633476204</v>
       </c>
       <c r="L12" t="n">
-        <v>42.27423123832554</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>20.73666047215161</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>32.82469745261386</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>54.90492507792075</v>
+        <v>17.72614556768511</v>
       </c>
       <c r="Q12" t="n">
         <v>54.62009481132077</v>
@@ -8930,16 +8932,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>108.5919157831171</v>
+        <v>69.5519447733833</v>
       </c>
       <c r="M14" t="n">
-        <v>94.50134181136153</v>
+        <v>30.60554356118956</v>
       </c>
       <c r="N14" t="n">
-        <v>89.21461903306823</v>
+        <v>24.28491996620807</v>
       </c>
       <c r="O14" t="n">
-        <v>99.00804712831379</v>
+        <v>42.63137903675033</v>
       </c>
       <c r="P14" t="n">
         <v>83.66766412458549</v>
@@ -9006,22 +9008,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>68.76096162327045</v>
+        <v>50.89233633476204</v>
       </c>
       <c r="L15" t="n">
-        <v>42.27423123832554</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>20.73666047215161</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>32.82469745261386</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>54.90492507792075</v>
+        <v>17.72614556768511</v>
       </c>
       <c r="Q15" t="n">
         <v>54.62009481132077</v>
@@ -9167,16 +9169,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L17" t="n">
-        <v>108.5919157831171</v>
+        <v>69.5519447733833</v>
       </c>
       <c r="M17" t="n">
-        <v>94.50134181136153</v>
+        <v>30.60554356118956</v>
       </c>
       <c r="N17" t="n">
-        <v>89.21461903306823</v>
+        <v>24.28491996620801</v>
       </c>
       <c r="O17" t="n">
-        <v>99.00804712831379</v>
+        <v>42.63137903675033</v>
       </c>
       <c r="P17" t="n">
         <v>83.66766412458549</v>
@@ -9243,22 +9245,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>68.76096162327045</v>
+        <v>50.89233633476204</v>
       </c>
       <c r="L18" t="n">
-        <v>42.27423123832554</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>20.73666047215161</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>32.82469745261386</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>54.90492507792075</v>
+        <v>17.72614556768508</v>
       </c>
       <c r="Q18" t="n">
         <v>54.62009481132077</v>
@@ -9404,16 +9406,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L20" t="n">
-        <v>108.5919157831171</v>
+        <v>69.5519447733833</v>
       </c>
       <c r="M20" t="n">
-        <v>94.50134181136153</v>
+        <v>30.60554356118956</v>
       </c>
       <c r="N20" t="n">
-        <v>89.21461903306823</v>
+        <v>24.28491996620807</v>
       </c>
       <c r="O20" t="n">
-        <v>99.00804712831379</v>
+        <v>42.63137903675033</v>
       </c>
       <c r="P20" t="n">
         <v>83.66766412458549</v>
@@ -9480,22 +9482,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>68.76096162327045</v>
+        <v>50.89233633476204</v>
       </c>
       <c r="L21" t="n">
-        <v>42.27423123832554</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>20.73666047215161</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>32.82469745261386</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>54.90492507792075</v>
+        <v>17.72614556768511</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9641,16 +9643,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L23" t="n">
-        <v>108.5919157831171</v>
+        <v>69.5519447733833</v>
       </c>
       <c r="M23" t="n">
-        <v>94.50134181136153</v>
+        <v>30.60554356118956</v>
       </c>
       <c r="N23" t="n">
-        <v>89.21461903306823</v>
+        <v>24.28491996620807</v>
       </c>
       <c r="O23" t="n">
-        <v>99.00804712831379</v>
+        <v>42.63137903675033</v>
       </c>
       <c r="P23" t="n">
         <v>83.66766412458549</v>
@@ -9717,22 +9719,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>68.76096162327045</v>
+        <v>50.89233633476204</v>
       </c>
       <c r="L24" t="n">
-        <v>42.27423123832554</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>20.73666047215161</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>32.82469745261386</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>54.90492507792075</v>
+        <v>17.72614556768511</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9878,16 +9880,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L26" t="n">
-        <v>108.5919157831171</v>
+        <v>69.5519447733833</v>
       </c>
       <c r="M26" t="n">
-        <v>94.50134181136153</v>
+        <v>30.60554356118956</v>
       </c>
       <c r="N26" t="n">
-        <v>89.21461903306823</v>
+        <v>24.28491996620807</v>
       </c>
       <c r="O26" t="n">
-        <v>99.00804712831379</v>
+        <v>42.63137903675033</v>
       </c>
       <c r="P26" t="n">
         <v>83.66766412458549</v>
@@ -9954,22 +9956,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>68.76096162327045</v>
+        <v>50.89233633476204</v>
       </c>
       <c r="L27" t="n">
-        <v>42.27423123832554</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>20.73666047215161</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>32.82469745261386</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>54.90492507792075</v>
+        <v>17.72614556768511</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10115,16 +10117,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L29" t="n">
-        <v>108.5919157831171</v>
+        <v>69.5519447733833</v>
       </c>
       <c r="M29" t="n">
-        <v>94.50134181136147</v>
+        <v>30.60554356118956</v>
       </c>
       <c r="N29" t="n">
-        <v>89.2146190330682</v>
+        <v>24.28491996620801</v>
       </c>
       <c r="O29" t="n">
-        <v>99.00804712831379</v>
+        <v>42.63137903675033</v>
       </c>
       <c r="P29" t="n">
         <v>83.66766412458549</v>
@@ -10191,22 +10193,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>68.76096162327045</v>
+        <v>50.89233633476204</v>
       </c>
       <c r="L30" t="n">
-        <v>42.27423123832551</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>20.73666047215158</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>32.82469745261383</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>54.90492507792075</v>
+        <v>17.72614556768508</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10352,16 +10354,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L32" t="n">
-        <v>108.5919157831171</v>
+        <v>69.5519447733833</v>
       </c>
       <c r="M32" t="n">
-        <v>94.50134181136153</v>
+        <v>30.60554356118956</v>
       </c>
       <c r="N32" t="n">
-        <v>89.21461903306823</v>
+        <v>24.28491996620807</v>
       </c>
       <c r="O32" t="n">
-        <v>99.00804712831379</v>
+        <v>42.63137903675033</v>
       </c>
       <c r="P32" t="n">
         <v>83.66766412458549</v>
@@ -10428,22 +10430,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>68.76096162327045</v>
+        <v>50.89233633476204</v>
       </c>
       <c r="L33" t="n">
-        <v>42.27423123832554</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>20.73666047215161</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>32.82469745261386</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>54.90492507792075</v>
+        <v>17.72614556768511</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10589,16 +10591,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L35" t="n">
-        <v>108.5919157831171</v>
+        <v>69.5519447733833</v>
       </c>
       <c r="M35" t="n">
-        <v>94.50134181136153</v>
+        <v>30.60554356118956</v>
       </c>
       <c r="N35" t="n">
-        <v>89.21461903306823</v>
+        <v>24.28491996620807</v>
       </c>
       <c r="O35" t="n">
-        <v>99.00804712831379</v>
+        <v>42.63137903675033</v>
       </c>
       <c r="P35" t="n">
         <v>83.66766412458549</v>
@@ -10665,22 +10667,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>68.76096162327045</v>
+        <v>50.89233633476204</v>
       </c>
       <c r="L36" t="n">
-        <v>42.27423123832554</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>20.73666047215161</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>32.82469745261386</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>54.90492507792075</v>
+        <v>17.72614556768511</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10826,16 +10828,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L38" t="n">
-        <v>108.5919157831171</v>
+        <v>69.5519447733833</v>
       </c>
       <c r="M38" t="n">
-        <v>94.50134181136153</v>
+        <v>30.60554356118956</v>
       </c>
       <c r="N38" t="n">
-        <v>89.21461903306823</v>
+        <v>24.28491996620807</v>
       </c>
       <c r="O38" t="n">
-        <v>99.00804712831379</v>
+        <v>42.63137903675033</v>
       </c>
       <c r="P38" t="n">
         <v>83.66766412458549</v>
@@ -10902,22 +10904,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>68.76096162327045</v>
+        <v>50.89233633476204</v>
       </c>
       <c r="L39" t="n">
-        <v>42.27423123832554</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>20.73666047215161</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>32.82469745261386</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>54.90492507792075</v>
+        <v>17.72614556768511</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11063,16 +11065,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>108.5919157831171</v>
+        <v>69.5519447733833</v>
       </c>
       <c r="M41" t="n">
-        <v>94.50134181136153</v>
+        <v>30.60554356118956</v>
       </c>
       <c r="N41" t="n">
-        <v>89.21461903306823</v>
+        <v>24.28491996620807</v>
       </c>
       <c r="O41" t="n">
-        <v>99.00804712831379</v>
+        <v>42.63137903675033</v>
       </c>
       <c r="P41" t="n">
         <v>83.66766412458549</v>
@@ -11139,22 +11141,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>68.76096162327045</v>
+        <v>50.89233633476204</v>
       </c>
       <c r="L42" t="n">
-        <v>42.27423123832554</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>20.73666047215161</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>32.82469745261386</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>54.90492507792075</v>
+        <v>17.72614556768511</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11297,22 +11299,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>84.27780726850284</v>
+        <v>82.69308435253603</v>
       </c>
       <c r="L44" t="n">
-        <v>108.5919157831171</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M44" t="n">
-        <v>94.50134181136153</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N44" t="n">
-        <v>89.21461903306823</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>99.00804712831379</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P44" t="n">
-        <v>83.66766412458549</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q44" t="n">
         <v>55.20189757157522</v>
@@ -11376,22 +11378,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>68.76096162327045</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L45" t="n">
-        <v>42.27423123832554</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>20.73666047215161</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>32.82469745261386</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>54.90492507792075</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -23270,22 +23272,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>422.2098565259836</v>
+        <v>421.8459671052398</v>
       </c>
       <c r="H11" t="n">
-        <v>349.9597650259403</v>
+        <v>346.2330824957484</v>
       </c>
       <c r="I11" t="n">
-        <v>254.4136275388651</v>
+        <v>240.3847806456414</v>
       </c>
       <c r="J11" t="n">
-        <v>103.6577574092157</v>
+        <v>72.77309768536537</v>
       </c>
       <c r="K11" t="n">
-        <v>62.01598937483027</v>
+        <v>15.72789047089677</v>
       </c>
       <c r="L11" t="n">
-        <v>18.38450875428643</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23294,25 +23296,25 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>4.934605547775988</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>56.01237276874357</v>
+        <v>3.684619204015576</v>
       </c>
       <c r="Q11" t="n">
-        <v>120.8562777625268</v>
+        <v>81.5603140781846</v>
       </c>
       <c r="R11" t="n">
-        <v>211.4982239222711</v>
+        <v>188.6400550964761</v>
       </c>
       <c r="S11" t="n">
-        <v>235.9346815086628</v>
+        <v>227.6425513334645</v>
       </c>
       <c r="T11" t="n">
-        <v>219.4718503679457</v>
+        <v>217.8789244286399</v>
       </c>
       <c r="U11" t="n">
-        <v>248.7911763328777</v>
+        <v>248.7620651792182</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23349,19 +23351,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>161.0306354769367</v>
+        <v>160.8359374722434</v>
       </c>
       <c r="H12" t="n">
-        <v>137.9016867325838</v>
+        <v>136.0213138977834</v>
       </c>
       <c r="I12" t="n">
-        <v>117.4902810648562</v>
+        <v>110.7868629208131</v>
       </c>
       <c r="J12" t="n">
-        <v>82.938597341113</v>
+        <v>64.5439055906884</v>
       </c>
       <c r="K12" t="n">
-        <v>13.57083277636244</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23379,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>55.82666100818672</v>
+        <v>30.97363149681966</v>
       </c>
       <c r="R12" t="n">
-        <v>155.3651088272201</v>
+        <v>143.2767537638985</v>
       </c>
       <c r="S12" t="n">
-        <v>208.3135435403173</v>
+        <v>204.6971134970022</v>
       </c>
       <c r="T12" t="n">
-        <v>230.1584524961191</v>
+        <v>229.3736829070266</v>
       </c>
       <c r="U12" t="n">
-        <v>249.6505853349712</v>
+        <v>249.637776255715</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23428,49 +23430,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G13" t="n">
-        <v>169.247518043053</v>
+        <v>169.0842897762481</v>
       </c>
       <c r="H13" t="n">
-        <v>167.6944209426916</v>
+        <v>166.2431732614622</v>
       </c>
       <c r="I13" t="n">
-        <v>168.1305865516738</v>
+        <v>163.221867400849</v>
       </c>
       <c r="J13" t="n">
-        <v>133.20905535072</v>
+        <v>121.6688168876111</v>
       </c>
       <c r="K13" t="n">
-        <v>88.99056004441434</v>
+        <v>70.02640322835012</v>
       </c>
       <c r="L13" t="n">
-        <v>62.96960703121103</v>
+        <v>38.70201543732101</v>
       </c>
       <c r="M13" t="n">
-        <v>59.70650310975206</v>
+        <v>34.11973034141128</v>
       </c>
       <c r="N13" t="n">
-        <v>47.31542685419205</v>
+        <v>22.33705035303328</v>
       </c>
       <c r="O13" t="n">
-        <v>72.58297639552541</v>
+        <v>49.51140282931519</v>
       </c>
       <c r="P13" t="n">
-        <v>91.43798011889524</v>
+        <v>71.69626319550571</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.7386590351999</v>
+        <v>139.0705175302886</v>
       </c>
       <c r="R13" t="n">
-        <v>221.644124959155</v>
+        <v>214.3047885262713</v>
       </c>
       <c r="S13" t="n">
-        <v>243.9209403175845</v>
+        <v>241.0763167951749</v>
       </c>
       <c r="T13" t="n">
-        <v>218.1427676199599</v>
+        <v>217.4453377527024</v>
       </c>
       <c r="U13" t="n">
-        <v>291.2202965310711</v>
+        <v>291.2113931710636</v>
       </c>
       <c r="V13" t="n">
         <v>237.3615500762718</v>
@@ -23507,22 +23509,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>422.2098565259836</v>
+        <v>421.8459671052398</v>
       </c>
       <c r="H14" t="n">
-        <v>349.9597650259403</v>
+        <v>346.2330824957484</v>
       </c>
       <c r="I14" t="n">
-        <v>254.4136275388651</v>
+        <v>240.3847806456414</v>
       </c>
       <c r="J14" t="n">
-        <v>103.6577574092157</v>
+        <v>72.77309768536537</v>
       </c>
       <c r="K14" t="n">
-        <v>62.01598937483027</v>
+        <v>15.72789047089677</v>
       </c>
       <c r="L14" t="n">
-        <v>18.38450875428643</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23531,25 +23533,25 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>4.934605547775988</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>56.01237276874357</v>
+        <v>3.684619204015576</v>
       </c>
       <c r="Q14" t="n">
-        <v>120.8562777625268</v>
+        <v>81.5603140781846</v>
       </c>
       <c r="R14" t="n">
-        <v>211.4982239222711</v>
+        <v>188.6400550964761</v>
       </c>
       <c r="S14" t="n">
-        <v>235.9346815086628</v>
+        <v>227.6425513334645</v>
       </c>
       <c r="T14" t="n">
-        <v>219.4718503679457</v>
+        <v>217.8789244286399</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7911763328777</v>
+        <v>248.7620651792182</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23586,19 +23588,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>161.0306354769367</v>
+        <v>160.8359374722434</v>
       </c>
       <c r="H15" t="n">
-        <v>137.9016867325838</v>
+        <v>136.0213138977834</v>
       </c>
       <c r="I15" t="n">
-        <v>117.4902810648562</v>
+        <v>110.7868629208131</v>
       </c>
       <c r="J15" t="n">
-        <v>82.938597341113</v>
+        <v>64.5439055906884</v>
       </c>
       <c r="K15" t="n">
-        <v>13.57083277636244</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23616,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>55.82666100818672</v>
+        <v>30.97363149681966</v>
       </c>
       <c r="R15" t="n">
-        <v>155.3651088272201</v>
+        <v>143.2767537638985</v>
       </c>
       <c r="S15" t="n">
-        <v>208.3135435403173</v>
+        <v>204.6971134970022</v>
       </c>
       <c r="T15" t="n">
-        <v>230.1584524961191</v>
+        <v>229.3736829070266</v>
       </c>
       <c r="U15" t="n">
-        <v>249.6505853349712</v>
+        <v>249.637776255715</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
@@ -23665,49 +23667,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G16" t="n">
-        <v>169.247518043053</v>
+        <v>169.0842897762481</v>
       </c>
       <c r="H16" t="n">
-        <v>167.6944209426916</v>
+        <v>166.2431732614622</v>
       </c>
       <c r="I16" t="n">
-        <v>168.1305865516738</v>
+        <v>163.221867400849</v>
       </c>
       <c r="J16" t="n">
-        <v>133.20905535072</v>
+        <v>121.6688168876111</v>
       </c>
       <c r="K16" t="n">
-        <v>88.99056004441434</v>
+        <v>70.02640322835012</v>
       </c>
       <c r="L16" t="n">
-        <v>62.96960703121103</v>
+        <v>38.70201543732101</v>
       </c>
       <c r="M16" t="n">
-        <v>59.70650310975206</v>
+        <v>34.11973034141128</v>
       </c>
       <c r="N16" t="n">
-        <v>47.31542685419205</v>
+        <v>22.33705035303328</v>
       </c>
       <c r="O16" t="n">
-        <v>72.58297639552541</v>
+        <v>49.51140282931519</v>
       </c>
       <c r="P16" t="n">
-        <v>91.43798011889524</v>
+        <v>71.69626319550571</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.7386590351999</v>
+        <v>139.0705175302886</v>
       </c>
       <c r="R16" t="n">
-        <v>221.644124959155</v>
+        <v>214.3047885262713</v>
       </c>
       <c r="S16" t="n">
-        <v>243.9209403175845</v>
+        <v>241.0763167951749</v>
       </c>
       <c r="T16" t="n">
-        <v>218.1427676199599</v>
+        <v>217.4453377527024</v>
       </c>
       <c r="U16" t="n">
-        <v>291.2202965310711</v>
+        <v>291.2113931710636</v>
       </c>
       <c r="V16" t="n">
         <v>237.3615500762718</v>
@@ -23744,22 +23746,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>422.2098565259836</v>
+        <v>421.8459671052398</v>
       </c>
       <c r="H17" t="n">
-        <v>349.9597650259403</v>
+        <v>346.2330824957484</v>
       </c>
       <c r="I17" t="n">
-        <v>254.4136275388651</v>
+        <v>240.3847806456414</v>
       </c>
       <c r="J17" t="n">
-        <v>103.6577574092157</v>
+        <v>72.77309768536537</v>
       </c>
       <c r="K17" t="n">
-        <v>62.01598937483027</v>
+        <v>15.72789047089674</v>
       </c>
       <c r="L17" t="n">
-        <v>18.38450875428643</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -23768,25 +23770,25 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>4.934605547775988</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>56.01237276874357</v>
+        <v>3.684619204015604</v>
       </c>
       <c r="Q17" t="n">
-        <v>120.8562777625268</v>
+        <v>81.56031407818458</v>
       </c>
       <c r="R17" t="n">
-        <v>211.4982239222711</v>
+        <v>188.6400550964761</v>
       </c>
       <c r="S17" t="n">
-        <v>235.9346815086628</v>
+        <v>227.6425513334644</v>
       </c>
       <c r="T17" t="n">
-        <v>219.4718503679457</v>
+        <v>217.8789244286399</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7911763328777</v>
+        <v>248.7620651792182</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23823,19 +23825,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>161.0306354769367</v>
+        <v>160.8359374722434</v>
       </c>
       <c r="H18" t="n">
-        <v>137.9016867325838</v>
+        <v>136.0213138977834</v>
       </c>
       <c r="I18" t="n">
-        <v>117.4902810648562</v>
+        <v>110.7868629208131</v>
       </c>
       <c r="J18" t="n">
-        <v>82.938597341113</v>
+        <v>64.5439055906884</v>
       </c>
       <c r="K18" t="n">
-        <v>13.57083277636244</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23853,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>55.82666100818672</v>
+        <v>30.97363149681966</v>
       </c>
       <c r="R18" t="n">
-        <v>155.3651088272201</v>
+        <v>143.2767537638985</v>
       </c>
       <c r="S18" t="n">
-        <v>208.3135435403173</v>
+        <v>204.6971134970022</v>
       </c>
       <c r="T18" t="n">
-        <v>230.1584524961191</v>
+        <v>229.3736829070266</v>
       </c>
       <c r="U18" t="n">
-        <v>249.6505853349712</v>
+        <v>249.637776255715</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
@@ -23902,49 +23904,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G19" t="n">
-        <v>169.247518043053</v>
+        <v>169.0842897762481</v>
       </c>
       <c r="H19" t="n">
-        <v>167.6944209426916</v>
+        <v>166.2431732614622</v>
       </c>
       <c r="I19" t="n">
-        <v>168.1305865516738</v>
+        <v>163.221867400849</v>
       </c>
       <c r="J19" t="n">
-        <v>133.20905535072</v>
+        <v>121.6688168876111</v>
       </c>
       <c r="K19" t="n">
-        <v>88.99056004441434</v>
+        <v>70.02640322835012</v>
       </c>
       <c r="L19" t="n">
-        <v>62.96960703121103</v>
+        <v>38.70201543732101</v>
       </c>
       <c r="M19" t="n">
-        <v>59.70650310975206</v>
+        <v>34.11973034141127</v>
       </c>
       <c r="N19" t="n">
-        <v>47.31542685419205</v>
+        <v>22.33705035303326</v>
       </c>
       <c r="O19" t="n">
-        <v>72.58297639552541</v>
+        <v>49.51140282931519</v>
       </c>
       <c r="P19" t="n">
-        <v>91.43798011889524</v>
+        <v>71.69626319550571</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.7386590351999</v>
+        <v>139.0705175302886</v>
       </c>
       <c r="R19" t="n">
-        <v>221.644124959155</v>
+        <v>214.3047885262713</v>
       </c>
       <c r="S19" t="n">
-        <v>243.9209403175845</v>
+        <v>241.0763167951749</v>
       </c>
       <c r="T19" t="n">
-        <v>218.1427676199599</v>
+        <v>217.4453377527024</v>
       </c>
       <c r="U19" t="n">
-        <v>291.2202965310711</v>
+        <v>291.2113931710636</v>
       </c>
       <c r="V19" t="n">
         <v>237.3615500762718</v>
@@ -23981,22 +23983,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>422.2098565259836</v>
+        <v>421.8459671052398</v>
       </c>
       <c r="H20" t="n">
-        <v>349.9597650259403</v>
+        <v>346.2330824957484</v>
       </c>
       <c r="I20" t="n">
-        <v>254.4136275388651</v>
+        <v>240.3847806456414</v>
       </c>
       <c r="J20" t="n">
-        <v>103.6577574092157</v>
+        <v>72.77309768536537</v>
       </c>
       <c r="K20" t="n">
-        <v>62.01598937483027</v>
+        <v>15.72789047089677</v>
       </c>
       <c r="L20" t="n">
-        <v>18.38450875428643</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -24005,25 +24007,25 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>4.934605547775988</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>56.01237276874357</v>
+        <v>3.684619204015576</v>
       </c>
       <c r="Q20" t="n">
-        <v>120.8562777625268</v>
+        <v>81.5603140781846</v>
       </c>
       <c r="R20" t="n">
-        <v>211.4982239222711</v>
+        <v>188.6400550964761</v>
       </c>
       <c r="S20" t="n">
-        <v>235.9346815086628</v>
+        <v>227.6425513334645</v>
       </c>
       <c r="T20" t="n">
-        <v>219.4718503679457</v>
+        <v>217.8789244286399</v>
       </c>
       <c r="U20" t="n">
-        <v>248.7911763328777</v>
+        <v>248.7620651792182</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24060,19 +24062,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>161.0306354769367</v>
+        <v>160.8359374722434</v>
       </c>
       <c r="H21" t="n">
-        <v>137.9016867325838</v>
+        <v>136.0213138977834</v>
       </c>
       <c r="I21" t="n">
-        <v>117.4902810648562</v>
+        <v>110.7868629208131</v>
       </c>
       <c r="J21" t="n">
-        <v>82.938597341113</v>
+        <v>64.5439055906884</v>
       </c>
       <c r="K21" t="n">
-        <v>13.57083277636244</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24090,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>55.82666100818672</v>
+        <v>30.97363149681966</v>
       </c>
       <c r="R21" t="n">
-        <v>155.3651088272201</v>
+        <v>143.2767537638985</v>
       </c>
       <c r="S21" t="n">
-        <v>208.3135435403173</v>
+        <v>204.6971134970022</v>
       </c>
       <c r="T21" t="n">
-        <v>230.1584524961191</v>
+        <v>229.3736829070266</v>
       </c>
       <c r="U21" t="n">
-        <v>249.6505853349712</v>
+        <v>249.637776255715</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
@@ -24139,49 +24141,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>169.247518043053</v>
+        <v>169.0842897762481</v>
       </c>
       <c r="H22" t="n">
-        <v>167.6944209426916</v>
+        <v>166.2431732614622</v>
       </c>
       <c r="I22" t="n">
-        <v>168.1305865516738</v>
+        <v>163.221867400849</v>
       </c>
       <c r="J22" t="n">
-        <v>133.20905535072</v>
+        <v>121.6688168876111</v>
       </c>
       <c r="K22" t="n">
-        <v>88.99056004441434</v>
+        <v>70.02640322835012</v>
       </c>
       <c r="L22" t="n">
-        <v>62.96960703121103</v>
+        <v>38.70201543732101</v>
       </c>
       <c r="M22" t="n">
-        <v>59.70650310975206</v>
+        <v>34.11973034141128</v>
       </c>
       <c r="N22" t="n">
-        <v>47.31542685419205</v>
+        <v>22.33705035303328</v>
       </c>
       <c r="O22" t="n">
-        <v>72.58297639552541</v>
+        <v>49.51140282931519</v>
       </c>
       <c r="P22" t="n">
-        <v>91.43798011889524</v>
+        <v>71.69626319550571</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.7386590351999</v>
+        <v>139.0705175302886</v>
       </c>
       <c r="R22" t="n">
-        <v>221.644124959155</v>
+        <v>214.3047885262713</v>
       </c>
       <c r="S22" t="n">
-        <v>243.9209403175845</v>
+        <v>241.0763167951749</v>
       </c>
       <c r="T22" t="n">
-        <v>218.1427676199599</v>
+        <v>217.4453377527024</v>
       </c>
       <c r="U22" t="n">
-        <v>291.2202965310711</v>
+        <v>291.2113931710636</v>
       </c>
       <c r="V22" t="n">
         <v>237.3615500762718</v>
@@ -24218,22 +24220,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>422.2098565259836</v>
+        <v>421.8459671052398</v>
       </c>
       <c r="H23" t="n">
-        <v>349.9597650259403</v>
+        <v>346.2330824957484</v>
       </c>
       <c r="I23" t="n">
-        <v>254.4136275388651</v>
+        <v>240.3847806456414</v>
       </c>
       <c r="J23" t="n">
-        <v>103.6577574092157</v>
+        <v>72.77309768536537</v>
       </c>
       <c r="K23" t="n">
-        <v>62.01598937483027</v>
+        <v>15.72789047089677</v>
       </c>
       <c r="L23" t="n">
-        <v>18.38450875428643</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -24242,25 +24244,25 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>4.934605547775988</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>56.01237276874357</v>
+        <v>3.684619204015576</v>
       </c>
       <c r="Q23" t="n">
-        <v>120.8562777625268</v>
+        <v>81.5603140781846</v>
       </c>
       <c r="R23" t="n">
-        <v>211.4982239222711</v>
+        <v>188.6400550964761</v>
       </c>
       <c r="S23" t="n">
-        <v>235.9346815086628</v>
+        <v>227.6425513334645</v>
       </c>
       <c r="T23" t="n">
-        <v>219.4718503679457</v>
+        <v>217.8789244286399</v>
       </c>
       <c r="U23" t="n">
-        <v>248.7911763328777</v>
+        <v>248.7620651792182</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24297,19 +24299,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>161.0306354769367</v>
+        <v>160.8359374722434</v>
       </c>
       <c r="H24" t="n">
-        <v>137.9016867325838</v>
+        <v>136.0213138977834</v>
       </c>
       <c r="I24" t="n">
-        <v>117.4902810648562</v>
+        <v>110.7868629208131</v>
       </c>
       <c r="J24" t="n">
-        <v>82.938597341113</v>
+        <v>64.5439055906884</v>
       </c>
       <c r="K24" t="n">
-        <v>13.57083277636244</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24327,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>55.82666100818672</v>
+        <v>30.97363149681966</v>
       </c>
       <c r="R24" t="n">
-        <v>155.3651088272201</v>
+        <v>143.2767537638985</v>
       </c>
       <c r="S24" t="n">
-        <v>208.3135435403173</v>
+        <v>204.6971134970022</v>
       </c>
       <c r="T24" t="n">
-        <v>230.1584524961191</v>
+        <v>229.3736829070266</v>
       </c>
       <c r="U24" t="n">
-        <v>249.6505853349712</v>
+        <v>249.637776255715</v>
       </c>
       <c r="V24" t="n">
         <v>249.2999251801724</v>
@@ -24376,49 +24378,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G25" t="n">
-        <v>169.247518043053</v>
+        <v>169.0842897762481</v>
       </c>
       <c r="H25" t="n">
-        <v>167.6944209426916</v>
+        <v>166.2431732614622</v>
       </c>
       <c r="I25" t="n">
-        <v>168.1305865516738</v>
+        <v>163.221867400849</v>
       </c>
       <c r="J25" t="n">
-        <v>133.20905535072</v>
+        <v>121.6688168876111</v>
       </c>
       <c r="K25" t="n">
-        <v>88.99056004441434</v>
+        <v>70.02640322835012</v>
       </c>
       <c r="L25" t="n">
-        <v>62.96960703121103</v>
+        <v>38.70201543732101</v>
       </c>
       <c r="M25" t="n">
-        <v>59.70650310975206</v>
+        <v>34.11973034141128</v>
       </c>
       <c r="N25" t="n">
-        <v>47.31542685419205</v>
+        <v>22.33705035303328</v>
       </c>
       <c r="O25" t="n">
-        <v>72.58297639552541</v>
+        <v>49.51140282931519</v>
       </c>
       <c r="P25" t="n">
-        <v>91.43798011889524</v>
+        <v>71.69626319550571</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.7386590351999</v>
+        <v>139.0705175302886</v>
       </c>
       <c r="R25" t="n">
-        <v>221.644124959155</v>
+        <v>214.3047885262713</v>
       </c>
       <c r="S25" t="n">
-        <v>243.9209403175845</v>
+        <v>241.0763167951749</v>
       </c>
       <c r="T25" t="n">
-        <v>218.1427676199599</v>
+        <v>217.4453377527024</v>
       </c>
       <c r="U25" t="n">
-        <v>291.2202965310711</v>
+        <v>291.2113931710636</v>
       </c>
       <c r="V25" t="n">
         <v>237.3615500762718</v>
@@ -24455,22 +24457,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>422.2098565259836</v>
+        <v>421.8459671052398</v>
       </c>
       <c r="H26" t="n">
-        <v>349.9597650259403</v>
+        <v>346.2330824957484</v>
       </c>
       <c r="I26" t="n">
-        <v>254.4136275388651</v>
+        <v>240.3847806456414</v>
       </c>
       <c r="J26" t="n">
-        <v>103.6577574092157</v>
+        <v>72.77309768536537</v>
       </c>
       <c r="K26" t="n">
-        <v>62.01598937483027</v>
+        <v>15.72789047089677</v>
       </c>
       <c r="L26" t="n">
-        <v>18.38450875428643</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -24479,25 +24481,25 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>4.934605547775988</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>56.01237276874357</v>
+        <v>3.684619204015576</v>
       </c>
       <c r="Q26" t="n">
-        <v>120.8562777625268</v>
+        <v>81.5603140781846</v>
       </c>
       <c r="R26" t="n">
-        <v>211.4982239222711</v>
+        <v>188.6400550964761</v>
       </c>
       <c r="S26" t="n">
-        <v>235.9346815086628</v>
+        <v>227.6425513334645</v>
       </c>
       <c r="T26" t="n">
-        <v>219.4718503679457</v>
+        <v>217.8789244286399</v>
       </c>
       <c r="U26" t="n">
-        <v>248.7911763328777</v>
+        <v>248.7620651792182</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
@@ -24534,19 +24536,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>161.0306354769367</v>
+        <v>160.8359374722434</v>
       </c>
       <c r="H27" t="n">
-        <v>137.9016867325838</v>
+        <v>136.0213138977834</v>
       </c>
       <c r="I27" t="n">
-        <v>117.4902810648562</v>
+        <v>110.7868629208131</v>
       </c>
       <c r="J27" t="n">
-        <v>82.938597341113</v>
+        <v>64.5439055906884</v>
       </c>
       <c r="K27" t="n">
-        <v>13.57083277636244</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24564,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>55.82666100818672</v>
+        <v>30.97363149681966</v>
       </c>
       <c r="R27" t="n">
-        <v>155.3651088272201</v>
+        <v>143.2767537638985</v>
       </c>
       <c r="S27" t="n">
-        <v>208.3135435403173</v>
+        <v>204.6971134970022</v>
       </c>
       <c r="T27" t="n">
-        <v>230.1584524961191</v>
+        <v>229.3736829070266</v>
       </c>
       <c r="U27" t="n">
-        <v>249.6505853349712</v>
+        <v>249.637776255715</v>
       </c>
       <c r="V27" t="n">
         <v>249.2999251801724</v>
@@ -24613,49 +24615,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G28" t="n">
-        <v>169.247518043053</v>
+        <v>169.0842897762481</v>
       </c>
       <c r="H28" t="n">
-        <v>167.6944209426916</v>
+        <v>166.2431732614622</v>
       </c>
       <c r="I28" t="n">
-        <v>168.1305865516738</v>
+        <v>163.221867400849</v>
       </c>
       <c r="J28" t="n">
-        <v>133.20905535072</v>
+        <v>121.6688168876111</v>
       </c>
       <c r="K28" t="n">
-        <v>88.99056004441434</v>
+        <v>70.02640322835012</v>
       </c>
       <c r="L28" t="n">
-        <v>62.96960703121103</v>
+        <v>38.70201543732101</v>
       </c>
       <c r="M28" t="n">
-        <v>59.70650310975206</v>
+        <v>34.11973034141128</v>
       </c>
       <c r="N28" t="n">
-        <v>47.31542685419205</v>
+        <v>22.33705035303328</v>
       </c>
       <c r="O28" t="n">
-        <v>72.58297639552541</v>
+        <v>49.51140282931519</v>
       </c>
       <c r="P28" t="n">
-        <v>91.43798011889524</v>
+        <v>71.69626319550571</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.7386590351999</v>
+        <v>139.0705175302886</v>
       </c>
       <c r="R28" t="n">
-        <v>221.644124959155</v>
+        <v>214.3047885262713</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9209403175845</v>
+        <v>241.0763167951749</v>
       </c>
       <c r="T28" t="n">
-        <v>218.1427676199599</v>
+        <v>217.4453377527024</v>
       </c>
       <c r="U28" t="n">
-        <v>291.2202965310711</v>
+        <v>291.2113931710636</v>
       </c>
       <c r="V28" t="n">
         <v>237.3615500762718</v>
@@ -24692,22 +24694,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>422.2098565259836</v>
+        <v>421.8459671052398</v>
       </c>
       <c r="H29" t="n">
-        <v>349.9597650259403</v>
+        <v>346.2330824957484</v>
       </c>
       <c r="I29" t="n">
-        <v>254.413627538865</v>
+        <v>240.3847806456414</v>
       </c>
       <c r="J29" t="n">
-        <v>103.6577574092157</v>
+        <v>72.77309768536537</v>
       </c>
       <c r="K29" t="n">
-        <v>62.01598937483024</v>
+        <v>15.72789047089674</v>
       </c>
       <c r="L29" t="n">
-        <v>18.38450875428637</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -24716,25 +24718,25 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>4.934605547775959</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>56.01237276874352</v>
+        <v>3.684619204015604</v>
       </c>
       <c r="Q29" t="n">
-        <v>120.8562777625268</v>
+        <v>81.56031407818458</v>
       </c>
       <c r="R29" t="n">
-        <v>211.4982239222711</v>
+        <v>188.6400550964761</v>
       </c>
       <c r="S29" t="n">
-        <v>235.9346815086628</v>
+        <v>227.6425513334644</v>
       </c>
       <c r="T29" t="n">
-        <v>219.4718503679457</v>
+        <v>217.8789244286399</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7911763328777</v>
+        <v>248.7620651792182</v>
       </c>
       <c r="V29" t="n">
         <v>313.3044420010231</v>
@@ -24771,19 +24773,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>161.0306354769367</v>
+        <v>160.8359374722434</v>
       </c>
       <c r="H30" t="n">
-        <v>137.9016867325838</v>
+        <v>136.0213138977834</v>
       </c>
       <c r="I30" t="n">
-        <v>117.4902810648562</v>
+        <v>110.7868629208131</v>
       </c>
       <c r="J30" t="n">
-        <v>82.93859734111298</v>
+        <v>64.5439055906884</v>
       </c>
       <c r="K30" t="n">
-        <v>13.57083277636241</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24801,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>55.82666100818672</v>
+        <v>30.97363149681966</v>
       </c>
       <c r="R30" t="n">
-        <v>155.3651088272201</v>
+        <v>143.2767537638985</v>
       </c>
       <c r="S30" t="n">
-        <v>208.3135435403172</v>
+        <v>204.6971134970022</v>
       </c>
       <c r="T30" t="n">
-        <v>230.1584524961191</v>
+        <v>229.3736829070266</v>
       </c>
       <c r="U30" t="n">
-        <v>249.6505853349712</v>
+        <v>249.637776255715</v>
       </c>
       <c r="V30" t="n">
         <v>249.2999251801724</v>
@@ -24850,49 +24852,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>169.247518043053</v>
+        <v>169.0842897762481</v>
       </c>
       <c r="H31" t="n">
-        <v>167.6944209426916</v>
+        <v>166.2431732614622</v>
       </c>
       <c r="I31" t="n">
-        <v>168.1305865516738</v>
+        <v>163.221867400849</v>
       </c>
       <c r="J31" t="n">
-        <v>133.20905535072</v>
+        <v>121.6688168876111</v>
       </c>
       <c r="K31" t="n">
-        <v>88.99056004441432</v>
+        <v>70.02640322835012</v>
       </c>
       <c r="L31" t="n">
-        <v>62.96960703121101</v>
+        <v>38.70201543732101</v>
       </c>
       <c r="M31" t="n">
-        <v>59.70650310975206</v>
+        <v>34.11973034141127</v>
       </c>
       <c r="N31" t="n">
-        <v>47.31542685419204</v>
+        <v>22.33705035303326</v>
       </c>
       <c r="O31" t="n">
-        <v>72.58297639552539</v>
+        <v>49.51140282931519</v>
       </c>
       <c r="P31" t="n">
-        <v>91.43798011889523</v>
+        <v>71.69626319550571</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.7386590351999</v>
+        <v>139.0705175302886</v>
       </c>
       <c r="R31" t="n">
-        <v>221.644124959155</v>
+        <v>214.3047885262713</v>
       </c>
       <c r="S31" t="n">
-        <v>243.9209403175845</v>
+        <v>241.0763167951749</v>
       </c>
       <c r="T31" t="n">
-        <v>218.1427676199599</v>
+        <v>217.4453377527024</v>
       </c>
       <c r="U31" t="n">
-        <v>291.2202965310711</v>
+        <v>291.2113931710636</v>
       </c>
       <c r="V31" t="n">
         <v>237.3615500762718</v>
@@ -24929,22 +24931,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>422.2098565259836</v>
+        <v>421.8459671052398</v>
       </c>
       <c r="H32" t="n">
-        <v>349.9597650259403</v>
+        <v>346.2330824957484</v>
       </c>
       <c r="I32" t="n">
-        <v>254.4136275388651</v>
+        <v>240.3847806456414</v>
       </c>
       <c r="J32" t="n">
-        <v>103.6577574092157</v>
+        <v>72.77309768536537</v>
       </c>
       <c r="K32" t="n">
-        <v>62.01598937483027</v>
+        <v>15.72789047089677</v>
       </c>
       <c r="L32" t="n">
-        <v>18.38450875428643</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -24953,25 +24955,25 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>4.934605547775988</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>56.01237276874357</v>
+        <v>3.684619204015576</v>
       </c>
       <c r="Q32" t="n">
-        <v>120.8562777625268</v>
+        <v>81.5603140781846</v>
       </c>
       <c r="R32" t="n">
-        <v>211.4982239222711</v>
+        <v>188.6400550964761</v>
       </c>
       <c r="S32" t="n">
-        <v>235.9346815086628</v>
+        <v>227.6425513334645</v>
       </c>
       <c r="T32" t="n">
-        <v>219.4718503679457</v>
+        <v>217.8789244286399</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7911763328777</v>
+        <v>248.7620651792182</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -25008,19 +25010,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>161.0306354769367</v>
+        <v>160.8359374722434</v>
       </c>
       <c r="H33" t="n">
-        <v>137.9016867325838</v>
+        <v>136.0213138977834</v>
       </c>
       <c r="I33" t="n">
-        <v>117.4902810648562</v>
+        <v>110.7868629208131</v>
       </c>
       <c r="J33" t="n">
-        <v>82.938597341113</v>
+        <v>64.5439055906884</v>
       </c>
       <c r="K33" t="n">
-        <v>13.57083277636244</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25038,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>55.82666100818672</v>
+        <v>30.97363149681966</v>
       </c>
       <c r="R33" t="n">
-        <v>155.3651088272201</v>
+        <v>143.2767537638985</v>
       </c>
       <c r="S33" t="n">
-        <v>208.3135435403173</v>
+        <v>204.6971134970022</v>
       </c>
       <c r="T33" t="n">
-        <v>230.1584524961191</v>
+        <v>229.3736829070266</v>
       </c>
       <c r="U33" t="n">
-        <v>249.6505853349712</v>
+        <v>249.637776255715</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
@@ -25087,49 +25089,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G34" t="n">
-        <v>169.247518043053</v>
+        <v>169.0842897762481</v>
       </c>
       <c r="H34" t="n">
-        <v>167.6944209426916</v>
+        <v>166.2431732614622</v>
       </c>
       <c r="I34" t="n">
-        <v>168.1305865516738</v>
+        <v>163.221867400849</v>
       </c>
       <c r="J34" t="n">
-        <v>133.20905535072</v>
+        <v>121.6688168876111</v>
       </c>
       <c r="K34" t="n">
-        <v>88.99056004441434</v>
+        <v>70.02640322835012</v>
       </c>
       <c r="L34" t="n">
-        <v>62.96960703121103</v>
+        <v>38.70201543732101</v>
       </c>
       <c r="M34" t="n">
-        <v>59.70650310975206</v>
+        <v>34.11973034141128</v>
       </c>
       <c r="N34" t="n">
-        <v>47.31542685419205</v>
+        <v>22.33705035303328</v>
       </c>
       <c r="O34" t="n">
-        <v>72.58297639552541</v>
+        <v>49.51140282931519</v>
       </c>
       <c r="P34" t="n">
-        <v>91.43798011889524</v>
+        <v>71.69626319550571</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.7386590351999</v>
+        <v>139.0705175302886</v>
       </c>
       <c r="R34" t="n">
-        <v>221.644124959155</v>
+        <v>214.3047885262713</v>
       </c>
       <c r="S34" t="n">
-        <v>243.9209403175845</v>
+        <v>241.0763167951749</v>
       </c>
       <c r="T34" t="n">
-        <v>218.1427676199599</v>
+        <v>217.4453377527024</v>
       </c>
       <c r="U34" t="n">
-        <v>291.2202965310711</v>
+        <v>291.2113931710636</v>
       </c>
       <c r="V34" t="n">
         <v>237.3615500762718</v>
@@ -25166,22 +25168,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>422.2098565259836</v>
+        <v>421.8459671052398</v>
       </c>
       <c r="H35" t="n">
-        <v>349.9597650259403</v>
+        <v>346.2330824957484</v>
       </c>
       <c r="I35" t="n">
-        <v>254.4136275388651</v>
+        <v>240.3847806456414</v>
       </c>
       <c r="J35" t="n">
-        <v>103.6577574092157</v>
+        <v>72.77309768536537</v>
       </c>
       <c r="K35" t="n">
-        <v>62.01598937483027</v>
+        <v>15.72789047089677</v>
       </c>
       <c r="L35" t="n">
-        <v>18.38450875428643</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -25190,25 +25192,25 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>4.934605547775988</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>56.01237276874357</v>
+        <v>3.684619204015576</v>
       </c>
       <c r="Q35" t="n">
-        <v>120.8562777625268</v>
+        <v>81.5603140781846</v>
       </c>
       <c r="R35" t="n">
-        <v>211.4982239222711</v>
+        <v>188.6400550964761</v>
       </c>
       <c r="S35" t="n">
-        <v>235.9346815086628</v>
+        <v>227.6425513334645</v>
       </c>
       <c r="T35" t="n">
-        <v>219.4718503679457</v>
+        <v>217.8789244286399</v>
       </c>
       <c r="U35" t="n">
-        <v>248.7911763328777</v>
+        <v>248.7620651792182</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25245,19 +25247,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>161.0306354769367</v>
+        <v>160.8359374722434</v>
       </c>
       <c r="H36" t="n">
-        <v>137.9016867325838</v>
+        <v>136.0213138977834</v>
       </c>
       <c r="I36" t="n">
-        <v>117.4902810648562</v>
+        <v>110.7868629208131</v>
       </c>
       <c r="J36" t="n">
-        <v>82.938597341113</v>
+        <v>64.5439055906884</v>
       </c>
       <c r="K36" t="n">
-        <v>13.57083277636244</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25275,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>55.82666100818672</v>
+        <v>30.97363149681966</v>
       </c>
       <c r="R36" t="n">
-        <v>155.3651088272201</v>
+        <v>143.2767537638985</v>
       </c>
       <c r="S36" t="n">
-        <v>208.3135435403173</v>
+        <v>204.6971134970022</v>
       </c>
       <c r="T36" t="n">
-        <v>230.1584524961191</v>
+        <v>229.3736829070266</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6505853349712</v>
+        <v>249.637776255715</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
@@ -25324,49 +25326,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G37" t="n">
-        <v>169.247518043053</v>
+        <v>169.0842897762481</v>
       </c>
       <c r="H37" t="n">
-        <v>167.6944209426916</v>
+        <v>166.2431732614622</v>
       </c>
       <c r="I37" t="n">
-        <v>168.1305865516738</v>
+        <v>163.221867400849</v>
       </c>
       <c r="J37" t="n">
-        <v>133.20905535072</v>
+        <v>121.6688168876111</v>
       </c>
       <c r="K37" t="n">
-        <v>88.99056004441434</v>
+        <v>70.02640322835012</v>
       </c>
       <c r="L37" t="n">
-        <v>62.96960703121103</v>
+        <v>38.70201543732101</v>
       </c>
       <c r="M37" t="n">
-        <v>59.70650310975206</v>
+        <v>34.11973034141128</v>
       </c>
       <c r="N37" t="n">
-        <v>47.31542685419205</v>
+        <v>22.33705035303328</v>
       </c>
       <c r="O37" t="n">
-        <v>72.58297639552541</v>
+        <v>49.51140282931519</v>
       </c>
       <c r="P37" t="n">
-        <v>91.43798011889524</v>
+        <v>71.69626319550571</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.7386590351999</v>
+        <v>139.0705175302886</v>
       </c>
       <c r="R37" t="n">
-        <v>221.644124959155</v>
+        <v>214.3047885262713</v>
       </c>
       <c r="S37" t="n">
-        <v>243.9209403175845</v>
+        <v>241.0763167951749</v>
       </c>
       <c r="T37" t="n">
-        <v>218.1427676199599</v>
+        <v>217.4453377527024</v>
       </c>
       <c r="U37" t="n">
-        <v>291.2202965310711</v>
+        <v>291.2113931710636</v>
       </c>
       <c r="V37" t="n">
         <v>237.3615500762718</v>
@@ -25403,22 +25405,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>422.2098565259836</v>
+        <v>421.8459671052398</v>
       </c>
       <c r="H38" t="n">
-        <v>349.9597650259403</v>
+        <v>346.2330824957484</v>
       </c>
       <c r="I38" t="n">
-        <v>254.4136275388651</v>
+        <v>240.3847806456414</v>
       </c>
       <c r="J38" t="n">
-        <v>103.6577574092157</v>
+        <v>72.77309768536537</v>
       </c>
       <c r="K38" t="n">
-        <v>62.01598937483027</v>
+        <v>15.72789047089677</v>
       </c>
       <c r="L38" t="n">
-        <v>18.38450875428643</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -25427,25 +25429,25 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>4.934605547775988</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>56.01237276874357</v>
+        <v>3.684619204015576</v>
       </c>
       <c r="Q38" t="n">
-        <v>120.8562777625268</v>
+        <v>81.5603140781846</v>
       </c>
       <c r="R38" t="n">
-        <v>211.4982239222711</v>
+        <v>188.6400550964761</v>
       </c>
       <c r="S38" t="n">
-        <v>235.9346815086628</v>
+        <v>227.6425513334645</v>
       </c>
       <c r="T38" t="n">
-        <v>219.4718503679457</v>
+        <v>217.8789244286399</v>
       </c>
       <c r="U38" t="n">
-        <v>248.7911763328777</v>
+        <v>248.7620651792182</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
@@ -25482,19 +25484,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>161.0306354769367</v>
+        <v>160.8359374722434</v>
       </c>
       <c r="H39" t="n">
-        <v>137.9016867325838</v>
+        <v>136.0213138977834</v>
       </c>
       <c r="I39" t="n">
-        <v>117.4902810648562</v>
+        <v>110.7868629208131</v>
       </c>
       <c r="J39" t="n">
-        <v>82.938597341113</v>
+        <v>64.5439055906884</v>
       </c>
       <c r="K39" t="n">
-        <v>13.57083277636244</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25512,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>55.82666100818672</v>
+        <v>30.97363149681966</v>
       </c>
       <c r="R39" t="n">
-        <v>155.3651088272201</v>
+        <v>143.2767537638985</v>
       </c>
       <c r="S39" t="n">
-        <v>208.3135435403173</v>
+        <v>204.6971134970022</v>
       </c>
       <c r="T39" t="n">
-        <v>230.1584524961191</v>
+        <v>229.3736829070266</v>
       </c>
       <c r="U39" t="n">
-        <v>249.6505853349712</v>
+        <v>249.637776255715</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
@@ -25561,49 +25563,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G40" t="n">
-        <v>169.247518043053</v>
+        <v>169.0842897762481</v>
       </c>
       <c r="H40" t="n">
-        <v>167.6944209426916</v>
+        <v>166.2431732614622</v>
       </c>
       <c r="I40" t="n">
-        <v>168.1305865516738</v>
+        <v>163.221867400849</v>
       </c>
       <c r="J40" t="n">
-        <v>133.20905535072</v>
+        <v>121.6688168876111</v>
       </c>
       <c r="K40" t="n">
-        <v>88.99056004441434</v>
+        <v>70.02640322835012</v>
       </c>
       <c r="L40" t="n">
-        <v>62.96960703121103</v>
+        <v>38.70201543732101</v>
       </c>
       <c r="M40" t="n">
-        <v>59.70650310975206</v>
+        <v>34.11973034141128</v>
       </c>
       <c r="N40" t="n">
-        <v>47.31542685419205</v>
+        <v>22.33705035303328</v>
       </c>
       <c r="O40" t="n">
-        <v>72.58297639552541</v>
+        <v>49.51140282931519</v>
       </c>
       <c r="P40" t="n">
-        <v>91.43798011889524</v>
+        <v>71.69626319550571</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.7386590351999</v>
+        <v>139.0705175302886</v>
       </c>
       <c r="R40" t="n">
-        <v>221.644124959155</v>
+        <v>214.3047885262713</v>
       </c>
       <c r="S40" t="n">
-        <v>243.9209403175845</v>
+        <v>241.0763167951749</v>
       </c>
       <c r="T40" t="n">
-        <v>218.1427676199599</v>
+        <v>217.4453377527024</v>
       </c>
       <c r="U40" t="n">
-        <v>291.2202965310711</v>
+        <v>291.2113931710636</v>
       </c>
       <c r="V40" t="n">
         <v>237.3615500762718</v>
@@ -25640,22 +25642,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>422.2098565259836</v>
+        <v>421.8459671052398</v>
       </c>
       <c r="H41" t="n">
-        <v>349.9597650259403</v>
+        <v>346.2330824957484</v>
       </c>
       <c r="I41" t="n">
-        <v>254.4136275388651</v>
+        <v>240.3847806456414</v>
       </c>
       <c r="J41" t="n">
-        <v>103.6577574092157</v>
+        <v>72.77309768536537</v>
       </c>
       <c r="K41" t="n">
-        <v>62.01598937483027</v>
+        <v>15.72789047089677</v>
       </c>
       <c r="L41" t="n">
-        <v>18.38450875428643</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -25664,25 +25666,25 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>4.934605547775988</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>56.01237276874357</v>
+        <v>3.684619204015576</v>
       </c>
       <c r="Q41" t="n">
-        <v>120.8562777625268</v>
+        <v>81.5603140781846</v>
       </c>
       <c r="R41" t="n">
-        <v>211.4982239222711</v>
+        <v>188.6400550964761</v>
       </c>
       <c r="S41" t="n">
-        <v>235.9346815086628</v>
+        <v>227.6425513334645</v>
       </c>
       <c r="T41" t="n">
-        <v>219.4718503679457</v>
+        <v>217.8789244286399</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7911763328777</v>
+        <v>248.7620651792182</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
@@ -25719,19 +25721,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>161.0306354769367</v>
+        <v>160.8359374722434</v>
       </c>
       <c r="H42" t="n">
-        <v>137.9016867325838</v>
+        <v>136.0213138977834</v>
       </c>
       <c r="I42" t="n">
-        <v>117.4902810648562</v>
+        <v>110.7868629208131</v>
       </c>
       <c r="J42" t="n">
-        <v>82.938597341113</v>
+        <v>64.5439055906884</v>
       </c>
       <c r="K42" t="n">
-        <v>13.57083277636244</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25749,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>55.82666100818672</v>
+        <v>30.97363149681966</v>
       </c>
       <c r="R42" t="n">
-        <v>155.3651088272201</v>
+        <v>143.2767537638985</v>
       </c>
       <c r="S42" t="n">
-        <v>208.3135435403173</v>
+        <v>204.6971134970022</v>
       </c>
       <c r="T42" t="n">
-        <v>230.1584524961191</v>
+        <v>229.3736829070266</v>
       </c>
       <c r="U42" t="n">
-        <v>249.6505853349712</v>
+        <v>249.637776255715</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
@@ -25798,49 +25800,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G43" t="n">
-        <v>169.247518043053</v>
+        <v>169.0842897762481</v>
       </c>
       <c r="H43" t="n">
-        <v>167.6944209426916</v>
+        <v>166.2431732614622</v>
       </c>
       <c r="I43" t="n">
-        <v>168.1305865516738</v>
+        <v>163.221867400849</v>
       </c>
       <c r="J43" t="n">
-        <v>133.20905535072</v>
+        <v>121.6688168876111</v>
       </c>
       <c r="K43" t="n">
-        <v>88.99056004441434</v>
+        <v>70.02640322835012</v>
       </c>
       <c r="L43" t="n">
-        <v>62.96960703121103</v>
+        <v>38.70201543732101</v>
       </c>
       <c r="M43" t="n">
-        <v>59.70650310975206</v>
+        <v>34.11973034141128</v>
       </c>
       <c r="N43" t="n">
-        <v>47.31542685419205</v>
+        <v>22.33705035303328</v>
       </c>
       <c r="O43" t="n">
-        <v>72.58297639552541</v>
+        <v>49.51140282931519</v>
       </c>
       <c r="P43" t="n">
-        <v>91.43798011889524</v>
+        <v>71.69626319550571</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.7386590351999</v>
+        <v>139.0705175302886</v>
       </c>
       <c r="R43" t="n">
-        <v>221.644124959155</v>
+        <v>214.3047885262713</v>
       </c>
       <c r="S43" t="n">
-        <v>243.9209403175845</v>
+        <v>241.0763167951749</v>
       </c>
       <c r="T43" t="n">
-        <v>218.1427676199599</v>
+        <v>217.4453377527024</v>
       </c>
       <c r="U43" t="n">
-        <v>291.2202965310711</v>
+        <v>291.2113931710636</v>
       </c>
       <c r="V43" t="n">
         <v>237.3615500762718</v>
@@ -25877,22 +25879,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>422.2098565259836</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H44" t="n">
-        <v>349.9597650259403</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I44" t="n">
-        <v>254.4136275388651</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J44" t="n">
-        <v>103.6577574092157</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K44" t="n">
-        <v>62.01598937483027</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>18.38450875428643</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -25901,25 +25903,25 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>4.934605547775988</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>56.01237276874357</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>120.8562777625268</v>
+        <v>66.86288983651983</v>
       </c>
       <c r="R44" t="n">
-        <v>211.4982239222711</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S44" t="n">
-        <v>235.9346815086628</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T44" t="n">
-        <v>219.4718503679457</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7911763328777</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V44" t="n">
         <v>313.3044420010231</v>
@@ -25956,19 +25958,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>161.0306354769367</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H45" t="n">
-        <v>137.9016867325838</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I45" t="n">
-        <v>117.4902810648562</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J45" t="n">
-        <v>82.938597341113</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K45" t="n">
-        <v>13.57083277636244</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25986,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>55.82666100818672</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R45" t="n">
-        <v>155.3651088272201</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S45" t="n">
-        <v>208.3135435403173</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T45" t="n">
-        <v>230.1584524961191</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U45" t="n">
-        <v>249.6505853349712</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V45" t="n">
         <v>249.2999251801724</v>
@@ -26035,49 +26037,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G46" t="n">
-        <v>169.247518043053</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H46" t="n">
-        <v>167.6944209426916</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I46" t="n">
-        <v>168.1305865516738</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J46" t="n">
-        <v>133.20905535072</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K46" t="n">
-        <v>88.99056004441434</v>
+        <v>62.93345443721985</v>
       </c>
       <c r="L46" t="n">
-        <v>62.96960703121103</v>
+        <v>29.62548300147246</v>
       </c>
       <c r="M46" t="n">
-        <v>59.70650310975206</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N46" t="n">
-        <v>47.31542685419205</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O46" t="n">
-        <v>72.58297639552541</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P46" t="n">
-        <v>91.43798011889524</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.7386590351999</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R46" t="n">
-        <v>221.644124959155</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S46" t="n">
-        <v>243.9209403175845</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T46" t="n">
-        <v>218.1427676199599</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U46" t="n">
-        <v>291.2202965310711</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V46" t="n">
         <v>237.3615500762718</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>447134.9041113401</v>
+        <v>483652.5840429105</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>447134.9041113401</v>
+        <v>483652.5840429105</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>447134.9041113401</v>
+        <v>483652.5840429105</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>447134.9041113401</v>
+        <v>483652.5840429105</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>447134.9041113401</v>
+        <v>483652.5840429105</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>447134.9041113401</v>
+        <v>483652.5840429105</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>447134.9041113401</v>
+        <v>483652.5840429105</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>447134.9041113401</v>
+        <v>483652.5840429105</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>447134.9041113401</v>
+        <v>483652.5840429105</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>447134.9041113401</v>
+        <v>483652.5840429105</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>447134.9041113401</v>
+        <v>483652.5840429105</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>447134.9041113401</v>
+        <v>493646.9760364962</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>21023.75692077818</v>
       </c>
       <c r="E2" t="n">
-        <v>63794.77068251577</v>
+        <v>69898.11367906196</v>
       </c>
       <c r="F2" t="n">
-        <v>63794.77068251576</v>
+        <v>69898.11367906196</v>
       </c>
       <c r="G2" t="n">
-        <v>63794.77068251576</v>
+        <v>69898.11367906195</v>
       </c>
       <c r="H2" t="n">
-        <v>63794.77068251576</v>
+        <v>69898.11367906196</v>
       </c>
       <c r="I2" t="n">
-        <v>63794.77068251576</v>
+        <v>69898.11367906196</v>
       </c>
       <c r="J2" t="n">
-        <v>63794.77068251576</v>
+        <v>69898.11367906196</v>
       </c>
       <c r="K2" t="n">
-        <v>63794.77068251576</v>
+        <v>69898.11367906195</v>
       </c>
       <c r="L2" t="n">
-        <v>63794.77068251576</v>
+        <v>69898.11367906196</v>
       </c>
       <c r="M2" t="n">
-        <v>63794.77068251576</v>
+        <v>69898.11367906198</v>
       </c>
       <c r="N2" t="n">
-        <v>63794.77068251576</v>
+        <v>69898.11367906196</v>
       </c>
       <c r="O2" t="n">
-        <v>63794.77068251576</v>
+        <v>69898.11367906196</v>
       </c>
       <c r="P2" t="n">
-        <v>63794.77068251577</v>
+        <v>71663.33073013774</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>275861.118444412</v>
+        <v>348583.1442024936</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>22533.23048207551</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18687.7839295806</v>
+        <v>18687.78392958061</v>
       </c>
       <c r="C4" t="n">
-        <v>18687.7839295806</v>
+        <v>18687.78392958061</v>
       </c>
       <c r="D4" t="n">
-        <v>18687.7839295806</v>
+        <v>18687.78392958061</v>
       </c>
       <c r="E4" t="n">
-        <v>14748.12504095569</v>
+        <v>9898.702440379522</v>
       </c>
       <c r="F4" t="n">
-        <v>14748.12504095569</v>
+        <v>9898.702440379522</v>
       </c>
       <c r="G4" t="n">
-        <v>14748.12504095569</v>
+        <v>9898.702440379522</v>
       </c>
       <c r="H4" t="n">
-        <v>14748.12504095569</v>
+        <v>9898.702440379522</v>
       </c>
       <c r="I4" t="n">
-        <v>14748.12504095569</v>
+        <v>9898.702440379522</v>
       </c>
       <c r="J4" t="n">
-        <v>14748.12504095569</v>
+        <v>9898.702440379522</v>
       </c>
       <c r="K4" t="n">
-        <v>14748.12504095569</v>
+        <v>9898.702440379522</v>
       </c>
       <c r="L4" t="n">
-        <v>14748.12504095569</v>
+        <v>9898.702440379522</v>
       </c>
       <c r="M4" t="n">
-        <v>14748.12504095569</v>
+        <v>9898.702440379522</v>
       </c>
       <c r="N4" t="n">
-        <v>14748.12504095569</v>
+        <v>9898.702440379522</v>
       </c>
       <c r="O4" t="n">
-        <v>14748.12504095569</v>
+        <v>9898.702440379522</v>
       </c>
       <c r="P4" t="n">
-        <v>14748.12504095569</v>
+        <v>7928.845532229342</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>7485.37456555201</v>
+        <v>9458.655921890211</v>
       </c>
       <c r="F5" t="n">
-        <v>7485.37456555201</v>
+        <v>9458.655921890211</v>
       </c>
       <c r="G5" t="n">
-        <v>7485.37456555201</v>
+        <v>9458.655921890211</v>
       </c>
       <c r="H5" t="n">
-        <v>7485.37456555201</v>
+        <v>9458.655921890211</v>
       </c>
       <c r="I5" t="n">
-        <v>7485.37456555201</v>
+        <v>9458.655921890211</v>
       </c>
       <c r="J5" t="n">
-        <v>7485.37456555201</v>
+        <v>9458.655921890211</v>
       </c>
       <c r="K5" t="n">
-        <v>7485.374565552011</v>
+        <v>9458.655921890211</v>
       </c>
       <c r="L5" t="n">
-        <v>7485.37456555201</v>
+        <v>9458.655921890211</v>
       </c>
       <c r="M5" t="n">
-        <v>7485.37456555201</v>
+        <v>9458.655921890211</v>
       </c>
       <c r="N5" t="n">
-        <v>7485.37456555201</v>
+        <v>9458.655921890211</v>
       </c>
       <c r="O5" t="n">
-        <v>7485.37456555201</v>
+        <v>9458.655921890211</v>
       </c>
       <c r="P5" t="n">
-        <v>7485.37456555201</v>
+        <v>10196.69999876384</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-31291.62700880242</v>
+        <v>-31291.62700880243</v>
       </c>
       <c r="C6" t="n">
-        <v>-31291.62700880242</v>
+        <v>-31291.62700880243</v>
       </c>
       <c r="D6" t="n">
-        <v>-31291.62700880242</v>
+        <v>-31291.62700880243</v>
       </c>
       <c r="E6" t="n">
-        <v>-234299.8473684039</v>
+        <v>-298042.3888857013</v>
       </c>
       <c r="F6" t="n">
-        <v>41561.27107600806</v>
+        <v>50540.75531679223</v>
       </c>
       <c r="G6" t="n">
-        <v>41561.27107600806</v>
+        <v>50540.75531679222</v>
       </c>
       <c r="H6" t="n">
-        <v>41561.27107600806</v>
+        <v>50540.75531679223</v>
       </c>
       <c r="I6" t="n">
-        <v>41561.27107600806</v>
+        <v>50540.75531679223</v>
       </c>
       <c r="J6" t="n">
-        <v>41561.27107600806</v>
+        <v>50540.75531679223</v>
       </c>
       <c r="K6" t="n">
-        <v>41561.27107600806</v>
+        <v>50540.75531679222</v>
       </c>
       <c r="L6" t="n">
-        <v>41561.27107600806</v>
+        <v>50540.75531679223</v>
       </c>
       <c r="M6" t="n">
-        <v>41561.27107600806</v>
+        <v>50540.75531679225</v>
       </c>
       <c r="N6" t="n">
-        <v>41561.27107600806</v>
+        <v>50540.75531679223</v>
       </c>
       <c r="O6" t="n">
-        <v>41561.27107600806</v>
+        <v>50540.75531679223</v>
       </c>
       <c r="P6" t="n">
-        <v>41561.27107600807</v>
+        <v>31004.55471706904</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>343.3658057592665</v>
+        <v>433.8832991692757</v>
       </c>
       <c r="F3" t="n">
-        <v>343.3658057592665</v>
+        <v>433.8832991692757</v>
       </c>
       <c r="G3" t="n">
-        <v>343.3658057592665</v>
+        <v>433.8832991692757</v>
       </c>
       <c r="H3" t="n">
-        <v>343.3658057592665</v>
+        <v>433.8832991692757</v>
       </c>
       <c r="I3" t="n">
-        <v>343.3658057592665</v>
+        <v>433.8832991692757</v>
       </c>
       <c r="J3" t="n">
-        <v>343.3658057592665</v>
+        <v>433.8832991692757</v>
       </c>
       <c r="K3" t="n">
-        <v>343.3658057592666</v>
+        <v>433.8832991692757</v>
       </c>
       <c r="L3" t="n">
-        <v>343.3658057592665</v>
+        <v>433.8832991692757</v>
       </c>
       <c r="M3" t="n">
-        <v>343.3658057592665</v>
+        <v>433.8832991692757</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3658057592665</v>
+        <v>433.8832991692757</v>
       </c>
       <c r="O3" t="n">
-        <v>343.3658057592665</v>
+        <v>433.8832991692757</v>
       </c>
       <c r="P3" t="n">
-        <v>343.3658057592665</v>
+        <v>467.7385320533874</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>343.3658057592665</v>
+        <v>433.8832991692757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>33.85523288411167</v>
       </c>
     </row>
     <row r="4">
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.380365048278457</v>
+        <v>1.744254469022213</v>
       </c>
       <c r="H11" t="n">
-        <v>14.13666355068175</v>
+        <v>17.86334608087374</v>
       </c>
       <c r="I11" t="n">
-        <v>53.21652352375527</v>
+        <v>67.24537041697891</v>
       </c>
       <c r="J11" t="n">
-        <v>117.1567580163238</v>
+        <v>148.0414177401742</v>
       </c>
       <c r="K11" t="n">
-        <v>175.5876105099509</v>
+        <v>221.8757094138844</v>
       </c>
       <c r="L11" t="n">
-        <v>217.8319573562028</v>
+        <v>275.256437120223</v>
       </c>
       <c r="M11" t="n">
-        <v>242.3800242835248</v>
+        <v>306.2758225336968</v>
       </c>
       <c r="N11" t="n">
-        <v>246.301986476946</v>
+        <v>311.2316855438062</v>
       </c>
       <c r="O11" t="n">
-        <v>232.5759815281271</v>
+        <v>293.8872551674665</v>
       </c>
       <c r="P11" t="n">
-        <v>198.4982193987526</v>
+        <v>250.8259729634806</v>
       </c>
       <c r="Q11" t="n">
-        <v>149.0638961072804</v>
+        <v>188.3598597916226</v>
       </c>
       <c r="R11" t="n">
-        <v>86.70935596392171</v>
+        <v>109.5675247897167</v>
       </c>
       <c r="S11" t="n">
-        <v>31.45506853764537</v>
+        <v>39.7471987128437</v>
       </c>
       <c r="T11" t="n">
-        <v>6.042547998838949</v>
+        <v>7.635473938144739</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1104292038622766</v>
+        <v>0.139540357521777</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7385604123878563</v>
+        <v>0.9332584170810836</v>
       </c>
       <c r="H12" t="n">
-        <v>7.132938719640613</v>
+        <v>9.013311554440993</v>
       </c>
       <c r="I12" t="n">
-        <v>25.42850542651172</v>
+        <v>32.13192357055485</v>
       </c>
       <c r="J12" t="n">
-        <v>69.77776247038076</v>
+        <v>88.17245422080536</v>
       </c>
       <c r="K12" t="n">
-        <v>119.2613101003671</v>
+        <v>150.700768165238</v>
       </c>
       <c r="L12" t="n">
-        <v>160.3615491897405</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M12" t="n">
-        <v>187.1343641388002</v>
+        <v>207.8710246109518</v>
       </c>
       <c r="N12" t="n">
-        <v>192.0872539218749</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O12" t="n">
-        <v>175.7223100473861</v>
+        <v>208.5470075</v>
       </c>
       <c r="P12" t="n">
-        <v>141.0326457655372</v>
+        <v>178.2114252757729</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.276588781299</v>
+        <v>119.1296182926661</v>
       </c>
       <c r="R12" t="n">
-        <v>45.85553156913376</v>
+        <v>57.94388663245537</v>
       </c>
       <c r="S12" t="n">
-        <v>13.71843573009899</v>
+        <v>17.33486577341397</v>
       </c>
       <c r="T12" t="n">
-        <v>2.976916749931753</v>
+        <v>3.761686339024191</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04858950081499056</v>
+        <v>0.06139858007112394</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6191842398937591</v>
+        <v>0.7824125066986938</v>
       </c>
       <c r="H13" t="n">
-        <v>5.505110787419063</v>
+        <v>6.956358468648392</v>
       </c>
       <c r="I13" t="n">
-        <v>18.62055877789597</v>
+        <v>23.52927792872073</v>
       </c>
       <c r="J13" t="n">
-        <v>43.77632576048877</v>
+        <v>55.31656422359764</v>
       </c>
       <c r="K13" t="n">
-        <v>71.937950780384</v>
+        <v>90.90210759644822</v>
       </c>
       <c r="L13" t="n">
-        <v>92.05580962929581</v>
+        <v>116.3234012231858</v>
       </c>
       <c r="M13" t="n">
-        <v>97.05994407716445</v>
+        <v>122.6467168455052</v>
       </c>
       <c r="N13" t="n">
-        <v>94.75207554665141</v>
+        <v>119.7304520478102</v>
       </c>
       <c r="O13" t="n">
-        <v>87.5188778351652</v>
+        <v>110.5904514013754</v>
       </c>
       <c r="P13" t="n">
-        <v>74.88751934133245</v>
+        <v>94.62923626472198</v>
       </c>
       <c r="Q13" t="n">
-        <v>51.84823666964924</v>
+        <v>65.51637817456063</v>
       </c>
       <c r="R13" t="n">
-        <v>27.84077500467756</v>
+        <v>35.18011143756126</v>
       </c>
       <c r="S13" t="n">
-        <v>10.7906926170576</v>
+        <v>13.63531613946723</v>
       </c>
       <c r="T13" t="n">
-        <v>2.64560538863697</v>
+        <v>3.343035255894418</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03377368581238691</v>
+        <v>0.0426770458199288</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.380365048278457</v>
+        <v>1.744254469022213</v>
       </c>
       <c r="H14" t="n">
-        <v>14.13666355068175</v>
+        <v>17.86334608087374</v>
       </c>
       <c r="I14" t="n">
-        <v>53.21652352375527</v>
+        <v>67.24537041697891</v>
       </c>
       <c r="J14" t="n">
-        <v>117.1567580163238</v>
+        <v>148.0414177401742</v>
       </c>
       <c r="K14" t="n">
-        <v>175.5876105099509</v>
+        <v>221.8757094138844</v>
       </c>
       <c r="L14" t="n">
-        <v>217.8319573562028</v>
+        <v>275.256437120223</v>
       </c>
       <c r="M14" t="n">
-        <v>242.3800242835248</v>
+        <v>306.2758225336968</v>
       </c>
       <c r="N14" t="n">
-        <v>246.301986476946</v>
+        <v>311.2316855438062</v>
       </c>
       <c r="O14" t="n">
-        <v>232.5759815281271</v>
+        <v>293.8872551674665</v>
       </c>
       <c r="P14" t="n">
-        <v>198.4982193987526</v>
+        <v>250.8259729634806</v>
       </c>
       <c r="Q14" t="n">
-        <v>149.0638961072804</v>
+        <v>188.3598597916226</v>
       </c>
       <c r="R14" t="n">
-        <v>86.70935596392171</v>
+        <v>109.5675247897167</v>
       </c>
       <c r="S14" t="n">
-        <v>31.45506853764537</v>
+        <v>39.7471987128437</v>
       </c>
       <c r="T14" t="n">
-        <v>6.042547998838949</v>
+        <v>7.635473938144739</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1104292038622766</v>
+        <v>0.139540357521777</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7385604123878563</v>
+        <v>0.9332584170810836</v>
       </c>
       <c r="H15" t="n">
-        <v>7.132938719640613</v>
+        <v>9.013311554440993</v>
       </c>
       <c r="I15" t="n">
-        <v>25.42850542651172</v>
+        <v>32.13192357055485</v>
       </c>
       <c r="J15" t="n">
-        <v>69.77776247038076</v>
+        <v>88.17245422080536</v>
       </c>
       <c r="K15" t="n">
-        <v>119.2613101003671</v>
+        <v>150.700768165238</v>
       </c>
       <c r="L15" t="n">
-        <v>160.3615491897405</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M15" t="n">
-        <v>187.1343641388002</v>
+        <v>207.8710246109518</v>
       </c>
       <c r="N15" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O15" t="n">
-        <v>175.7223100473861</v>
+        <v>208.5470075</v>
       </c>
       <c r="P15" t="n">
-        <v>141.0326457655372</v>
+        <v>178.2114252757729</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.276588781299</v>
+        <v>119.1296182926661</v>
       </c>
       <c r="R15" t="n">
-        <v>45.85553156913376</v>
+        <v>57.94388663245537</v>
       </c>
       <c r="S15" t="n">
-        <v>13.71843573009899</v>
+        <v>17.33486577341397</v>
       </c>
       <c r="T15" t="n">
-        <v>2.976916749931753</v>
+        <v>3.761686339024191</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04858950081499056</v>
+        <v>0.06139858007112394</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6191842398937591</v>
+        <v>0.7824125066986938</v>
       </c>
       <c r="H16" t="n">
-        <v>5.505110787419063</v>
+        <v>6.956358468648392</v>
       </c>
       <c r="I16" t="n">
-        <v>18.62055877789597</v>
+        <v>23.52927792872073</v>
       </c>
       <c r="J16" t="n">
-        <v>43.77632576048877</v>
+        <v>55.31656422359764</v>
       </c>
       <c r="K16" t="n">
-        <v>71.937950780384</v>
+        <v>90.90210759644822</v>
       </c>
       <c r="L16" t="n">
-        <v>92.05580962929581</v>
+        <v>116.3234012231858</v>
       </c>
       <c r="M16" t="n">
-        <v>97.05994407716445</v>
+        <v>122.6467168455052</v>
       </c>
       <c r="N16" t="n">
-        <v>94.75207554665141</v>
+        <v>119.7304520478102</v>
       </c>
       <c r="O16" t="n">
-        <v>87.5188778351652</v>
+        <v>110.5904514013754</v>
       </c>
       <c r="P16" t="n">
-        <v>74.88751934133245</v>
+        <v>94.62923626472198</v>
       </c>
       <c r="Q16" t="n">
-        <v>51.84823666964924</v>
+        <v>65.51637817456063</v>
       </c>
       <c r="R16" t="n">
-        <v>27.84077500467756</v>
+        <v>35.18011143756126</v>
       </c>
       <c r="S16" t="n">
-        <v>10.7906926170576</v>
+        <v>13.63531613946723</v>
       </c>
       <c r="T16" t="n">
-        <v>2.64560538863697</v>
+        <v>3.343035255894418</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03377368581238691</v>
+        <v>0.0426770458199288</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.380365048278457</v>
+        <v>1.744254469022213</v>
       </c>
       <c r="H17" t="n">
-        <v>14.13666355068175</v>
+        <v>17.86334608087374</v>
       </c>
       <c r="I17" t="n">
-        <v>53.21652352375527</v>
+        <v>67.24537041697891</v>
       </c>
       <c r="J17" t="n">
-        <v>117.1567580163238</v>
+        <v>148.0414177401742</v>
       </c>
       <c r="K17" t="n">
-        <v>175.5876105099509</v>
+        <v>221.8757094138845</v>
       </c>
       <c r="L17" t="n">
-        <v>217.8319573562028</v>
+        <v>275.256437120223</v>
       </c>
       <c r="M17" t="n">
-        <v>242.3800242835248</v>
+        <v>306.2758225336968</v>
       </c>
       <c r="N17" t="n">
-        <v>246.301986476946</v>
+        <v>311.2316855438062</v>
       </c>
       <c r="O17" t="n">
-        <v>232.5759815281271</v>
+        <v>293.8872551674665</v>
       </c>
       <c r="P17" t="n">
-        <v>198.4982193987526</v>
+        <v>250.8259729634806</v>
       </c>
       <c r="Q17" t="n">
-        <v>149.0638961072804</v>
+        <v>188.3598597916226</v>
       </c>
       <c r="R17" t="n">
-        <v>86.70935596392171</v>
+        <v>109.5675247897167</v>
       </c>
       <c r="S17" t="n">
-        <v>31.45506853764537</v>
+        <v>39.74719871284371</v>
       </c>
       <c r="T17" t="n">
-        <v>6.042547998838949</v>
+        <v>7.635473938144739</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1104292038622766</v>
+        <v>0.139540357521777</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7385604123878563</v>
+        <v>0.9332584170810836</v>
       </c>
       <c r="H18" t="n">
-        <v>7.132938719640613</v>
+        <v>9.013311554440994</v>
       </c>
       <c r="I18" t="n">
-        <v>25.42850542651172</v>
+        <v>32.13192357055485</v>
       </c>
       <c r="J18" t="n">
-        <v>69.77776247038076</v>
+        <v>88.17245422080536</v>
       </c>
       <c r="K18" t="n">
-        <v>119.2613101003671</v>
+        <v>150.700768165238</v>
       </c>
       <c r="L18" t="n">
-        <v>160.3615491897405</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M18" t="n">
-        <v>187.1343641388002</v>
+        <v>207.8710246109518</v>
       </c>
       <c r="N18" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O18" t="n">
-        <v>175.7223100473861</v>
+        <v>208.5470075</v>
       </c>
       <c r="P18" t="n">
-        <v>141.0326457655372</v>
+        <v>178.2114252757729</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.276588781299</v>
+        <v>119.1296182926661</v>
       </c>
       <c r="R18" t="n">
-        <v>45.85553156913376</v>
+        <v>57.94388663245537</v>
       </c>
       <c r="S18" t="n">
-        <v>13.71843573009899</v>
+        <v>17.33486577341398</v>
       </c>
       <c r="T18" t="n">
-        <v>2.976916749931753</v>
+        <v>3.761686339024191</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04858950081499056</v>
+        <v>0.06139858007112395</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6191842398937591</v>
+        <v>0.7824125066986938</v>
       </c>
       <c r="H19" t="n">
-        <v>5.505110787419063</v>
+        <v>6.956358468648392</v>
       </c>
       <c r="I19" t="n">
-        <v>18.62055877789597</v>
+        <v>23.52927792872073</v>
       </c>
       <c r="J19" t="n">
-        <v>43.77632576048877</v>
+        <v>55.31656422359765</v>
       </c>
       <c r="K19" t="n">
-        <v>71.937950780384</v>
+        <v>90.90210759644822</v>
       </c>
       <c r="L19" t="n">
-        <v>92.05580962929581</v>
+        <v>116.3234012231858</v>
       </c>
       <c r="M19" t="n">
-        <v>97.05994407716445</v>
+        <v>122.6467168455052</v>
       </c>
       <c r="N19" t="n">
-        <v>94.75207554665141</v>
+        <v>119.7304520478102</v>
       </c>
       <c r="O19" t="n">
-        <v>87.5188778351652</v>
+        <v>110.5904514013754</v>
       </c>
       <c r="P19" t="n">
-        <v>74.88751934133245</v>
+        <v>94.62923626472198</v>
       </c>
       <c r="Q19" t="n">
-        <v>51.84823666964924</v>
+        <v>65.51637817456063</v>
       </c>
       <c r="R19" t="n">
-        <v>27.84077500467756</v>
+        <v>35.18011143756126</v>
       </c>
       <c r="S19" t="n">
-        <v>10.7906926170576</v>
+        <v>13.63531613946723</v>
       </c>
       <c r="T19" t="n">
-        <v>2.64560538863697</v>
+        <v>3.343035255894418</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03377368581238691</v>
+        <v>0.0426770458199288</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.380365048278457</v>
+        <v>1.744254469022213</v>
       </c>
       <c r="H20" t="n">
-        <v>14.13666355068175</v>
+        <v>17.86334608087374</v>
       </c>
       <c r="I20" t="n">
-        <v>53.21652352375527</v>
+        <v>67.24537041697891</v>
       </c>
       <c r="J20" t="n">
-        <v>117.1567580163238</v>
+        <v>148.0414177401742</v>
       </c>
       <c r="K20" t="n">
-        <v>175.5876105099509</v>
+        <v>221.8757094138844</v>
       </c>
       <c r="L20" t="n">
-        <v>217.8319573562028</v>
+        <v>275.256437120223</v>
       </c>
       <c r="M20" t="n">
-        <v>242.3800242835248</v>
+        <v>306.2758225336968</v>
       </c>
       <c r="N20" t="n">
-        <v>246.301986476946</v>
+        <v>311.2316855438062</v>
       </c>
       <c r="O20" t="n">
-        <v>232.5759815281271</v>
+        <v>293.8872551674665</v>
       </c>
       <c r="P20" t="n">
-        <v>198.4982193987526</v>
+        <v>250.8259729634806</v>
       </c>
       <c r="Q20" t="n">
-        <v>149.0638961072804</v>
+        <v>188.3598597916226</v>
       </c>
       <c r="R20" t="n">
-        <v>86.70935596392171</v>
+        <v>109.5675247897167</v>
       </c>
       <c r="S20" t="n">
-        <v>31.45506853764537</v>
+        <v>39.7471987128437</v>
       </c>
       <c r="T20" t="n">
-        <v>6.042547998838949</v>
+        <v>7.635473938144739</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1104292038622766</v>
+        <v>0.139540357521777</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7385604123878563</v>
+        <v>0.9332584170810836</v>
       </c>
       <c r="H21" t="n">
-        <v>7.132938719640613</v>
+        <v>9.013311554440993</v>
       </c>
       <c r="I21" t="n">
-        <v>25.42850542651172</v>
+        <v>32.13192357055485</v>
       </c>
       <c r="J21" t="n">
-        <v>69.77776247038076</v>
+        <v>88.17245422080536</v>
       </c>
       <c r="K21" t="n">
-        <v>119.2613101003671</v>
+        <v>150.700768165238</v>
       </c>
       <c r="L21" t="n">
-        <v>160.3615491897405</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M21" t="n">
-        <v>187.1343641388002</v>
+        <v>207.8710246109518</v>
       </c>
       <c r="N21" t="n">
-        <v>192.0872539218749</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O21" t="n">
-        <v>175.7223100473861</v>
+        <v>208.5470075</v>
       </c>
       <c r="P21" t="n">
-        <v>141.0326457655372</v>
+        <v>178.2114252757729</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.276588781299</v>
+        <v>119.1296182926661</v>
       </c>
       <c r="R21" t="n">
-        <v>45.85553156913376</v>
+        <v>57.94388663245537</v>
       </c>
       <c r="S21" t="n">
-        <v>13.71843573009899</v>
+        <v>17.33486577341397</v>
       </c>
       <c r="T21" t="n">
-        <v>2.976916749931753</v>
+        <v>3.761686339024191</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04858950081499056</v>
+        <v>0.06139858007112394</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6191842398937591</v>
+        <v>0.7824125066986938</v>
       </c>
       <c r="H22" t="n">
-        <v>5.505110787419063</v>
+        <v>6.956358468648392</v>
       </c>
       <c r="I22" t="n">
-        <v>18.62055877789597</v>
+        <v>23.52927792872073</v>
       </c>
       <c r="J22" t="n">
-        <v>43.77632576048877</v>
+        <v>55.31656422359764</v>
       </c>
       <c r="K22" t="n">
-        <v>71.937950780384</v>
+        <v>90.90210759644822</v>
       </c>
       <c r="L22" t="n">
-        <v>92.05580962929581</v>
+        <v>116.3234012231858</v>
       </c>
       <c r="M22" t="n">
-        <v>97.05994407716445</v>
+        <v>122.6467168455052</v>
       </c>
       <c r="N22" t="n">
-        <v>94.75207554665141</v>
+        <v>119.7304520478102</v>
       </c>
       <c r="O22" t="n">
-        <v>87.5188778351652</v>
+        <v>110.5904514013754</v>
       </c>
       <c r="P22" t="n">
-        <v>74.88751934133245</v>
+        <v>94.62923626472198</v>
       </c>
       <c r="Q22" t="n">
-        <v>51.84823666964924</v>
+        <v>65.51637817456063</v>
       </c>
       <c r="R22" t="n">
-        <v>27.84077500467756</v>
+        <v>35.18011143756126</v>
       </c>
       <c r="S22" t="n">
-        <v>10.7906926170576</v>
+        <v>13.63531613946723</v>
       </c>
       <c r="T22" t="n">
-        <v>2.64560538863697</v>
+        <v>3.343035255894418</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03377368581238691</v>
+        <v>0.0426770458199288</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.380365048278457</v>
+        <v>1.744254469022213</v>
       </c>
       <c r="H23" t="n">
-        <v>14.13666355068175</v>
+        <v>17.86334608087374</v>
       </c>
       <c r="I23" t="n">
-        <v>53.21652352375527</v>
+        <v>67.24537041697891</v>
       </c>
       <c r="J23" t="n">
-        <v>117.1567580163238</v>
+        <v>148.0414177401742</v>
       </c>
       <c r="K23" t="n">
-        <v>175.5876105099509</v>
+        <v>221.8757094138844</v>
       </c>
       <c r="L23" t="n">
-        <v>217.8319573562028</v>
+        <v>275.256437120223</v>
       </c>
       <c r="M23" t="n">
-        <v>242.3800242835248</v>
+        <v>306.2758225336968</v>
       </c>
       <c r="N23" t="n">
-        <v>246.301986476946</v>
+        <v>311.2316855438062</v>
       </c>
       <c r="O23" t="n">
-        <v>232.5759815281271</v>
+        <v>293.8872551674665</v>
       </c>
       <c r="P23" t="n">
-        <v>198.4982193987526</v>
+        <v>250.8259729634806</v>
       </c>
       <c r="Q23" t="n">
-        <v>149.0638961072804</v>
+        <v>188.3598597916226</v>
       </c>
       <c r="R23" t="n">
-        <v>86.70935596392171</v>
+        <v>109.5675247897167</v>
       </c>
       <c r="S23" t="n">
-        <v>31.45506853764537</v>
+        <v>39.7471987128437</v>
       </c>
       <c r="T23" t="n">
-        <v>6.042547998838949</v>
+        <v>7.635473938144739</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1104292038622766</v>
+        <v>0.139540357521777</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7385604123878563</v>
+        <v>0.9332584170810836</v>
       </c>
       <c r="H24" t="n">
-        <v>7.132938719640613</v>
+        <v>9.013311554440993</v>
       </c>
       <c r="I24" t="n">
-        <v>25.42850542651172</v>
+        <v>32.13192357055485</v>
       </c>
       <c r="J24" t="n">
-        <v>69.77776247038076</v>
+        <v>88.17245422080536</v>
       </c>
       <c r="K24" t="n">
-        <v>119.2613101003671</v>
+        <v>150.700768165238</v>
       </c>
       <c r="L24" t="n">
-        <v>160.3615491897405</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M24" t="n">
-        <v>187.1343641388002</v>
+        <v>207.8710246109518</v>
       </c>
       <c r="N24" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O24" t="n">
-        <v>175.7223100473861</v>
+        <v>208.5470075</v>
       </c>
       <c r="P24" t="n">
-        <v>141.0326457655372</v>
+        <v>178.2114252757729</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.276588781299</v>
+        <v>119.1296182926661</v>
       </c>
       <c r="R24" t="n">
-        <v>45.85553156913376</v>
+        <v>57.94388663245537</v>
       </c>
       <c r="S24" t="n">
-        <v>13.71843573009899</v>
+        <v>17.33486577341397</v>
       </c>
       <c r="T24" t="n">
-        <v>2.976916749931753</v>
+        <v>3.761686339024191</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04858950081499056</v>
+        <v>0.06139858007112394</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6191842398937591</v>
+        <v>0.7824125066986938</v>
       </c>
       <c r="H25" t="n">
-        <v>5.505110787419063</v>
+        <v>6.956358468648392</v>
       </c>
       <c r="I25" t="n">
-        <v>18.62055877789597</v>
+        <v>23.52927792872073</v>
       </c>
       <c r="J25" t="n">
-        <v>43.77632576048877</v>
+        <v>55.31656422359764</v>
       </c>
       <c r="K25" t="n">
-        <v>71.937950780384</v>
+        <v>90.90210759644822</v>
       </c>
       <c r="L25" t="n">
-        <v>92.05580962929581</v>
+        <v>116.3234012231858</v>
       </c>
       <c r="M25" t="n">
-        <v>97.05994407716445</v>
+        <v>122.6467168455052</v>
       </c>
       <c r="N25" t="n">
-        <v>94.75207554665141</v>
+        <v>119.7304520478102</v>
       </c>
       <c r="O25" t="n">
-        <v>87.5188778351652</v>
+        <v>110.5904514013754</v>
       </c>
       <c r="P25" t="n">
-        <v>74.88751934133245</v>
+        <v>94.62923626472198</v>
       </c>
       <c r="Q25" t="n">
-        <v>51.84823666964924</v>
+        <v>65.51637817456063</v>
       </c>
       <c r="R25" t="n">
-        <v>27.84077500467756</v>
+        <v>35.18011143756126</v>
       </c>
       <c r="S25" t="n">
-        <v>10.7906926170576</v>
+        <v>13.63531613946723</v>
       </c>
       <c r="T25" t="n">
-        <v>2.64560538863697</v>
+        <v>3.343035255894418</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03377368581238691</v>
+        <v>0.0426770458199288</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.380365048278457</v>
+        <v>1.744254469022213</v>
       </c>
       <c r="H26" t="n">
-        <v>14.13666355068175</v>
+        <v>17.86334608087374</v>
       </c>
       <c r="I26" t="n">
-        <v>53.21652352375527</v>
+        <v>67.24537041697891</v>
       </c>
       <c r="J26" t="n">
-        <v>117.1567580163238</v>
+        <v>148.0414177401742</v>
       </c>
       <c r="K26" t="n">
-        <v>175.5876105099509</v>
+        <v>221.8757094138844</v>
       </c>
       <c r="L26" t="n">
-        <v>217.8319573562028</v>
+        <v>275.256437120223</v>
       </c>
       <c r="M26" t="n">
-        <v>242.3800242835248</v>
+        <v>306.2758225336968</v>
       </c>
       <c r="N26" t="n">
-        <v>246.301986476946</v>
+        <v>311.2316855438062</v>
       </c>
       <c r="O26" t="n">
-        <v>232.5759815281271</v>
+        <v>293.8872551674665</v>
       </c>
       <c r="P26" t="n">
-        <v>198.4982193987526</v>
+        <v>250.8259729634806</v>
       </c>
       <c r="Q26" t="n">
-        <v>149.0638961072804</v>
+        <v>188.3598597916226</v>
       </c>
       <c r="R26" t="n">
-        <v>86.70935596392171</v>
+        <v>109.5675247897167</v>
       </c>
       <c r="S26" t="n">
-        <v>31.45506853764537</v>
+        <v>39.7471987128437</v>
       </c>
       <c r="T26" t="n">
-        <v>6.042547998838949</v>
+        <v>7.635473938144739</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1104292038622766</v>
+        <v>0.139540357521777</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7385604123878563</v>
+        <v>0.9332584170810836</v>
       </c>
       <c r="H27" t="n">
-        <v>7.132938719640613</v>
+        <v>9.013311554440993</v>
       </c>
       <c r="I27" t="n">
-        <v>25.42850542651172</v>
+        <v>32.13192357055485</v>
       </c>
       <c r="J27" t="n">
-        <v>69.77776247038076</v>
+        <v>88.17245422080536</v>
       </c>
       <c r="K27" t="n">
-        <v>119.2613101003671</v>
+        <v>150.700768165238</v>
       </c>
       <c r="L27" t="n">
-        <v>160.3615491897405</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M27" t="n">
-        <v>187.1343641388002</v>
+        <v>207.8710246109518</v>
       </c>
       <c r="N27" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O27" t="n">
-        <v>175.7223100473861</v>
+        <v>208.5470075</v>
       </c>
       <c r="P27" t="n">
-        <v>141.0326457655372</v>
+        <v>178.2114252757729</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.276588781299</v>
+        <v>119.1296182926661</v>
       </c>
       <c r="R27" t="n">
-        <v>45.85553156913376</v>
+        <v>57.94388663245537</v>
       </c>
       <c r="S27" t="n">
-        <v>13.71843573009899</v>
+        <v>17.33486577341397</v>
       </c>
       <c r="T27" t="n">
-        <v>2.976916749931753</v>
+        <v>3.761686339024191</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04858950081499056</v>
+        <v>0.06139858007112394</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6191842398937591</v>
+        <v>0.7824125066986938</v>
       </c>
       <c r="H28" t="n">
-        <v>5.505110787419063</v>
+        <v>6.956358468648392</v>
       </c>
       <c r="I28" t="n">
-        <v>18.62055877789597</v>
+        <v>23.52927792872073</v>
       </c>
       <c r="J28" t="n">
-        <v>43.77632576048877</v>
+        <v>55.31656422359764</v>
       </c>
       <c r="K28" t="n">
-        <v>71.937950780384</v>
+        <v>90.90210759644822</v>
       </c>
       <c r="L28" t="n">
-        <v>92.05580962929581</v>
+        <v>116.3234012231858</v>
       </c>
       <c r="M28" t="n">
-        <v>97.05994407716445</v>
+        <v>122.6467168455052</v>
       </c>
       <c r="N28" t="n">
-        <v>94.75207554665141</v>
+        <v>119.7304520478102</v>
       </c>
       <c r="O28" t="n">
-        <v>87.5188778351652</v>
+        <v>110.5904514013754</v>
       </c>
       <c r="P28" t="n">
-        <v>74.88751934133245</v>
+        <v>94.62923626472198</v>
       </c>
       <c r="Q28" t="n">
-        <v>51.84823666964924</v>
+        <v>65.51637817456063</v>
       </c>
       <c r="R28" t="n">
-        <v>27.84077500467756</v>
+        <v>35.18011143756126</v>
       </c>
       <c r="S28" t="n">
-        <v>10.7906926170576</v>
+        <v>13.63531613946723</v>
       </c>
       <c r="T28" t="n">
-        <v>2.64560538863697</v>
+        <v>3.343035255894418</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03377368581238691</v>
+        <v>0.0426770458199288</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.380365048278458</v>
+        <v>1.744254469022213</v>
       </c>
       <c r="H29" t="n">
-        <v>14.13666355068176</v>
+        <v>17.86334608087374</v>
       </c>
       <c r="I29" t="n">
-        <v>53.21652352375528</v>
+        <v>67.24537041697891</v>
       </c>
       <c r="J29" t="n">
-        <v>117.1567580163238</v>
+        <v>148.0414177401742</v>
       </c>
       <c r="K29" t="n">
-        <v>175.587610509951</v>
+        <v>221.8757094138845</v>
       </c>
       <c r="L29" t="n">
-        <v>217.8319573562029</v>
+        <v>275.256437120223</v>
       </c>
       <c r="M29" t="n">
-        <v>242.3800242835249</v>
+        <v>306.2758225336968</v>
       </c>
       <c r="N29" t="n">
-        <v>246.301986476946</v>
+        <v>311.2316855438062</v>
       </c>
       <c r="O29" t="n">
-        <v>232.5759815281271</v>
+        <v>293.8872551674665</v>
       </c>
       <c r="P29" t="n">
-        <v>198.4982193987527</v>
+        <v>250.8259729634806</v>
       </c>
       <c r="Q29" t="n">
-        <v>149.0638961072804</v>
+        <v>188.3598597916226</v>
       </c>
       <c r="R29" t="n">
-        <v>86.70935596392172</v>
+        <v>109.5675247897167</v>
       </c>
       <c r="S29" t="n">
-        <v>31.45506853764538</v>
+        <v>39.74719871284371</v>
       </c>
       <c r="T29" t="n">
-        <v>6.04254799883895</v>
+        <v>7.635473938144739</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1104292038622766</v>
+        <v>0.139540357521777</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7385604123878564</v>
+        <v>0.9332584170810836</v>
       </c>
       <c r="H30" t="n">
-        <v>7.132938719640613</v>
+        <v>9.013311554440994</v>
       </c>
       <c r="I30" t="n">
-        <v>25.42850542651172</v>
+        <v>32.13192357055485</v>
       </c>
       <c r="J30" t="n">
-        <v>69.77776247038078</v>
+        <v>88.17245422080536</v>
       </c>
       <c r="K30" t="n">
-        <v>119.2613101003672</v>
+        <v>150.700768165238</v>
       </c>
       <c r="L30" t="n">
-        <v>160.3615491897405</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M30" t="n">
-        <v>187.1343641388002</v>
+        <v>207.8710246109518</v>
       </c>
       <c r="N30" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O30" t="n">
-        <v>175.7223100473861</v>
+        <v>208.5470075</v>
       </c>
       <c r="P30" t="n">
-        <v>141.0326457655372</v>
+        <v>178.2114252757729</v>
       </c>
       <c r="Q30" t="n">
-        <v>94.276588781299</v>
+        <v>119.1296182926661</v>
       </c>
       <c r="R30" t="n">
-        <v>45.85553156913376</v>
+        <v>57.94388663245537</v>
       </c>
       <c r="S30" t="n">
-        <v>13.71843573009899</v>
+        <v>17.33486577341398</v>
       </c>
       <c r="T30" t="n">
-        <v>2.976916749931753</v>
+        <v>3.761686339024191</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04858950081499057</v>
+        <v>0.06139858007112395</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6191842398937593</v>
+        <v>0.7824125066986938</v>
       </c>
       <c r="H31" t="n">
-        <v>5.505110787419063</v>
+        <v>6.956358468648392</v>
       </c>
       <c r="I31" t="n">
-        <v>18.62055877789597</v>
+        <v>23.52927792872073</v>
       </c>
       <c r="J31" t="n">
-        <v>43.77632576048878</v>
+        <v>55.31656422359765</v>
       </c>
       <c r="K31" t="n">
-        <v>71.93795078038401</v>
+        <v>90.90210759644822</v>
       </c>
       <c r="L31" t="n">
-        <v>92.05580962929582</v>
+        <v>116.3234012231858</v>
       </c>
       <c r="M31" t="n">
-        <v>97.05994407716445</v>
+        <v>122.6467168455052</v>
       </c>
       <c r="N31" t="n">
-        <v>94.75207554665143</v>
+        <v>119.7304520478102</v>
       </c>
       <c r="O31" t="n">
-        <v>87.51887783516521</v>
+        <v>110.5904514013754</v>
       </c>
       <c r="P31" t="n">
-        <v>74.88751934133246</v>
+        <v>94.62923626472198</v>
       </c>
       <c r="Q31" t="n">
-        <v>51.84823666964925</v>
+        <v>65.51637817456063</v>
       </c>
       <c r="R31" t="n">
-        <v>27.84077500467757</v>
+        <v>35.18011143756126</v>
       </c>
       <c r="S31" t="n">
-        <v>10.7906926170576</v>
+        <v>13.63531613946723</v>
       </c>
       <c r="T31" t="n">
-        <v>2.645605388636971</v>
+        <v>3.343035255894418</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03377368581238691</v>
+        <v>0.0426770458199288</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.380365048278457</v>
+        <v>1.744254469022213</v>
       </c>
       <c r="H32" t="n">
-        <v>14.13666355068175</v>
+        <v>17.86334608087374</v>
       </c>
       <c r="I32" t="n">
-        <v>53.21652352375527</v>
+        <v>67.24537041697891</v>
       </c>
       <c r="J32" t="n">
-        <v>117.1567580163238</v>
+        <v>148.0414177401742</v>
       </c>
       <c r="K32" t="n">
-        <v>175.5876105099509</v>
+        <v>221.8757094138844</v>
       </c>
       <c r="L32" t="n">
-        <v>217.8319573562028</v>
+        <v>275.256437120223</v>
       </c>
       <c r="M32" t="n">
-        <v>242.3800242835248</v>
+        <v>306.2758225336968</v>
       </c>
       <c r="N32" t="n">
-        <v>246.301986476946</v>
+        <v>311.2316855438062</v>
       </c>
       <c r="O32" t="n">
-        <v>232.5759815281271</v>
+        <v>293.8872551674665</v>
       </c>
       <c r="P32" t="n">
-        <v>198.4982193987526</v>
+        <v>250.8259729634806</v>
       </c>
       <c r="Q32" t="n">
-        <v>149.0638961072804</v>
+        <v>188.3598597916226</v>
       </c>
       <c r="R32" t="n">
-        <v>86.70935596392171</v>
+        <v>109.5675247897167</v>
       </c>
       <c r="S32" t="n">
-        <v>31.45506853764537</v>
+        <v>39.7471987128437</v>
       </c>
       <c r="T32" t="n">
-        <v>6.042547998838949</v>
+        <v>7.635473938144739</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1104292038622766</v>
+        <v>0.139540357521777</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7385604123878563</v>
+        <v>0.9332584170810836</v>
       </c>
       <c r="H33" t="n">
-        <v>7.132938719640613</v>
+        <v>9.013311554440993</v>
       </c>
       <c r="I33" t="n">
-        <v>25.42850542651172</v>
+        <v>32.13192357055485</v>
       </c>
       <c r="J33" t="n">
-        <v>69.77776247038076</v>
+        <v>88.17245422080536</v>
       </c>
       <c r="K33" t="n">
-        <v>119.2613101003671</v>
+        <v>150.700768165238</v>
       </c>
       <c r="L33" t="n">
-        <v>160.3615491897405</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M33" t="n">
-        <v>187.1343641388002</v>
+        <v>207.8710246109518</v>
       </c>
       <c r="N33" t="n">
-        <v>192.0872539218749</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O33" t="n">
-        <v>175.7223100473861</v>
+        <v>208.5470075</v>
       </c>
       <c r="P33" t="n">
-        <v>141.0326457655372</v>
+        <v>178.2114252757729</v>
       </c>
       <c r="Q33" t="n">
-        <v>94.276588781299</v>
+        <v>119.1296182926661</v>
       </c>
       <c r="R33" t="n">
-        <v>45.85553156913376</v>
+        <v>57.94388663245537</v>
       </c>
       <c r="S33" t="n">
-        <v>13.71843573009899</v>
+        <v>17.33486577341397</v>
       </c>
       <c r="T33" t="n">
-        <v>2.976916749931753</v>
+        <v>3.761686339024191</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04858950081499056</v>
+        <v>0.06139858007112394</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6191842398937591</v>
+        <v>0.7824125066986938</v>
       </c>
       <c r="H34" t="n">
-        <v>5.505110787419063</v>
+        <v>6.956358468648392</v>
       </c>
       <c r="I34" t="n">
-        <v>18.62055877789597</v>
+        <v>23.52927792872073</v>
       </c>
       <c r="J34" t="n">
-        <v>43.77632576048877</v>
+        <v>55.31656422359764</v>
       </c>
       <c r="K34" t="n">
-        <v>71.937950780384</v>
+        <v>90.90210759644822</v>
       </c>
       <c r="L34" t="n">
-        <v>92.05580962929581</v>
+        <v>116.3234012231858</v>
       </c>
       <c r="M34" t="n">
-        <v>97.05994407716445</v>
+        <v>122.6467168455052</v>
       </c>
       <c r="N34" t="n">
-        <v>94.75207554665141</v>
+        <v>119.7304520478102</v>
       </c>
       <c r="O34" t="n">
-        <v>87.5188778351652</v>
+        <v>110.5904514013754</v>
       </c>
       <c r="P34" t="n">
-        <v>74.88751934133245</v>
+        <v>94.62923626472198</v>
       </c>
       <c r="Q34" t="n">
-        <v>51.84823666964924</v>
+        <v>65.51637817456063</v>
       </c>
       <c r="R34" t="n">
-        <v>27.84077500467756</v>
+        <v>35.18011143756126</v>
       </c>
       <c r="S34" t="n">
-        <v>10.7906926170576</v>
+        <v>13.63531613946723</v>
       </c>
       <c r="T34" t="n">
-        <v>2.64560538863697</v>
+        <v>3.343035255894418</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03377368581238691</v>
+        <v>0.0426770458199288</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.380365048278457</v>
+        <v>1.744254469022213</v>
       </c>
       <c r="H35" t="n">
-        <v>14.13666355068175</v>
+        <v>17.86334608087374</v>
       </c>
       <c r="I35" t="n">
-        <v>53.21652352375527</v>
+        <v>67.24537041697891</v>
       </c>
       <c r="J35" t="n">
-        <v>117.1567580163238</v>
+        <v>148.0414177401742</v>
       </c>
       <c r="K35" t="n">
-        <v>175.5876105099509</v>
+        <v>221.8757094138844</v>
       </c>
       <c r="L35" t="n">
-        <v>217.8319573562028</v>
+        <v>275.256437120223</v>
       </c>
       <c r="M35" t="n">
-        <v>242.3800242835248</v>
+        <v>306.2758225336968</v>
       </c>
       <c r="N35" t="n">
-        <v>246.301986476946</v>
+        <v>311.2316855438062</v>
       </c>
       <c r="O35" t="n">
-        <v>232.5759815281271</v>
+        <v>293.8872551674665</v>
       </c>
       <c r="P35" t="n">
-        <v>198.4982193987526</v>
+        <v>250.8259729634806</v>
       </c>
       <c r="Q35" t="n">
-        <v>149.0638961072804</v>
+        <v>188.3598597916226</v>
       </c>
       <c r="R35" t="n">
-        <v>86.70935596392171</v>
+        <v>109.5675247897167</v>
       </c>
       <c r="S35" t="n">
-        <v>31.45506853764537</v>
+        <v>39.7471987128437</v>
       </c>
       <c r="T35" t="n">
-        <v>6.042547998838949</v>
+        <v>7.635473938144739</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1104292038622766</v>
+        <v>0.139540357521777</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7385604123878563</v>
+        <v>0.9332584170810836</v>
       </c>
       <c r="H36" t="n">
-        <v>7.132938719640613</v>
+        <v>9.013311554440993</v>
       </c>
       <c r="I36" t="n">
-        <v>25.42850542651172</v>
+        <v>32.13192357055485</v>
       </c>
       <c r="J36" t="n">
-        <v>69.77776247038076</v>
+        <v>88.17245422080536</v>
       </c>
       <c r="K36" t="n">
-        <v>119.2613101003671</v>
+        <v>150.700768165238</v>
       </c>
       <c r="L36" t="n">
-        <v>160.3615491897405</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M36" t="n">
-        <v>187.1343641388002</v>
+        <v>207.8710246109518</v>
       </c>
       <c r="N36" t="n">
-        <v>192.0872539218749</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O36" t="n">
-        <v>175.7223100473861</v>
+        <v>208.5470075</v>
       </c>
       <c r="P36" t="n">
-        <v>141.0326457655372</v>
+        <v>178.2114252757729</v>
       </c>
       <c r="Q36" t="n">
-        <v>94.276588781299</v>
+        <v>119.1296182926661</v>
       </c>
       <c r="R36" t="n">
-        <v>45.85553156913376</v>
+        <v>57.94388663245537</v>
       </c>
       <c r="S36" t="n">
-        <v>13.71843573009899</v>
+        <v>17.33486577341397</v>
       </c>
       <c r="T36" t="n">
-        <v>2.976916749931753</v>
+        <v>3.761686339024191</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04858950081499056</v>
+        <v>0.06139858007112394</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6191842398937591</v>
+        <v>0.7824125066986938</v>
       </c>
       <c r="H37" t="n">
-        <v>5.505110787419063</v>
+        <v>6.956358468648392</v>
       </c>
       <c r="I37" t="n">
-        <v>18.62055877789597</v>
+        <v>23.52927792872073</v>
       </c>
       <c r="J37" t="n">
-        <v>43.77632576048877</v>
+        <v>55.31656422359764</v>
       </c>
       <c r="K37" t="n">
-        <v>71.937950780384</v>
+        <v>90.90210759644822</v>
       </c>
       <c r="L37" t="n">
-        <v>92.05580962929581</v>
+        <v>116.3234012231858</v>
       </c>
       <c r="M37" t="n">
-        <v>97.05994407716445</v>
+        <v>122.6467168455052</v>
       </c>
       <c r="N37" t="n">
-        <v>94.75207554665141</v>
+        <v>119.7304520478102</v>
       </c>
       <c r="O37" t="n">
-        <v>87.5188778351652</v>
+        <v>110.5904514013754</v>
       </c>
       <c r="P37" t="n">
-        <v>74.88751934133245</v>
+        <v>94.62923626472198</v>
       </c>
       <c r="Q37" t="n">
-        <v>51.84823666964924</v>
+        <v>65.51637817456063</v>
       </c>
       <c r="R37" t="n">
-        <v>27.84077500467756</v>
+        <v>35.18011143756126</v>
       </c>
       <c r="S37" t="n">
-        <v>10.7906926170576</v>
+        <v>13.63531613946723</v>
       </c>
       <c r="T37" t="n">
-        <v>2.64560538863697</v>
+        <v>3.343035255894418</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03377368581238691</v>
+        <v>0.0426770458199288</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.380365048278457</v>
+        <v>1.744254469022213</v>
       </c>
       <c r="H38" t="n">
-        <v>14.13666355068175</v>
+        <v>17.86334608087374</v>
       </c>
       <c r="I38" t="n">
-        <v>53.21652352375527</v>
+        <v>67.24537041697891</v>
       </c>
       <c r="J38" t="n">
-        <v>117.1567580163238</v>
+        <v>148.0414177401742</v>
       </c>
       <c r="K38" t="n">
-        <v>175.5876105099509</v>
+        <v>221.8757094138844</v>
       </c>
       <c r="L38" t="n">
-        <v>217.8319573562028</v>
+        <v>275.256437120223</v>
       </c>
       <c r="M38" t="n">
-        <v>242.3800242835248</v>
+        <v>306.2758225336968</v>
       </c>
       <c r="N38" t="n">
-        <v>246.301986476946</v>
+        <v>311.2316855438062</v>
       </c>
       <c r="O38" t="n">
-        <v>232.5759815281271</v>
+        <v>293.8872551674665</v>
       </c>
       <c r="P38" t="n">
-        <v>198.4982193987526</v>
+        <v>250.8259729634806</v>
       </c>
       <c r="Q38" t="n">
-        <v>149.0638961072804</v>
+        <v>188.3598597916226</v>
       </c>
       <c r="R38" t="n">
-        <v>86.70935596392171</v>
+        <v>109.5675247897167</v>
       </c>
       <c r="S38" t="n">
-        <v>31.45506853764537</v>
+        <v>39.7471987128437</v>
       </c>
       <c r="T38" t="n">
-        <v>6.042547998838949</v>
+        <v>7.635473938144739</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1104292038622766</v>
+        <v>0.139540357521777</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7385604123878563</v>
+        <v>0.9332584170810836</v>
       </c>
       <c r="H39" t="n">
-        <v>7.132938719640613</v>
+        <v>9.013311554440993</v>
       </c>
       <c r="I39" t="n">
-        <v>25.42850542651172</v>
+        <v>32.13192357055485</v>
       </c>
       <c r="J39" t="n">
-        <v>69.77776247038076</v>
+        <v>88.17245422080536</v>
       </c>
       <c r="K39" t="n">
-        <v>119.2613101003671</v>
+        <v>150.700768165238</v>
       </c>
       <c r="L39" t="n">
-        <v>160.3615491897405</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M39" t="n">
-        <v>187.1343641388002</v>
+        <v>207.8710246109518</v>
       </c>
       <c r="N39" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O39" t="n">
-        <v>175.7223100473861</v>
+        <v>208.5470075</v>
       </c>
       <c r="P39" t="n">
-        <v>141.0326457655372</v>
+        <v>178.2114252757729</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.276588781299</v>
+        <v>119.1296182926661</v>
       </c>
       <c r="R39" t="n">
-        <v>45.85553156913376</v>
+        <v>57.94388663245537</v>
       </c>
       <c r="S39" t="n">
-        <v>13.71843573009899</v>
+        <v>17.33486577341397</v>
       </c>
       <c r="T39" t="n">
-        <v>2.976916749931753</v>
+        <v>3.761686339024191</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04858950081499056</v>
+        <v>0.06139858007112394</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6191842398937591</v>
+        <v>0.7824125066986938</v>
       </c>
       <c r="H40" t="n">
-        <v>5.505110787419063</v>
+        <v>6.956358468648392</v>
       </c>
       <c r="I40" t="n">
-        <v>18.62055877789597</v>
+        <v>23.52927792872073</v>
       </c>
       <c r="J40" t="n">
-        <v>43.77632576048877</v>
+        <v>55.31656422359764</v>
       </c>
       <c r="K40" t="n">
-        <v>71.937950780384</v>
+        <v>90.90210759644822</v>
       </c>
       <c r="L40" t="n">
-        <v>92.05580962929581</v>
+        <v>116.3234012231858</v>
       </c>
       <c r="M40" t="n">
-        <v>97.05994407716445</v>
+        <v>122.6467168455052</v>
       </c>
       <c r="N40" t="n">
-        <v>94.75207554665141</v>
+        <v>119.7304520478102</v>
       </c>
       <c r="O40" t="n">
-        <v>87.5188778351652</v>
+        <v>110.5904514013754</v>
       </c>
       <c r="P40" t="n">
-        <v>74.88751934133245</v>
+        <v>94.62923626472198</v>
       </c>
       <c r="Q40" t="n">
-        <v>51.84823666964924</v>
+        <v>65.51637817456063</v>
       </c>
       <c r="R40" t="n">
-        <v>27.84077500467756</v>
+        <v>35.18011143756126</v>
       </c>
       <c r="S40" t="n">
-        <v>10.7906926170576</v>
+        <v>13.63531613946723</v>
       </c>
       <c r="T40" t="n">
-        <v>2.64560538863697</v>
+        <v>3.343035255894418</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03377368581238691</v>
+        <v>0.0426770458199288</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.380365048278457</v>
+        <v>1.744254469022213</v>
       </c>
       <c r="H41" t="n">
-        <v>14.13666355068175</v>
+        <v>17.86334608087374</v>
       </c>
       <c r="I41" t="n">
-        <v>53.21652352375527</v>
+        <v>67.24537041697891</v>
       </c>
       <c r="J41" t="n">
-        <v>117.1567580163238</v>
+        <v>148.0414177401742</v>
       </c>
       <c r="K41" t="n">
-        <v>175.5876105099509</v>
+        <v>221.8757094138844</v>
       </c>
       <c r="L41" t="n">
-        <v>217.8319573562028</v>
+        <v>275.256437120223</v>
       </c>
       <c r="M41" t="n">
-        <v>242.3800242835248</v>
+        <v>306.2758225336968</v>
       </c>
       <c r="N41" t="n">
-        <v>246.301986476946</v>
+        <v>311.2316855438062</v>
       </c>
       <c r="O41" t="n">
-        <v>232.5759815281271</v>
+        <v>293.8872551674665</v>
       </c>
       <c r="P41" t="n">
-        <v>198.4982193987526</v>
+        <v>250.8259729634806</v>
       </c>
       <c r="Q41" t="n">
-        <v>149.0638961072804</v>
+        <v>188.3598597916226</v>
       </c>
       <c r="R41" t="n">
-        <v>86.70935596392171</v>
+        <v>109.5675247897167</v>
       </c>
       <c r="S41" t="n">
-        <v>31.45506853764537</v>
+        <v>39.7471987128437</v>
       </c>
       <c r="T41" t="n">
-        <v>6.042547998838949</v>
+        <v>7.635473938144739</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1104292038622766</v>
+        <v>0.139540357521777</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7385604123878563</v>
+        <v>0.9332584170810836</v>
       </c>
       <c r="H42" t="n">
-        <v>7.132938719640613</v>
+        <v>9.013311554440993</v>
       </c>
       <c r="I42" t="n">
-        <v>25.42850542651172</v>
+        <v>32.13192357055485</v>
       </c>
       <c r="J42" t="n">
-        <v>69.77776247038076</v>
+        <v>88.17245422080536</v>
       </c>
       <c r="K42" t="n">
-        <v>119.2613101003671</v>
+        <v>150.700768165238</v>
       </c>
       <c r="L42" t="n">
-        <v>160.3615491897405</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M42" t="n">
-        <v>187.1343641388002</v>
+        <v>207.8710246109518</v>
       </c>
       <c r="N42" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O42" t="n">
-        <v>175.7223100473861</v>
+        <v>208.5470075</v>
       </c>
       <c r="P42" t="n">
-        <v>141.0326457655372</v>
+        <v>178.2114252757729</v>
       </c>
       <c r="Q42" t="n">
-        <v>94.276588781299</v>
+        <v>119.1296182926661</v>
       </c>
       <c r="R42" t="n">
-        <v>45.85553156913376</v>
+        <v>57.94388663245537</v>
       </c>
       <c r="S42" t="n">
-        <v>13.71843573009899</v>
+        <v>17.33486577341397</v>
       </c>
       <c r="T42" t="n">
-        <v>2.976916749931753</v>
+        <v>3.761686339024191</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04858950081499056</v>
+        <v>0.06139858007112394</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6191842398937591</v>
+        <v>0.7824125066986938</v>
       </c>
       <c r="H43" t="n">
-        <v>5.505110787419063</v>
+        <v>6.956358468648392</v>
       </c>
       <c r="I43" t="n">
-        <v>18.62055877789597</v>
+        <v>23.52927792872073</v>
       </c>
       <c r="J43" t="n">
-        <v>43.77632576048877</v>
+        <v>55.31656422359764</v>
       </c>
       <c r="K43" t="n">
-        <v>71.937950780384</v>
+        <v>90.90210759644822</v>
       </c>
       <c r="L43" t="n">
-        <v>92.05580962929581</v>
+        <v>116.3234012231858</v>
       </c>
       <c r="M43" t="n">
-        <v>97.05994407716445</v>
+        <v>122.6467168455052</v>
       </c>
       <c r="N43" t="n">
-        <v>94.75207554665141</v>
+        <v>119.7304520478102</v>
       </c>
       <c r="O43" t="n">
-        <v>87.5188778351652</v>
+        <v>110.5904514013754</v>
       </c>
       <c r="P43" t="n">
-        <v>74.88751934133245</v>
+        <v>94.62923626472198</v>
       </c>
       <c r="Q43" t="n">
-        <v>51.84823666964924</v>
+        <v>65.51637817456063</v>
       </c>
       <c r="R43" t="n">
-        <v>27.84077500467756</v>
+        <v>35.18011143756126</v>
       </c>
       <c r="S43" t="n">
-        <v>10.7906926170576</v>
+        <v>13.63531613946723</v>
       </c>
       <c r="T43" t="n">
-        <v>2.64560538863697</v>
+        <v>3.343035255894418</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03377368581238691</v>
+        <v>0.0426770458199288</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.380365048278457</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H44" t="n">
-        <v>14.13666355068175</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I44" t="n">
-        <v>53.21652352375527</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J44" t="n">
-        <v>117.1567580163238</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K44" t="n">
-        <v>175.5876105099509</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L44" t="n">
-        <v>217.8319573562028</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M44" t="n">
-        <v>242.3800242835248</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N44" t="n">
-        <v>246.301986476946</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O44" t="n">
-        <v>232.5759815281271</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P44" t="n">
-        <v>198.4982193987526</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q44" t="n">
-        <v>149.0638961072804</v>
+        <v>203.0572840332873</v>
       </c>
       <c r="R44" t="n">
-        <v>86.70935596392171</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S44" t="n">
-        <v>31.45506853764537</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T44" t="n">
-        <v>6.042547998838949</v>
+        <v>8.23125798618574</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1104292038622766</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7385604123878563</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H45" t="n">
-        <v>7.132938719640613</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I45" t="n">
-        <v>25.42850542651172</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J45" t="n">
-        <v>69.77776247038076</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K45" t="n">
-        <v>119.2613101003671</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L45" t="n">
-        <v>160.3615491897405</v>
+        <v>202.635780428066</v>
       </c>
       <c r="M45" t="n">
-        <v>187.1343641388002</v>
+        <v>207.8710246109518</v>
       </c>
       <c r="N45" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O45" t="n">
-        <v>175.7223100473861</v>
+        <v>208.5470075</v>
       </c>
       <c r="P45" t="n">
-        <v>141.0326457655372</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.276588781299</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R45" t="n">
-        <v>45.85553156913376</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S45" t="n">
-        <v>13.71843573009899</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T45" t="n">
-        <v>2.976916749931753</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04858950081499056</v>
+        <v>0.06618941491321521</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6191842398937591</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H46" t="n">
-        <v>5.505110787419063</v>
+        <v>7.499152202429724</v>
       </c>
       <c r="I46" t="n">
-        <v>18.62055877789597</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J46" t="n">
-        <v>43.77632576048877</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K46" t="n">
-        <v>71.937950780384</v>
+        <v>97.99505638757849</v>
       </c>
       <c r="L46" t="n">
-        <v>92.05580962929581</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M46" t="n">
-        <v>97.05994407716445</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N46" t="n">
-        <v>94.75207554665141</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O46" t="n">
-        <v>87.5188778351652</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P46" t="n">
-        <v>74.88751934133245</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q46" t="n">
-        <v>51.84823666964924</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R46" t="n">
-        <v>27.84077500467756</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S46" t="n">
-        <v>10.7906926170576</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T46" t="n">
-        <v>2.64560538863697</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03377368581238691</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_8_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_8_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-26909.74587178841</v>
+        <v>-176506.0474468287</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1342985.434732039</v>
+        <v>1582550.583389099</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25690050.57595446</v>
+        <v>25491602.55656523</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4667625.55511569</v>
+        <v>4742754.656950717</v>
       </c>
     </row>
     <row r="11">
@@ -8695,19 +8695,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>69.5519447733833</v>
+        <v>50.04010588902622</v>
       </c>
       <c r="M11" t="n">
-        <v>30.60554356118956</v>
+        <v>8.894863273479075</v>
       </c>
       <c r="N11" t="n">
-        <v>24.28491996620807</v>
+        <v>2.222938173625039</v>
       </c>
       <c r="O11" t="n">
-        <v>42.63137903675033</v>
+        <v>21.79887523416352</v>
       </c>
       <c r="P11" t="n">
-        <v>83.66766412458549</v>
+        <v>69.57222331010286</v>
       </c>
       <c r="Q11" t="n">
         <v>55.20189757157522</v>
@@ -8771,7 +8771,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>50.89233633476204</v>
+        <v>40.20975561493429</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>17.72614556768511</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q12" t="n">
         <v>54.62009481132077</v>
@@ -8932,19 +8932,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>69.5519447733833</v>
+        <v>50.04010588902622</v>
       </c>
       <c r="M14" t="n">
-        <v>30.60554356118956</v>
+        <v>8.894863273479075</v>
       </c>
       <c r="N14" t="n">
-        <v>24.28491996620807</v>
+        <v>2.222938173625039</v>
       </c>
       <c r="O14" t="n">
-        <v>42.63137903675033</v>
+        <v>21.79887523416352</v>
       </c>
       <c r="P14" t="n">
-        <v>83.66766412458549</v>
+        <v>69.57222331010286</v>
       </c>
       <c r="Q14" t="n">
         <v>55.20189757157522</v>
@@ -9008,7 +9008,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>50.89233633476204</v>
+        <v>40.20975561493429</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>17.72614556768511</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q15" t="n">
         <v>54.62009481132077</v>
@@ -9169,19 +9169,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L17" t="n">
-        <v>69.5519447733833</v>
+        <v>50.04010588902622</v>
       </c>
       <c r="M17" t="n">
-        <v>30.60554356118956</v>
+        <v>8.894863273479075</v>
       </c>
       <c r="N17" t="n">
-        <v>24.28491996620801</v>
+        <v>2.222938173625039</v>
       </c>
       <c r="O17" t="n">
-        <v>42.63137903675033</v>
+        <v>21.79887523416352</v>
       </c>
       <c r="P17" t="n">
-        <v>83.66766412458549</v>
+        <v>69.57222331010286</v>
       </c>
       <c r="Q17" t="n">
         <v>55.20189757157522</v>
@@ -9245,7 +9245,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>50.89233633476204</v>
+        <v>40.20975561493429</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>17.72614556768508</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q18" t="n">
         <v>54.62009481132077</v>
@@ -9406,19 +9406,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L20" t="n">
-        <v>69.5519447733833</v>
+        <v>50.04010588902622</v>
       </c>
       <c r="M20" t="n">
-        <v>30.60554356118956</v>
+        <v>8.894863273479075</v>
       </c>
       <c r="N20" t="n">
-        <v>24.28491996620807</v>
+        <v>2.222938173625039</v>
       </c>
       <c r="O20" t="n">
-        <v>42.63137903675033</v>
+        <v>21.79887523416352</v>
       </c>
       <c r="P20" t="n">
-        <v>83.66766412458549</v>
+        <v>69.57222331010286</v>
       </c>
       <c r="Q20" t="n">
         <v>55.20189757157522</v>
@@ -9482,7 +9482,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>50.89233633476204</v>
+        <v>40.20975561493429</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>17.72614556768511</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9643,19 +9643,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L23" t="n">
-        <v>69.5519447733833</v>
+        <v>50.04010588902622</v>
       </c>
       <c r="M23" t="n">
-        <v>30.60554356118956</v>
+        <v>8.894863273479075</v>
       </c>
       <c r="N23" t="n">
-        <v>24.28491996620807</v>
+        <v>2.222938173625039</v>
       </c>
       <c r="O23" t="n">
-        <v>42.63137903675033</v>
+        <v>21.79887523416352</v>
       </c>
       <c r="P23" t="n">
-        <v>83.66766412458549</v>
+        <v>69.57222331010286</v>
       </c>
       <c r="Q23" t="n">
         <v>55.20189757157522</v>
@@ -9719,7 +9719,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>50.89233633476204</v>
+        <v>40.20975561493429</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>17.72614556768511</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9880,19 +9880,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L26" t="n">
-        <v>69.5519447733833</v>
+        <v>50.04010588902617</v>
       </c>
       <c r="M26" t="n">
-        <v>30.60554356118956</v>
+        <v>8.894863273479075</v>
       </c>
       <c r="N26" t="n">
-        <v>24.28491996620807</v>
+        <v>2.222938173624982</v>
       </c>
       <c r="O26" t="n">
-        <v>42.63137903675033</v>
+        <v>21.79887523416346</v>
       </c>
       <c r="P26" t="n">
-        <v>83.66766412458549</v>
+        <v>69.5722233101028</v>
       </c>
       <c r="Q26" t="n">
         <v>55.20189757157522</v>
@@ -9956,7 +9956,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>50.89233633476204</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>17.72614556768511</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10117,19 +10117,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L29" t="n">
-        <v>69.5519447733833</v>
+        <v>50.04010588902617</v>
       </c>
       <c r="M29" t="n">
-        <v>30.60554356118956</v>
+        <v>8.894863273479075</v>
       </c>
       <c r="N29" t="n">
-        <v>24.28491996620801</v>
+        <v>2.222938173624982</v>
       </c>
       <c r="O29" t="n">
-        <v>42.63137903675033</v>
+        <v>21.79887523416346</v>
       </c>
       <c r="P29" t="n">
-        <v>83.66766412458549</v>
+        <v>69.5722233101028</v>
       </c>
       <c r="Q29" t="n">
         <v>55.20189757157522</v>
@@ -10193,7 +10193,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>50.89233633476204</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>17.72614556768508</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10351,22 +10351,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>84.27780726850284</v>
+        <v>84.27780726850281</v>
       </c>
       <c r="L32" t="n">
-        <v>69.5519447733833</v>
+        <v>50.04010588902617</v>
       </c>
       <c r="M32" t="n">
-        <v>30.60554356118956</v>
+        <v>8.894863273479075</v>
       </c>
       <c r="N32" t="n">
-        <v>24.28491996620807</v>
+        <v>2.222938173624982</v>
       </c>
       <c r="O32" t="n">
-        <v>42.63137903675033</v>
+        <v>21.79887523416346</v>
       </c>
       <c r="P32" t="n">
-        <v>83.66766412458549</v>
+        <v>69.5722233101028</v>
       </c>
       <c r="Q32" t="n">
         <v>55.20189757157522</v>
@@ -10430,7 +10430,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>50.89233633476204</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>17.72614556768511</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10591,19 +10591,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L35" t="n">
-        <v>69.5519447733833</v>
+        <v>50.04010588902617</v>
       </c>
       <c r="M35" t="n">
-        <v>30.60554356118956</v>
+        <v>8.894863273479132</v>
       </c>
       <c r="N35" t="n">
-        <v>24.28491996620807</v>
+        <v>2.222938173625039</v>
       </c>
       <c r="O35" t="n">
-        <v>42.63137903675033</v>
+        <v>21.79887523416352</v>
       </c>
       <c r="P35" t="n">
-        <v>83.66766412458549</v>
+        <v>69.57222331010286</v>
       </c>
       <c r="Q35" t="n">
         <v>55.20189757157522</v>
@@ -10667,7 +10667,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>50.89233633476204</v>
+        <v>40.20975561493429</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>17.72614556768511</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10828,19 +10828,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L38" t="n">
-        <v>69.5519447733833</v>
+        <v>50.04010588902617</v>
       </c>
       <c r="M38" t="n">
-        <v>30.60554356118956</v>
+        <v>8.894863273479075</v>
       </c>
       <c r="N38" t="n">
-        <v>24.28491996620807</v>
+        <v>2.222938173624982</v>
       </c>
       <c r="O38" t="n">
-        <v>42.63137903675033</v>
+        <v>21.79887523416346</v>
       </c>
       <c r="P38" t="n">
-        <v>83.66766412458549</v>
+        <v>69.5722233101028</v>
       </c>
       <c r="Q38" t="n">
         <v>55.20189757157522</v>
@@ -10904,7 +10904,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>50.89233633476204</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>17.72614556768511</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11065,19 +11065,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>69.5519447733833</v>
+        <v>50.04010588902617</v>
       </c>
       <c r="M41" t="n">
-        <v>30.60554356118956</v>
+        <v>8.894863273479075</v>
       </c>
       <c r="N41" t="n">
-        <v>24.28491996620807</v>
+        <v>2.222938173624982</v>
       </c>
       <c r="O41" t="n">
-        <v>42.63137903675033</v>
+        <v>21.79887523416346</v>
       </c>
       <c r="P41" t="n">
-        <v>83.66766412458549</v>
+        <v>69.5722233101028</v>
       </c>
       <c r="Q41" t="n">
         <v>55.20189757157522</v>
@@ -11141,7 +11141,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>50.89233633476204</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>17.72614556768511</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11299,22 +11299,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>82.69308435253603</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>48.07411698098349</v>
+        <v>50.04010588902617</v>
       </c>
       <c r="M44" t="n">
-        <v>6.707321807773383</v>
+        <v>8.894863273479075</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>2.222938173624982</v>
       </c>
       <c r="O44" t="n">
-        <v>19.69981775191468</v>
+        <v>21.79887523416346</v>
       </c>
       <c r="P44" t="n">
-        <v>67.78072631241469</v>
+        <v>69.5722233101028</v>
       </c>
       <c r="Q44" t="n">
         <v>55.20189757157522</v>
@@ -11378,7 +11378,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>39.13339190934374</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>3.820587744020429</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -23272,19 +23272,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>421.8459671052398</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H11" t="n">
-        <v>346.2330824957484</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I11" t="n">
-        <v>240.3847806456414</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J11" t="n">
-        <v>72.77309768536537</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K11" t="n">
-        <v>15.72789047089677</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -23299,22 +23299,22 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>3.684619204015576</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>81.5603140781846</v>
+        <v>68.20822947306053</v>
       </c>
       <c r="R11" t="n">
-        <v>188.6400550964761</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S11" t="n">
-        <v>227.6425513334645</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8789244286399</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U11" t="n">
-        <v>248.7620651792182</v>
+        <v>248.7521737158166</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23351,16 +23351,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>160.8359374722434</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H12" t="n">
-        <v>136.0213138977834</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I12" t="n">
-        <v>110.7868629208131</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J12" t="n">
-        <v>64.5439055906884</v>
+        <v>58.29370945070389</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23381,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>30.97363149681966</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R12" t="n">
-        <v>143.2767537638985</v>
+        <v>139.169341083075</v>
       </c>
       <c r="S12" t="n">
-        <v>204.6971134970022</v>
+        <v>203.4683135038341</v>
       </c>
       <c r="T12" t="n">
-        <v>229.3736829070266</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U12" t="n">
-        <v>249.637776255715</v>
+        <v>249.633423953496</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23430,49 +23430,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G13" t="n">
-        <v>169.0842897762481</v>
+        <v>169.028827651796</v>
       </c>
       <c r="H13" t="n">
-        <v>166.2431732614622</v>
+        <v>165.7500645549697</v>
       </c>
       <c r="I13" t="n">
-        <v>163.221867400849</v>
+        <v>161.5539700582341</v>
       </c>
       <c r="J13" t="n">
-        <v>121.6688168876111</v>
+        <v>117.7476446888457</v>
       </c>
       <c r="K13" t="n">
-        <v>70.02640322835012</v>
+        <v>63.58271276927573</v>
       </c>
       <c r="L13" t="n">
-        <v>38.70201543732101</v>
+        <v>30.45631013468387</v>
       </c>
       <c r="M13" t="n">
-        <v>34.11973034141128</v>
+        <v>25.42579023297469</v>
       </c>
       <c r="N13" t="n">
-        <v>22.33705035303328</v>
+        <v>13.84983270846368</v>
       </c>
       <c r="O13" t="n">
-        <v>49.51140282931519</v>
+        <v>41.67208363857273</v>
       </c>
       <c r="P13" t="n">
-        <v>71.69626319550571</v>
+        <v>64.98837134358664</v>
       </c>
       <c r="Q13" t="n">
-        <v>139.0705175302886</v>
+        <v>134.42632090912</v>
       </c>
       <c r="R13" t="n">
-        <v>214.3047885262713</v>
+        <v>211.8110097304511</v>
       </c>
       <c r="S13" t="n">
-        <v>241.0763167951749</v>
+        <v>240.1097632263137</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4453377527024</v>
+        <v>217.2083632209524</v>
       </c>
       <c r="U13" t="n">
-        <v>291.2113931710636</v>
+        <v>291.2083679642753</v>
       </c>
       <c r="V13" t="n">
         <v>237.3615500762718</v>
@@ -23509,19 +23509,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>421.8459671052398</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H14" t="n">
-        <v>346.2330824957484</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I14" t="n">
-        <v>240.3847806456414</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J14" t="n">
-        <v>72.77309768536537</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K14" t="n">
-        <v>15.72789047089677</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -23536,22 +23536,22 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>3.684619204015576</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>81.5603140781846</v>
+        <v>68.20822947306053</v>
       </c>
       <c r="R14" t="n">
-        <v>188.6400550964761</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S14" t="n">
-        <v>227.6425513334645</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8789244286399</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7620651792182</v>
+        <v>248.7521737158166</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23588,16 +23588,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>160.8359374722434</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H15" t="n">
-        <v>136.0213138977834</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I15" t="n">
-        <v>110.7868629208131</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J15" t="n">
-        <v>64.5439055906884</v>
+        <v>58.29370945070389</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23618,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>30.97363149681966</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R15" t="n">
-        <v>143.2767537638985</v>
+        <v>139.169341083075</v>
       </c>
       <c r="S15" t="n">
-        <v>204.6971134970022</v>
+        <v>203.4683135038341</v>
       </c>
       <c r="T15" t="n">
-        <v>229.3736829070266</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U15" t="n">
-        <v>249.637776255715</v>
+        <v>249.633423953496</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
@@ -23667,49 +23667,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G16" t="n">
-        <v>169.0842897762481</v>
+        <v>169.028827651796</v>
       </c>
       <c r="H16" t="n">
-        <v>166.2431732614622</v>
+        <v>165.7500645549697</v>
       </c>
       <c r="I16" t="n">
-        <v>163.221867400849</v>
+        <v>161.5539700582341</v>
       </c>
       <c r="J16" t="n">
-        <v>121.6688168876111</v>
+        <v>117.7476446888457</v>
       </c>
       <c r="K16" t="n">
-        <v>70.02640322835012</v>
+        <v>63.58271276927573</v>
       </c>
       <c r="L16" t="n">
-        <v>38.70201543732101</v>
+        <v>30.45631013468387</v>
       </c>
       <c r="M16" t="n">
-        <v>34.11973034141128</v>
+        <v>25.42579023297469</v>
       </c>
       <c r="N16" t="n">
-        <v>22.33705035303328</v>
+        <v>13.84983270846368</v>
       </c>
       <c r="O16" t="n">
-        <v>49.51140282931519</v>
+        <v>41.67208363857273</v>
       </c>
       <c r="P16" t="n">
-        <v>71.69626319550571</v>
+        <v>64.98837134358664</v>
       </c>
       <c r="Q16" t="n">
-        <v>139.0705175302886</v>
+        <v>134.42632090912</v>
       </c>
       <c r="R16" t="n">
-        <v>214.3047885262713</v>
+        <v>211.8110097304511</v>
       </c>
       <c r="S16" t="n">
-        <v>241.0763167951749</v>
+        <v>240.1097632263137</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4453377527024</v>
+        <v>217.2083632209524</v>
       </c>
       <c r="U16" t="n">
-        <v>291.2113931710636</v>
+        <v>291.2083679642753</v>
       </c>
       <c r="V16" t="n">
         <v>237.3615500762718</v>
@@ -23746,19 +23746,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>421.8459671052398</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H17" t="n">
-        <v>346.2330824957484</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I17" t="n">
-        <v>240.3847806456414</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J17" t="n">
-        <v>72.77309768536537</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K17" t="n">
-        <v>15.72789047089674</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -23773,22 +23773,22 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>3.684619204015604</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>81.56031407818458</v>
+        <v>68.20822947306053</v>
       </c>
       <c r="R17" t="n">
-        <v>188.6400550964761</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S17" t="n">
-        <v>227.6425513334644</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8789244286399</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7620651792182</v>
+        <v>248.7521737158166</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23825,16 +23825,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>160.8359374722434</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H18" t="n">
-        <v>136.0213138977834</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I18" t="n">
-        <v>110.7868629208131</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J18" t="n">
-        <v>64.5439055906884</v>
+        <v>58.29370945070389</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>30.97363149681966</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R18" t="n">
-        <v>143.2767537638985</v>
+        <v>139.169341083075</v>
       </c>
       <c r="S18" t="n">
-        <v>204.6971134970022</v>
+        <v>203.4683135038341</v>
       </c>
       <c r="T18" t="n">
-        <v>229.3736829070266</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U18" t="n">
-        <v>249.637776255715</v>
+        <v>249.633423953496</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
@@ -23904,49 +23904,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G19" t="n">
-        <v>169.0842897762481</v>
+        <v>169.028827651796</v>
       </c>
       <c r="H19" t="n">
-        <v>166.2431732614622</v>
+        <v>165.7500645549697</v>
       </c>
       <c r="I19" t="n">
-        <v>163.221867400849</v>
+        <v>161.5539700582341</v>
       </c>
       <c r="J19" t="n">
-        <v>121.6688168876111</v>
+        <v>117.7476446888457</v>
       </c>
       <c r="K19" t="n">
-        <v>70.02640322835012</v>
+        <v>63.58271276927573</v>
       </c>
       <c r="L19" t="n">
-        <v>38.70201543732101</v>
+        <v>30.45631013468387</v>
       </c>
       <c r="M19" t="n">
-        <v>34.11973034141127</v>
+        <v>25.42579023297469</v>
       </c>
       <c r="N19" t="n">
-        <v>22.33705035303326</v>
+        <v>13.84983270846368</v>
       </c>
       <c r="O19" t="n">
-        <v>49.51140282931519</v>
+        <v>41.67208363857273</v>
       </c>
       <c r="P19" t="n">
-        <v>71.69626319550571</v>
+        <v>64.98837134358664</v>
       </c>
       <c r="Q19" t="n">
-        <v>139.0705175302886</v>
+        <v>134.42632090912</v>
       </c>
       <c r="R19" t="n">
-        <v>214.3047885262713</v>
+        <v>211.8110097304511</v>
       </c>
       <c r="S19" t="n">
-        <v>241.0763167951749</v>
+        <v>240.1097632263137</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4453377527024</v>
+        <v>217.2083632209524</v>
       </c>
       <c r="U19" t="n">
-        <v>291.2113931710636</v>
+        <v>291.2083679642753</v>
       </c>
       <c r="V19" t="n">
         <v>237.3615500762718</v>
@@ -23983,19 +23983,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>421.8459671052398</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H20" t="n">
-        <v>346.2330824957484</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I20" t="n">
-        <v>240.3847806456414</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J20" t="n">
-        <v>72.77309768536537</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K20" t="n">
-        <v>15.72789047089677</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -24010,22 +24010,22 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>3.684619204015576</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>81.5603140781846</v>
+        <v>68.20822947306053</v>
       </c>
       <c r="R20" t="n">
-        <v>188.6400550964761</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S20" t="n">
-        <v>227.6425513334645</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8789244286399</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U20" t="n">
-        <v>248.7620651792182</v>
+        <v>248.7521737158166</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24062,16 +24062,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>160.8359374722434</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H21" t="n">
-        <v>136.0213138977834</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I21" t="n">
-        <v>110.7868629208131</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J21" t="n">
-        <v>64.5439055906884</v>
+        <v>58.29370945070389</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24092,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>30.97363149681966</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R21" t="n">
-        <v>143.2767537638985</v>
+        <v>139.169341083075</v>
       </c>
       <c r="S21" t="n">
-        <v>204.6971134970022</v>
+        <v>203.4683135038341</v>
       </c>
       <c r="T21" t="n">
-        <v>229.3736829070266</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U21" t="n">
-        <v>249.637776255715</v>
+        <v>249.633423953496</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
@@ -24141,49 +24141,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>169.0842897762481</v>
+        <v>169.028827651796</v>
       </c>
       <c r="H22" t="n">
-        <v>166.2431732614622</v>
+        <v>165.7500645549697</v>
       </c>
       <c r="I22" t="n">
-        <v>163.221867400849</v>
+        <v>161.5539700582341</v>
       </c>
       <c r="J22" t="n">
-        <v>121.6688168876111</v>
+        <v>117.7476446888457</v>
       </c>
       <c r="K22" t="n">
-        <v>70.02640322835012</v>
+        <v>63.58271276927573</v>
       </c>
       <c r="L22" t="n">
-        <v>38.70201543732101</v>
+        <v>30.45631013468387</v>
       </c>
       <c r="M22" t="n">
-        <v>34.11973034141128</v>
+        <v>25.42579023297469</v>
       </c>
       <c r="N22" t="n">
-        <v>22.33705035303328</v>
+        <v>13.84983270846368</v>
       </c>
       <c r="O22" t="n">
-        <v>49.51140282931519</v>
+        <v>41.67208363857273</v>
       </c>
       <c r="P22" t="n">
-        <v>71.69626319550571</v>
+        <v>64.98837134358664</v>
       </c>
       <c r="Q22" t="n">
-        <v>139.0705175302886</v>
+        <v>134.42632090912</v>
       </c>
       <c r="R22" t="n">
-        <v>214.3047885262713</v>
+        <v>211.8110097304511</v>
       </c>
       <c r="S22" t="n">
-        <v>241.0763167951749</v>
+        <v>240.1097632263137</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4453377527024</v>
+        <v>217.2083632209524</v>
       </c>
       <c r="U22" t="n">
-        <v>291.2113931710636</v>
+        <v>291.2083679642753</v>
       </c>
       <c r="V22" t="n">
         <v>237.3615500762718</v>
@@ -24220,19 +24220,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>421.8459671052398</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H23" t="n">
-        <v>346.2330824957484</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I23" t="n">
-        <v>240.3847806456414</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J23" t="n">
-        <v>72.77309768536537</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K23" t="n">
-        <v>15.72789047089677</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -24247,22 +24247,22 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>3.684619204015576</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>81.5603140781846</v>
+        <v>68.20822947306053</v>
       </c>
       <c r="R23" t="n">
-        <v>188.6400550964761</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S23" t="n">
-        <v>227.6425513334645</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8789244286399</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U23" t="n">
-        <v>248.7620651792182</v>
+        <v>248.7521737158166</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24299,16 +24299,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>160.8359374722434</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H24" t="n">
-        <v>136.0213138977834</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I24" t="n">
-        <v>110.7868629208131</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J24" t="n">
-        <v>64.5439055906884</v>
+        <v>58.29370945070389</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>30.97363149681966</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R24" t="n">
-        <v>143.2767537638985</v>
+        <v>139.169341083075</v>
       </c>
       <c r="S24" t="n">
-        <v>204.6971134970022</v>
+        <v>203.4683135038341</v>
       </c>
       <c r="T24" t="n">
-        <v>229.3736829070266</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U24" t="n">
-        <v>249.637776255715</v>
+        <v>249.633423953496</v>
       </c>
       <c r="V24" t="n">
         <v>249.2999251801724</v>
@@ -24378,49 +24378,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G25" t="n">
-        <v>169.0842897762481</v>
+        <v>169.028827651796</v>
       </c>
       <c r="H25" t="n">
-        <v>166.2431732614622</v>
+        <v>165.7500645549697</v>
       </c>
       <c r="I25" t="n">
-        <v>163.221867400849</v>
+        <v>161.5539700582341</v>
       </c>
       <c r="J25" t="n">
-        <v>121.6688168876111</v>
+        <v>117.7476446888457</v>
       </c>
       <c r="K25" t="n">
-        <v>70.02640322835012</v>
+        <v>63.58271276927573</v>
       </c>
       <c r="L25" t="n">
-        <v>38.70201543732101</v>
+        <v>30.45631013468387</v>
       </c>
       <c r="M25" t="n">
-        <v>34.11973034141128</v>
+        <v>25.42579023297469</v>
       </c>
       <c r="N25" t="n">
-        <v>22.33705035303328</v>
+        <v>13.84983270846368</v>
       </c>
       <c r="O25" t="n">
-        <v>49.51140282931519</v>
+        <v>41.67208363857273</v>
       </c>
       <c r="P25" t="n">
-        <v>71.69626319550571</v>
+        <v>64.98837134358664</v>
       </c>
       <c r="Q25" t="n">
-        <v>139.0705175302886</v>
+        <v>134.42632090912</v>
       </c>
       <c r="R25" t="n">
-        <v>214.3047885262713</v>
+        <v>211.8110097304511</v>
       </c>
       <c r="S25" t="n">
-        <v>241.0763167951749</v>
+        <v>240.1097632263137</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4453377527024</v>
+        <v>217.2083632209524</v>
       </c>
       <c r="U25" t="n">
-        <v>291.2113931710636</v>
+        <v>291.2083679642753</v>
       </c>
       <c r="V25" t="n">
         <v>237.3615500762718</v>
@@ -24457,19 +24457,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>421.8459671052398</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H26" t="n">
-        <v>346.2330824957484</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I26" t="n">
-        <v>240.3847806456414</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J26" t="n">
-        <v>72.77309768536537</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K26" t="n">
-        <v>15.72789047089677</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -24484,22 +24484,22 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>3.684619204015576</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>81.5603140781846</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R26" t="n">
-        <v>188.6400550964761</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S26" t="n">
-        <v>227.6425513334645</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8789244286399</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U26" t="n">
-        <v>248.7620651792182</v>
+        <v>248.7521737158166</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
@@ -24536,16 +24536,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>160.8359374722434</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H27" t="n">
-        <v>136.0213138977834</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I27" t="n">
-        <v>110.7868629208131</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J27" t="n">
-        <v>64.5439055906884</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24566,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>30.97363149681966</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R27" t="n">
-        <v>143.2767537638985</v>
+        <v>139.1693410830749</v>
       </c>
       <c r="S27" t="n">
-        <v>204.6971134970022</v>
+        <v>203.4683135038341</v>
       </c>
       <c r="T27" t="n">
-        <v>229.3736829070266</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U27" t="n">
-        <v>249.637776255715</v>
+        <v>249.633423953496</v>
       </c>
       <c r="V27" t="n">
         <v>249.2999251801724</v>
@@ -24615,49 +24615,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G28" t="n">
-        <v>169.0842897762481</v>
+        <v>169.028827651796</v>
       </c>
       <c r="H28" t="n">
-        <v>166.2431732614622</v>
+        <v>165.7500645549697</v>
       </c>
       <c r="I28" t="n">
-        <v>163.221867400849</v>
+        <v>161.5539700582341</v>
       </c>
       <c r="J28" t="n">
-        <v>121.6688168876111</v>
+        <v>117.7476446888457</v>
       </c>
       <c r="K28" t="n">
-        <v>70.02640322835012</v>
+        <v>63.58271276927572</v>
       </c>
       <c r="L28" t="n">
-        <v>38.70201543732101</v>
+        <v>30.45631013468386</v>
       </c>
       <c r="M28" t="n">
-        <v>34.11973034141128</v>
+        <v>25.42579023297466</v>
       </c>
       <c r="N28" t="n">
-        <v>22.33705035303328</v>
+        <v>13.84983270846368</v>
       </c>
       <c r="O28" t="n">
-        <v>49.51140282931519</v>
+        <v>41.67208363857272</v>
       </c>
       <c r="P28" t="n">
-        <v>71.69626319550571</v>
+        <v>64.98837134358662</v>
       </c>
       <c r="Q28" t="n">
-        <v>139.0705175302886</v>
+        <v>134.42632090912</v>
       </c>
       <c r="R28" t="n">
-        <v>214.3047885262713</v>
+        <v>211.8110097304511</v>
       </c>
       <c r="S28" t="n">
-        <v>241.0763167951749</v>
+        <v>240.1097632263137</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4453377527024</v>
+        <v>217.2083632209524</v>
       </c>
       <c r="U28" t="n">
-        <v>291.2113931710636</v>
+        <v>291.2083679642753</v>
       </c>
       <c r="V28" t="n">
         <v>237.3615500762718</v>
@@ -24694,19 +24694,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>421.8459671052398</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H29" t="n">
-        <v>346.2330824957484</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I29" t="n">
-        <v>240.3847806456414</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J29" t="n">
-        <v>72.77309768536537</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K29" t="n">
-        <v>15.72789047089674</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -24721,22 +24721,22 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>3.684619204015604</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>81.56031407818458</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R29" t="n">
-        <v>188.6400550964761</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S29" t="n">
-        <v>227.6425513334644</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8789244286399</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7620651792182</v>
+        <v>248.7521737158166</v>
       </c>
       <c r="V29" t="n">
         <v>313.3044420010231</v>
@@ -24773,16 +24773,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>160.8359374722434</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H30" t="n">
-        <v>136.0213138977834</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I30" t="n">
-        <v>110.7868629208131</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J30" t="n">
-        <v>64.5439055906884</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24803,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>30.97363149681966</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R30" t="n">
-        <v>143.2767537638985</v>
+        <v>139.1693410830749</v>
       </c>
       <c r="S30" t="n">
-        <v>204.6971134970022</v>
+        <v>203.4683135038341</v>
       </c>
       <c r="T30" t="n">
-        <v>229.3736829070266</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U30" t="n">
-        <v>249.637776255715</v>
+        <v>249.633423953496</v>
       </c>
       <c r="V30" t="n">
         <v>249.2999251801724</v>
@@ -24852,49 +24852,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>169.0842897762481</v>
+        <v>169.028827651796</v>
       </c>
       <c r="H31" t="n">
-        <v>166.2431732614622</v>
+        <v>165.7500645549697</v>
       </c>
       <c r="I31" t="n">
-        <v>163.221867400849</v>
+        <v>161.5539700582341</v>
       </c>
       <c r="J31" t="n">
-        <v>121.6688168876111</v>
+        <v>117.7476446888457</v>
       </c>
       <c r="K31" t="n">
-        <v>70.02640322835012</v>
+        <v>63.58271276927572</v>
       </c>
       <c r="L31" t="n">
-        <v>38.70201543732101</v>
+        <v>30.45631013468386</v>
       </c>
       <c r="M31" t="n">
-        <v>34.11973034141127</v>
+        <v>25.42579023297466</v>
       </c>
       <c r="N31" t="n">
-        <v>22.33705035303326</v>
+        <v>13.84983270846368</v>
       </c>
       <c r="O31" t="n">
-        <v>49.51140282931519</v>
+        <v>41.67208363857272</v>
       </c>
       <c r="P31" t="n">
-        <v>71.69626319550571</v>
+        <v>64.98837134358662</v>
       </c>
       <c r="Q31" t="n">
-        <v>139.0705175302886</v>
+        <v>134.42632090912</v>
       </c>
       <c r="R31" t="n">
-        <v>214.3047885262713</v>
+        <v>211.8110097304511</v>
       </c>
       <c r="S31" t="n">
-        <v>241.0763167951749</v>
+        <v>240.1097632263137</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4453377527024</v>
+        <v>217.2083632209524</v>
       </c>
       <c r="U31" t="n">
-        <v>291.2113931710636</v>
+        <v>291.2083679642753</v>
       </c>
       <c r="V31" t="n">
         <v>237.3615500762718</v>
@@ -24931,19 +24931,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>421.8459671052398</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H32" t="n">
-        <v>346.2330824957484</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I32" t="n">
-        <v>240.3847806456414</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J32" t="n">
-        <v>72.77309768536537</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K32" t="n">
-        <v>15.72789047089677</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -24958,22 +24958,22 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>3.684619204015576</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>81.5603140781846</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R32" t="n">
-        <v>188.6400550964761</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S32" t="n">
-        <v>227.6425513334645</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8789244286399</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7620651792182</v>
+        <v>248.7521737158166</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -25010,16 +25010,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>160.8359374722434</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H33" t="n">
-        <v>136.0213138977834</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I33" t="n">
-        <v>110.7868629208131</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J33" t="n">
-        <v>64.5439055906884</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25040,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>30.97363149681966</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R33" t="n">
-        <v>143.2767537638985</v>
+        <v>139.1693410830749</v>
       </c>
       <c r="S33" t="n">
-        <v>204.6971134970022</v>
+        <v>203.4683135038341</v>
       </c>
       <c r="T33" t="n">
-        <v>229.3736829070266</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U33" t="n">
-        <v>249.637776255715</v>
+        <v>249.633423953496</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
@@ -25089,49 +25089,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G34" t="n">
-        <v>169.0842897762481</v>
+        <v>169.028827651796</v>
       </c>
       <c r="H34" t="n">
-        <v>166.2431732614622</v>
+        <v>165.7500645549697</v>
       </c>
       <c r="I34" t="n">
-        <v>163.221867400849</v>
+        <v>161.5539700582341</v>
       </c>
       <c r="J34" t="n">
-        <v>121.6688168876111</v>
+        <v>117.7476446888457</v>
       </c>
       <c r="K34" t="n">
-        <v>70.02640322835012</v>
+        <v>63.58271276927572</v>
       </c>
       <c r="L34" t="n">
-        <v>38.70201543732101</v>
+        <v>30.45631013468386</v>
       </c>
       <c r="M34" t="n">
-        <v>34.11973034141128</v>
+        <v>25.42579023297466</v>
       </c>
       <c r="N34" t="n">
-        <v>22.33705035303328</v>
+        <v>13.84983270846368</v>
       </c>
       <c r="O34" t="n">
-        <v>49.51140282931519</v>
+        <v>41.67208363857272</v>
       </c>
       <c r="P34" t="n">
-        <v>71.69626319550571</v>
+        <v>64.98837134358662</v>
       </c>
       <c r="Q34" t="n">
-        <v>139.0705175302886</v>
+        <v>134.42632090912</v>
       </c>
       <c r="R34" t="n">
-        <v>214.3047885262713</v>
+        <v>211.8110097304511</v>
       </c>
       <c r="S34" t="n">
-        <v>241.0763167951749</v>
+        <v>240.1097632263137</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4453377527024</v>
+        <v>217.2083632209524</v>
       </c>
       <c r="U34" t="n">
-        <v>291.2113931710636</v>
+        <v>291.2083679642753</v>
       </c>
       <c r="V34" t="n">
         <v>237.3615500762718</v>
@@ -25168,19 +25168,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>421.8459671052398</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H35" t="n">
-        <v>346.2330824957484</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I35" t="n">
-        <v>240.3847806456414</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J35" t="n">
-        <v>72.77309768536537</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K35" t="n">
-        <v>15.72789047089677</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -25195,22 +25195,22 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>3.684619204015576</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>81.5603140781846</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R35" t="n">
-        <v>188.6400550964761</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S35" t="n">
-        <v>227.6425513334645</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8789244286399</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U35" t="n">
-        <v>248.7620651792182</v>
+        <v>248.7521737158166</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25247,16 +25247,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>160.8359374722434</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H36" t="n">
-        <v>136.0213138977834</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I36" t="n">
-        <v>110.7868629208131</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J36" t="n">
-        <v>64.5439055906884</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25277,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>30.97363149681966</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R36" t="n">
-        <v>143.2767537638985</v>
+        <v>139.169341083075</v>
       </c>
       <c r="S36" t="n">
-        <v>204.6971134970022</v>
+        <v>203.4683135038341</v>
       </c>
       <c r="T36" t="n">
-        <v>229.3736829070266</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U36" t="n">
-        <v>249.637776255715</v>
+        <v>249.633423953496</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
@@ -25326,49 +25326,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G37" t="n">
-        <v>169.0842897762481</v>
+        <v>169.028827651796</v>
       </c>
       <c r="H37" t="n">
-        <v>166.2431732614622</v>
+        <v>165.7500645549697</v>
       </c>
       <c r="I37" t="n">
-        <v>163.221867400849</v>
+        <v>161.5539700582341</v>
       </c>
       <c r="J37" t="n">
-        <v>121.6688168876111</v>
+        <v>117.7476446888457</v>
       </c>
       <c r="K37" t="n">
-        <v>70.02640322835012</v>
+        <v>63.58271276927572</v>
       </c>
       <c r="L37" t="n">
-        <v>38.70201543732101</v>
+        <v>30.45631013468387</v>
       </c>
       <c r="M37" t="n">
-        <v>34.11973034141128</v>
+        <v>25.42579023297466</v>
       </c>
       <c r="N37" t="n">
-        <v>22.33705035303328</v>
+        <v>13.84983270846368</v>
       </c>
       <c r="O37" t="n">
-        <v>49.51140282931519</v>
+        <v>41.67208363857273</v>
       </c>
       <c r="P37" t="n">
-        <v>71.69626319550571</v>
+        <v>64.98837134358664</v>
       </c>
       <c r="Q37" t="n">
-        <v>139.0705175302886</v>
+        <v>134.42632090912</v>
       </c>
       <c r="R37" t="n">
-        <v>214.3047885262713</v>
+        <v>211.8110097304511</v>
       </c>
       <c r="S37" t="n">
-        <v>241.0763167951749</v>
+        <v>240.1097632263137</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4453377527024</v>
+        <v>217.2083632209524</v>
       </c>
       <c r="U37" t="n">
-        <v>291.2113931710636</v>
+        <v>291.2083679642753</v>
       </c>
       <c r="V37" t="n">
         <v>237.3615500762718</v>
@@ -25405,19 +25405,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>421.8459671052398</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H38" t="n">
-        <v>346.2330824957484</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I38" t="n">
-        <v>240.3847806456414</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J38" t="n">
-        <v>72.77309768536537</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K38" t="n">
-        <v>15.72789047089677</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -25432,22 +25432,22 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>3.684619204015576</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>81.5603140781846</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R38" t="n">
-        <v>188.6400550964761</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S38" t="n">
-        <v>227.6425513334645</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8789244286399</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U38" t="n">
-        <v>248.7620651792182</v>
+        <v>248.7521737158166</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
@@ -25484,16 +25484,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>160.8359374722434</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H39" t="n">
-        <v>136.0213138977834</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I39" t="n">
-        <v>110.7868629208131</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J39" t="n">
-        <v>64.5439055906884</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25514,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>30.97363149681966</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R39" t="n">
-        <v>143.2767537638985</v>
+        <v>139.1693410830749</v>
       </c>
       <c r="S39" t="n">
-        <v>204.6971134970022</v>
+        <v>203.4683135038341</v>
       </c>
       <c r="T39" t="n">
-        <v>229.3736829070266</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U39" t="n">
-        <v>249.637776255715</v>
+        <v>249.633423953496</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
@@ -25563,49 +25563,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G40" t="n">
-        <v>169.0842897762481</v>
+        <v>169.028827651796</v>
       </c>
       <c r="H40" t="n">
-        <v>166.2431732614622</v>
+        <v>165.7500645549697</v>
       </c>
       <c r="I40" t="n">
-        <v>163.221867400849</v>
+        <v>161.5539700582341</v>
       </c>
       <c r="J40" t="n">
-        <v>121.6688168876111</v>
+        <v>117.7476446888457</v>
       </c>
       <c r="K40" t="n">
-        <v>70.02640322835012</v>
+        <v>63.58271276927572</v>
       </c>
       <c r="L40" t="n">
-        <v>38.70201543732101</v>
+        <v>30.45631013468386</v>
       </c>
       <c r="M40" t="n">
-        <v>34.11973034141128</v>
+        <v>25.42579023297466</v>
       </c>
       <c r="N40" t="n">
-        <v>22.33705035303328</v>
+        <v>13.84983270846368</v>
       </c>
       <c r="O40" t="n">
-        <v>49.51140282931519</v>
+        <v>41.67208363857272</v>
       </c>
       <c r="P40" t="n">
-        <v>71.69626319550571</v>
+        <v>64.98837134358662</v>
       </c>
       <c r="Q40" t="n">
-        <v>139.0705175302886</v>
+        <v>134.42632090912</v>
       </c>
       <c r="R40" t="n">
-        <v>214.3047885262713</v>
+        <v>211.8110097304511</v>
       </c>
       <c r="S40" t="n">
-        <v>241.0763167951749</v>
+        <v>240.1097632263137</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4453377527024</v>
+        <v>217.2083632209524</v>
       </c>
       <c r="U40" t="n">
-        <v>291.2113931710636</v>
+        <v>291.2083679642753</v>
       </c>
       <c r="V40" t="n">
         <v>237.3615500762718</v>
@@ -25642,19 +25642,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>421.8459671052398</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H41" t="n">
-        <v>346.2330824957484</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I41" t="n">
-        <v>240.3847806456414</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J41" t="n">
-        <v>72.77309768536537</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K41" t="n">
-        <v>15.72789047089677</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -25669,22 +25669,22 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>3.684619204015576</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>81.5603140781846</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R41" t="n">
-        <v>188.6400550964761</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S41" t="n">
-        <v>227.6425513334645</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8789244286399</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7620651792182</v>
+        <v>248.7521737158166</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
@@ -25721,16 +25721,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>160.8359374722434</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H42" t="n">
-        <v>136.0213138977834</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I42" t="n">
-        <v>110.7868629208131</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J42" t="n">
-        <v>64.5439055906884</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25751,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>30.97363149681966</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R42" t="n">
-        <v>143.2767537638985</v>
+        <v>139.1693410830749</v>
       </c>
       <c r="S42" t="n">
-        <v>204.6971134970022</v>
+        <v>203.4683135038341</v>
       </c>
       <c r="T42" t="n">
-        <v>229.3736829070266</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U42" t="n">
-        <v>249.637776255715</v>
+        <v>249.633423953496</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
@@ -25800,49 +25800,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G43" t="n">
-        <v>169.0842897762481</v>
+        <v>169.028827651796</v>
       </c>
       <c r="H43" t="n">
-        <v>166.2431732614622</v>
+        <v>165.7500645549697</v>
       </c>
       <c r="I43" t="n">
-        <v>163.221867400849</v>
+        <v>161.5539700582341</v>
       </c>
       <c r="J43" t="n">
-        <v>121.6688168876111</v>
+        <v>117.7476446888457</v>
       </c>
       <c r="K43" t="n">
-        <v>70.02640322835012</v>
+        <v>63.58271276927572</v>
       </c>
       <c r="L43" t="n">
-        <v>38.70201543732101</v>
+        <v>30.45631013468386</v>
       </c>
       <c r="M43" t="n">
-        <v>34.11973034141128</v>
+        <v>25.42579023297466</v>
       </c>
       <c r="N43" t="n">
-        <v>22.33705035303328</v>
+        <v>13.84983270846368</v>
       </c>
       <c r="O43" t="n">
-        <v>49.51140282931519</v>
+        <v>41.67208363857272</v>
       </c>
       <c r="P43" t="n">
-        <v>71.69626319550571</v>
+        <v>64.98837134358662</v>
       </c>
       <c r="Q43" t="n">
-        <v>139.0705175302886</v>
+        <v>134.42632090912</v>
       </c>
       <c r="R43" t="n">
-        <v>214.3047885262713</v>
+        <v>211.8110097304511</v>
       </c>
       <c r="S43" t="n">
-        <v>241.0763167951749</v>
+        <v>240.1097632263137</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4453377527024</v>
+        <v>217.2083632209524</v>
       </c>
       <c r="U43" t="n">
-        <v>291.2113931710636</v>
+        <v>291.2083679642753</v>
       </c>
       <c r="V43" t="n">
         <v>237.3615500762718</v>
@@ -25879,16 +25879,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>421.7098656665098</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H44" t="n">
-        <v>344.8392336363538</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I44" t="n">
-        <v>235.1377299289993</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J44" t="n">
-        <v>61.2216581999468</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>66.86288983651983</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R44" t="n">
-        <v>180.0906730958467</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S44" t="n">
-        <v>224.5411397984024</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T44" t="n">
-        <v>217.2831403805989</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7521737158166</v>
       </c>
       <c r="V44" t="n">
         <v>313.3044420010231</v>
@@ -25958,16 +25958,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H45" t="n">
-        <v>135.3180193429644</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I45" t="n">
-        <v>108.279659353452</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J45" t="n">
-        <v>57.66394736845585</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25988,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>21.67813434720469</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R45" t="n">
-        <v>138.7554832289223</v>
+        <v>139.1693410830749</v>
       </c>
       <c r="S45" t="n">
-        <v>203.3445011265852</v>
+        <v>203.4683135038341</v>
       </c>
       <c r="T45" t="n">
-        <v>229.0801644257012</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U45" t="n">
-        <v>249.6329854208729</v>
+        <v>249.633423953496</v>
       </c>
       <c r="V45" t="n">
         <v>249.2999251801724</v>
@@ -26037,49 +26037,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G46" t="n">
-        <v>169.0232393562931</v>
+        <v>169.028827651796</v>
       </c>
       <c r="H46" t="n">
-        <v>165.7003795276809</v>
+        <v>165.7500645549697</v>
       </c>
       <c r="I46" t="n">
-        <v>161.3859147716582</v>
+        <v>161.5539700582341</v>
       </c>
       <c r="J46" t="n">
-        <v>117.3525521967958</v>
+        <v>117.7476446888457</v>
       </c>
       <c r="K46" t="n">
-        <v>62.93345443721985</v>
+        <v>63.58271276927572</v>
       </c>
       <c r="L46" t="n">
-        <v>29.62548300147246</v>
+        <v>30.45631013468386</v>
       </c>
       <c r="M46" t="n">
-        <v>24.54979951156312</v>
+        <v>25.42579023297466</v>
       </c>
       <c r="N46" t="n">
-        <v>12.99467108847176</v>
+        <v>13.84983270846368</v>
       </c>
       <c r="O46" t="n">
-        <v>40.88220347059112</v>
+        <v>41.67208363857272</v>
       </c>
       <c r="P46" t="n">
-        <v>64.31249240386273</v>
+        <v>64.98837134358662</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.9583773647877</v>
+        <v>134.42632090912</v>
       </c>
       <c r="R46" t="n">
-        <v>211.5597396435694</v>
+        <v>211.8110097304511</v>
       </c>
       <c r="S46" t="n">
-        <v>240.0123744765054</v>
+        <v>240.1097632263137</v>
       </c>
       <c r="T46" t="n">
-        <v>217.1844859583495</v>
+        <v>217.2083632209524</v>
       </c>
       <c r="U46" t="n">
-        <v>291.208063148157</v>
+        <v>291.2083679642753</v>
       </c>
       <c r="V46" t="n">
         <v>237.3615500762718</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>483652.5840429105</v>
+        <v>492976.1233702839</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>483652.5840429105</v>
+        <v>492976.1233702839</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>483652.5840429105</v>
+        <v>492976.1233702839</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>483652.5840429105</v>
+        <v>492976.1233702839</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>483652.5840429105</v>
+        <v>492976.1233702839</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>483652.5840429105</v>
+        <v>492976.1233702839</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>483652.5840429105</v>
+        <v>492976.1233702839</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>483652.5840429105</v>
+        <v>492976.1233702839</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>483652.5840429105</v>
+        <v>492976.1233702839</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>483652.5840429105</v>
+        <v>492976.1233702839</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>483652.5840429105</v>
+        <v>492976.1233702839</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>493646.9760364962</v>
+        <v>492976.1233702839</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>21023.75692077818</v>
       </c>
       <c r="E2" t="n">
-        <v>69898.11367906196</v>
+        <v>71533.57524540454</v>
       </c>
       <c r="F2" t="n">
-        <v>69898.11367906196</v>
+        <v>71533.57524540451</v>
       </c>
       <c r="G2" t="n">
-        <v>69898.11367906195</v>
+        <v>71533.57524540453</v>
       </c>
       <c r="H2" t="n">
-        <v>69898.11367906196</v>
+        <v>71533.57524540451</v>
       </c>
       <c r="I2" t="n">
-        <v>69898.11367906196</v>
+        <v>71533.57524540451</v>
       </c>
       <c r="J2" t="n">
-        <v>69898.11367906196</v>
+        <v>71533.57524540454</v>
       </c>
       <c r="K2" t="n">
-        <v>69898.11367906195</v>
+        <v>71533.57524540456</v>
       </c>
       <c r="L2" t="n">
-        <v>69898.11367906196</v>
+        <v>71533.57524540454</v>
       </c>
       <c r="M2" t="n">
-        <v>69898.11367906198</v>
+        <v>71533.57524540454</v>
       </c>
       <c r="N2" t="n">
-        <v>69898.11367906196</v>
+        <v>71533.57524540454</v>
       </c>
       <c r="O2" t="n">
-        <v>69898.11367906196</v>
+        <v>71533.57524540454</v>
       </c>
       <c r="P2" t="n">
-        <v>71663.33073013774</v>
+        <v>71533.57524540454</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>348583.1442024936</v>
+        <v>373292.8229974385</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>22533.23048207551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18687.78392958061</v>
+        <v>18687.7839295806</v>
       </c>
       <c r="C4" t="n">
-        <v>18687.78392958061</v>
+        <v>18687.7839295806</v>
       </c>
       <c r="D4" t="n">
-        <v>18687.78392958061</v>
+        <v>18687.7839295806</v>
       </c>
       <c r="E4" t="n">
-        <v>9898.702440379522</v>
+        <v>8137.44670698662</v>
       </c>
       <c r="F4" t="n">
-        <v>9898.702440379522</v>
+        <v>8137.44670698662</v>
       </c>
       <c r="G4" t="n">
-        <v>9898.702440379522</v>
+        <v>8137.44670698662</v>
       </c>
       <c r="H4" t="n">
-        <v>9898.702440379522</v>
+        <v>8137.44670698662</v>
       </c>
       <c r="I4" t="n">
-        <v>9898.702440379522</v>
+        <v>8137.44670698662</v>
       </c>
       <c r="J4" t="n">
-        <v>9898.702440379522</v>
+        <v>8137.446706986616</v>
       </c>
       <c r="K4" t="n">
-        <v>9898.702440379522</v>
+        <v>8137.446706986616</v>
       </c>
       <c r="L4" t="n">
-        <v>9898.702440379522</v>
+        <v>8137.446706986616</v>
       </c>
       <c r="M4" t="n">
-        <v>9898.702440379522</v>
+        <v>8137.44670698662</v>
       </c>
       <c r="N4" t="n">
-        <v>9898.702440379522</v>
+        <v>8137.446706986616</v>
       </c>
       <c r="O4" t="n">
-        <v>9898.702440379522</v>
+        <v>8137.446706986616</v>
       </c>
       <c r="P4" t="n">
-        <v>7928.845532229342</v>
+        <v>8137.446706986616</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>9458.655921890211</v>
+        <v>10129.14258640329</v>
       </c>
       <c r="F5" t="n">
-        <v>9458.655921890211</v>
+        <v>10129.14258640329</v>
       </c>
       <c r="G5" t="n">
-        <v>9458.655921890211</v>
+        <v>10129.14258640329</v>
       </c>
       <c r="H5" t="n">
-        <v>9458.655921890211</v>
+        <v>10129.14258640329</v>
       </c>
       <c r="I5" t="n">
-        <v>9458.655921890211</v>
+        <v>10129.14258640329</v>
       </c>
       <c r="J5" t="n">
-        <v>9458.655921890211</v>
+        <v>10129.14258640329</v>
       </c>
       <c r="K5" t="n">
-        <v>9458.655921890211</v>
+        <v>10129.14258640329</v>
       </c>
       <c r="L5" t="n">
-        <v>9458.655921890211</v>
+        <v>10129.14258640329</v>
       </c>
       <c r="M5" t="n">
-        <v>9458.655921890211</v>
+        <v>10129.14258640329</v>
       </c>
       <c r="N5" t="n">
-        <v>9458.655921890211</v>
+        <v>10129.14258640329</v>
       </c>
       <c r="O5" t="n">
-        <v>9458.655921890211</v>
+        <v>10129.14258640329</v>
       </c>
       <c r="P5" t="n">
-        <v>10196.69999876384</v>
+        <v>10129.14258640329</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-31291.62700880243</v>
+        <v>-52775.79034203486</v>
       </c>
       <c r="C6" t="n">
-        <v>-31291.62700880243</v>
+        <v>-52775.79034203486</v>
       </c>
       <c r="D6" t="n">
-        <v>-31291.62700880243</v>
+        <v>-52775.79034203486</v>
       </c>
       <c r="E6" t="n">
-        <v>-298042.3888857013</v>
+        <v>-335897.7983425868</v>
       </c>
       <c r="F6" t="n">
-        <v>50540.75531679223</v>
+        <v>37395.02465485176</v>
       </c>
       <c r="G6" t="n">
-        <v>50540.75531679222</v>
+        <v>37395.02465485178</v>
       </c>
       <c r="H6" t="n">
-        <v>50540.75531679223</v>
+        <v>37395.02465485176</v>
       </c>
       <c r="I6" t="n">
-        <v>50540.75531679223</v>
+        <v>37395.02465485176</v>
       </c>
       <c r="J6" t="n">
-        <v>50540.75531679223</v>
+        <v>37395.0246548518</v>
       </c>
       <c r="K6" t="n">
-        <v>50540.75531679222</v>
+        <v>37395.02465485182</v>
       </c>
       <c r="L6" t="n">
-        <v>50540.75531679223</v>
+        <v>37395.0246548518</v>
       </c>
       <c r="M6" t="n">
-        <v>50540.75531679225</v>
+        <v>37395.02465485179</v>
       </c>
       <c r="N6" t="n">
-        <v>50540.75531679223</v>
+        <v>37395.0246548518</v>
       </c>
       <c r="O6" t="n">
-        <v>50540.75531679223</v>
+        <v>37395.0246548518</v>
       </c>
       <c r="P6" t="n">
-        <v>31004.55471706904</v>
+        <v>37395.0246548518</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.8832991692757</v>
+        <v>464.639568183637</v>
       </c>
       <c r="F3" t="n">
-        <v>433.8832991692757</v>
+        <v>464.639568183637</v>
       </c>
       <c r="G3" t="n">
-        <v>433.8832991692757</v>
+        <v>464.639568183637</v>
       </c>
       <c r="H3" t="n">
-        <v>433.8832991692757</v>
+        <v>464.639568183637</v>
       </c>
       <c r="I3" t="n">
-        <v>433.8832991692757</v>
+        <v>464.639568183637</v>
       </c>
       <c r="J3" t="n">
-        <v>433.8832991692757</v>
+        <v>464.6395681836371</v>
       </c>
       <c r="K3" t="n">
-        <v>433.8832991692757</v>
+        <v>464.6395681836371</v>
       </c>
       <c r="L3" t="n">
-        <v>433.8832991692757</v>
+        <v>464.6395681836371</v>
       </c>
       <c r="M3" t="n">
-        <v>433.8832991692757</v>
+        <v>464.639568183637</v>
       </c>
       <c r="N3" t="n">
-        <v>433.8832991692757</v>
+        <v>464.6395681836371</v>
       </c>
       <c r="O3" t="n">
-        <v>433.8832991692757</v>
+        <v>464.6395681836371</v>
       </c>
       <c r="P3" t="n">
-        <v>467.7385320533874</v>
+        <v>464.6395681836371</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.8832991692757</v>
+        <v>464.639568183637</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>33.85523288411167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.744254469022213</v>
+        <v>1.867897761542258</v>
       </c>
       <c r="H11" t="n">
-        <v>17.86334608087374</v>
+        <v>19.12960795039465</v>
       </c>
       <c r="I11" t="n">
-        <v>67.24537041697891</v>
+        <v>72.01212845185798</v>
       </c>
       <c r="J11" t="n">
-        <v>148.0414177401742</v>
+        <v>158.5354876386974</v>
       </c>
       <c r="K11" t="n">
-        <v>221.8757094138844</v>
+        <v>237.6035998847812</v>
       </c>
       <c r="L11" t="n">
-        <v>275.256437120223</v>
+        <v>294.7682760045801</v>
       </c>
       <c r="M11" t="n">
-        <v>306.2758225336968</v>
+        <v>327.9865028214073</v>
       </c>
       <c r="N11" t="n">
-        <v>311.2316855438062</v>
+        <v>333.2936673363892</v>
       </c>
       <c r="O11" t="n">
-        <v>293.8872551674665</v>
+        <v>314.7197589700534</v>
       </c>
       <c r="P11" t="n">
-        <v>250.8259729634806</v>
+        <v>268.6060329819788</v>
       </c>
       <c r="Q11" t="n">
-        <v>188.3598597916226</v>
+        <v>201.7119443967466</v>
       </c>
       <c r="R11" t="n">
-        <v>109.5675247897167</v>
+        <v>117.334332763479</v>
       </c>
       <c r="S11" t="n">
-        <v>39.7471987128437</v>
+        <v>42.56472024114425</v>
       </c>
       <c r="T11" t="n">
-        <v>7.635473938144739</v>
+        <v>8.176722451151239</v>
       </c>
       <c r="U11" t="n">
-        <v>0.139540357521777</v>
+        <v>0.1494318209233806</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9332584170810836</v>
+        <v>0.9994134108100873</v>
       </c>
       <c r="H12" t="n">
-        <v>9.013311554440993</v>
+        <v>9.65222952019216</v>
       </c>
       <c r="I12" t="n">
-        <v>32.13192357055485</v>
+        <v>34.4096283985052</v>
       </c>
       <c r="J12" t="n">
-        <v>88.17245422080536</v>
+        <v>94.42265036078987</v>
       </c>
       <c r="K12" t="n">
-        <v>150.700768165238</v>
+        <v>161.3833488850657</v>
       </c>
       <c r="L12" t="n">
         <v>202.635780428066</v>
@@ -31858,22 +31858,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P12" t="n">
-        <v>178.2114252757729</v>
+        <v>190.8441275431999</v>
       </c>
       <c r="Q12" t="n">
-        <v>119.1296182926661</v>
+        <v>127.5742452114771</v>
       </c>
       <c r="R12" t="n">
-        <v>57.94388663245537</v>
+        <v>62.05129931327895</v>
       </c>
       <c r="S12" t="n">
-        <v>17.33486577341397</v>
+        <v>18.56366576658209</v>
       </c>
       <c r="T12" t="n">
-        <v>3.761686339024191</v>
+        <v>4.028337388309078</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06139858007112394</v>
+        <v>0.06575088229013734</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7824125066986938</v>
+        <v>0.8378746311508208</v>
       </c>
       <c r="H13" t="n">
-        <v>6.956358468648392</v>
+        <v>7.449467175140939</v>
       </c>
       <c r="I13" t="n">
-        <v>23.52927792872073</v>
+        <v>25.1971752713356</v>
       </c>
       <c r="J13" t="n">
-        <v>55.31656422359764</v>
+        <v>59.23773642236303</v>
       </c>
       <c r="K13" t="n">
-        <v>90.90210759644822</v>
+        <v>97.34579805552261</v>
       </c>
       <c r="L13" t="n">
-        <v>116.3234012231858</v>
+        <v>124.569106525823</v>
       </c>
       <c r="M13" t="n">
-        <v>122.6467168455052</v>
+        <v>131.3406569539418</v>
       </c>
       <c r="N13" t="n">
-        <v>119.7304520478102</v>
+        <v>128.2176696923798</v>
       </c>
       <c r="O13" t="n">
-        <v>110.5904514013754</v>
+        <v>118.4297705921179</v>
       </c>
       <c r="P13" t="n">
-        <v>94.62923626472198</v>
+        <v>101.3371281166411</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.51637817456063</v>
+        <v>70.16057479572919</v>
       </c>
       <c r="R13" t="n">
-        <v>35.18011143756126</v>
+        <v>37.67389023338144</v>
       </c>
       <c r="S13" t="n">
-        <v>13.63531613946723</v>
+        <v>14.60186970832839</v>
       </c>
       <c r="T13" t="n">
-        <v>3.343035255894418</v>
+        <v>3.580009787644415</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0426770458199288</v>
+        <v>0.04570225260822664</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.744254469022213</v>
+        <v>1.867897761542258</v>
       </c>
       <c r="H14" t="n">
-        <v>17.86334608087374</v>
+        <v>19.12960795039465</v>
       </c>
       <c r="I14" t="n">
-        <v>67.24537041697891</v>
+        <v>72.01212845185798</v>
       </c>
       <c r="J14" t="n">
-        <v>148.0414177401742</v>
+        <v>158.5354876386974</v>
       </c>
       <c r="K14" t="n">
-        <v>221.8757094138844</v>
+        <v>237.6035998847812</v>
       </c>
       <c r="L14" t="n">
-        <v>275.256437120223</v>
+        <v>294.7682760045801</v>
       </c>
       <c r="M14" t="n">
-        <v>306.2758225336968</v>
+        <v>327.9865028214073</v>
       </c>
       <c r="N14" t="n">
-        <v>311.2316855438062</v>
+        <v>333.2936673363892</v>
       </c>
       <c r="O14" t="n">
-        <v>293.8872551674665</v>
+        <v>314.7197589700534</v>
       </c>
       <c r="P14" t="n">
-        <v>250.8259729634806</v>
+        <v>268.6060329819788</v>
       </c>
       <c r="Q14" t="n">
-        <v>188.3598597916226</v>
+        <v>201.7119443967466</v>
       </c>
       <c r="R14" t="n">
-        <v>109.5675247897167</v>
+        <v>117.334332763479</v>
       </c>
       <c r="S14" t="n">
-        <v>39.7471987128437</v>
+        <v>42.56472024114425</v>
       </c>
       <c r="T14" t="n">
-        <v>7.635473938144739</v>
+        <v>8.176722451151239</v>
       </c>
       <c r="U14" t="n">
-        <v>0.139540357521777</v>
+        <v>0.1494318209233806</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9332584170810836</v>
+        <v>0.9994134108100873</v>
       </c>
       <c r="H15" t="n">
-        <v>9.013311554440993</v>
+        <v>9.65222952019216</v>
       </c>
       <c r="I15" t="n">
-        <v>32.13192357055485</v>
+        <v>34.4096283985052</v>
       </c>
       <c r="J15" t="n">
-        <v>88.17245422080536</v>
+        <v>94.42265036078987</v>
       </c>
       <c r="K15" t="n">
-        <v>150.700768165238</v>
+        <v>161.3833488850657</v>
       </c>
       <c r="L15" t="n">
         <v>202.635780428066</v>
@@ -32095,22 +32095,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P15" t="n">
-        <v>178.2114252757729</v>
+        <v>190.8441275431999</v>
       </c>
       <c r="Q15" t="n">
-        <v>119.1296182926661</v>
+        <v>127.5742452114771</v>
       </c>
       <c r="R15" t="n">
-        <v>57.94388663245537</v>
+        <v>62.05129931327895</v>
       </c>
       <c r="S15" t="n">
-        <v>17.33486577341397</v>
+        <v>18.56366576658209</v>
       </c>
       <c r="T15" t="n">
-        <v>3.761686339024191</v>
+        <v>4.028337388309078</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06139858007112394</v>
+        <v>0.06575088229013734</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7824125066986938</v>
+        <v>0.8378746311508208</v>
       </c>
       <c r="H16" t="n">
-        <v>6.956358468648392</v>
+        <v>7.449467175140939</v>
       </c>
       <c r="I16" t="n">
-        <v>23.52927792872073</v>
+        <v>25.1971752713356</v>
       </c>
       <c r="J16" t="n">
-        <v>55.31656422359764</v>
+        <v>59.23773642236303</v>
       </c>
       <c r="K16" t="n">
-        <v>90.90210759644822</v>
+        <v>97.34579805552261</v>
       </c>
       <c r="L16" t="n">
-        <v>116.3234012231858</v>
+        <v>124.569106525823</v>
       </c>
       <c r="M16" t="n">
-        <v>122.6467168455052</v>
+        <v>131.3406569539418</v>
       </c>
       <c r="N16" t="n">
-        <v>119.7304520478102</v>
+        <v>128.2176696923798</v>
       </c>
       <c r="O16" t="n">
-        <v>110.5904514013754</v>
+        <v>118.4297705921179</v>
       </c>
       <c r="P16" t="n">
-        <v>94.62923626472198</v>
+        <v>101.3371281166411</v>
       </c>
       <c r="Q16" t="n">
-        <v>65.51637817456063</v>
+        <v>70.16057479572919</v>
       </c>
       <c r="R16" t="n">
-        <v>35.18011143756126</v>
+        <v>37.67389023338144</v>
       </c>
       <c r="S16" t="n">
-        <v>13.63531613946723</v>
+        <v>14.60186970832839</v>
       </c>
       <c r="T16" t="n">
-        <v>3.343035255894418</v>
+        <v>3.580009787644415</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0426770458199288</v>
+        <v>0.04570225260822664</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.744254469022213</v>
+        <v>1.867897761542258</v>
       </c>
       <c r="H17" t="n">
-        <v>17.86334608087374</v>
+        <v>19.12960795039465</v>
       </c>
       <c r="I17" t="n">
-        <v>67.24537041697891</v>
+        <v>72.01212845185798</v>
       </c>
       <c r="J17" t="n">
-        <v>148.0414177401742</v>
+        <v>158.5354876386974</v>
       </c>
       <c r="K17" t="n">
-        <v>221.8757094138845</v>
+        <v>237.6035998847812</v>
       </c>
       <c r="L17" t="n">
-        <v>275.256437120223</v>
+        <v>294.7682760045801</v>
       </c>
       <c r="M17" t="n">
-        <v>306.2758225336968</v>
+        <v>327.9865028214073</v>
       </c>
       <c r="N17" t="n">
-        <v>311.2316855438062</v>
+        <v>333.2936673363892</v>
       </c>
       <c r="O17" t="n">
-        <v>293.8872551674665</v>
+        <v>314.7197589700534</v>
       </c>
       <c r="P17" t="n">
-        <v>250.8259729634806</v>
+        <v>268.6060329819788</v>
       </c>
       <c r="Q17" t="n">
-        <v>188.3598597916226</v>
+        <v>201.7119443967466</v>
       </c>
       <c r="R17" t="n">
-        <v>109.5675247897167</v>
+        <v>117.334332763479</v>
       </c>
       <c r="S17" t="n">
-        <v>39.74719871284371</v>
+        <v>42.56472024114425</v>
       </c>
       <c r="T17" t="n">
-        <v>7.635473938144739</v>
+        <v>8.176722451151239</v>
       </c>
       <c r="U17" t="n">
-        <v>0.139540357521777</v>
+        <v>0.1494318209233806</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9332584170810836</v>
+        <v>0.9994134108100873</v>
       </c>
       <c r="H18" t="n">
-        <v>9.013311554440994</v>
+        <v>9.65222952019216</v>
       </c>
       <c r="I18" t="n">
-        <v>32.13192357055485</v>
+        <v>34.4096283985052</v>
       </c>
       <c r="J18" t="n">
-        <v>88.17245422080536</v>
+        <v>94.42265036078987</v>
       </c>
       <c r="K18" t="n">
-        <v>150.700768165238</v>
+        <v>161.3833488850657</v>
       </c>
       <c r="L18" t="n">
         <v>202.635780428066</v>
@@ -32332,22 +32332,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P18" t="n">
-        <v>178.2114252757729</v>
+        <v>190.8441275431999</v>
       </c>
       <c r="Q18" t="n">
-        <v>119.1296182926661</v>
+        <v>127.5742452114771</v>
       </c>
       <c r="R18" t="n">
-        <v>57.94388663245537</v>
+        <v>62.05129931327895</v>
       </c>
       <c r="S18" t="n">
-        <v>17.33486577341398</v>
+        <v>18.56366576658209</v>
       </c>
       <c r="T18" t="n">
-        <v>3.761686339024191</v>
+        <v>4.028337388309078</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06139858007112395</v>
+        <v>0.06575088229013734</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7824125066986938</v>
+        <v>0.8378746311508208</v>
       </c>
       <c r="H19" t="n">
-        <v>6.956358468648392</v>
+        <v>7.449467175140939</v>
       </c>
       <c r="I19" t="n">
-        <v>23.52927792872073</v>
+        <v>25.1971752713356</v>
       </c>
       <c r="J19" t="n">
-        <v>55.31656422359765</v>
+        <v>59.23773642236303</v>
       </c>
       <c r="K19" t="n">
-        <v>90.90210759644822</v>
+        <v>97.34579805552261</v>
       </c>
       <c r="L19" t="n">
-        <v>116.3234012231858</v>
+        <v>124.569106525823</v>
       </c>
       <c r="M19" t="n">
-        <v>122.6467168455052</v>
+        <v>131.3406569539418</v>
       </c>
       <c r="N19" t="n">
-        <v>119.7304520478102</v>
+        <v>128.2176696923798</v>
       </c>
       <c r="O19" t="n">
-        <v>110.5904514013754</v>
+        <v>118.4297705921179</v>
       </c>
       <c r="P19" t="n">
-        <v>94.62923626472198</v>
+        <v>101.3371281166411</v>
       </c>
       <c r="Q19" t="n">
-        <v>65.51637817456063</v>
+        <v>70.16057479572919</v>
       </c>
       <c r="R19" t="n">
-        <v>35.18011143756126</v>
+        <v>37.67389023338144</v>
       </c>
       <c r="S19" t="n">
-        <v>13.63531613946723</v>
+        <v>14.60186970832839</v>
       </c>
       <c r="T19" t="n">
-        <v>3.343035255894418</v>
+        <v>3.580009787644415</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0426770458199288</v>
+        <v>0.04570225260822664</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.744254469022213</v>
+        <v>1.867897761542258</v>
       </c>
       <c r="H20" t="n">
-        <v>17.86334608087374</v>
+        <v>19.12960795039465</v>
       </c>
       <c r="I20" t="n">
-        <v>67.24537041697891</v>
+        <v>72.01212845185798</v>
       </c>
       <c r="J20" t="n">
-        <v>148.0414177401742</v>
+        <v>158.5354876386974</v>
       </c>
       <c r="K20" t="n">
-        <v>221.8757094138844</v>
+        <v>237.6035998847812</v>
       </c>
       <c r="L20" t="n">
-        <v>275.256437120223</v>
+        <v>294.7682760045801</v>
       </c>
       <c r="M20" t="n">
-        <v>306.2758225336968</v>
+        <v>327.9865028214073</v>
       </c>
       <c r="N20" t="n">
-        <v>311.2316855438062</v>
+        <v>333.2936673363892</v>
       </c>
       <c r="O20" t="n">
-        <v>293.8872551674665</v>
+        <v>314.7197589700534</v>
       </c>
       <c r="P20" t="n">
-        <v>250.8259729634806</v>
+        <v>268.6060329819788</v>
       </c>
       <c r="Q20" t="n">
-        <v>188.3598597916226</v>
+        <v>201.7119443967466</v>
       </c>
       <c r="R20" t="n">
-        <v>109.5675247897167</v>
+        <v>117.334332763479</v>
       </c>
       <c r="S20" t="n">
-        <v>39.7471987128437</v>
+        <v>42.56472024114425</v>
       </c>
       <c r="T20" t="n">
-        <v>7.635473938144739</v>
+        <v>8.176722451151239</v>
       </c>
       <c r="U20" t="n">
-        <v>0.139540357521777</v>
+        <v>0.1494318209233806</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9332584170810836</v>
+        <v>0.9994134108100873</v>
       </c>
       <c r="H21" t="n">
-        <v>9.013311554440993</v>
+        <v>9.65222952019216</v>
       </c>
       <c r="I21" t="n">
-        <v>32.13192357055485</v>
+        <v>34.4096283985052</v>
       </c>
       <c r="J21" t="n">
-        <v>88.17245422080536</v>
+        <v>94.42265036078987</v>
       </c>
       <c r="K21" t="n">
-        <v>150.700768165238</v>
+        <v>161.3833488850657</v>
       </c>
       <c r="L21" t="n">
         <v>202.635780428066</v>
@@ -32569,22 +32569,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P21" t="n">
-        <v>178.2114252757729</v>
+        <v>190.8441275431999</v>
       </c>
       <c r="Q21" t="n">
-        <v>119.1296182926661</v>
+        <v>127.5742452114771</v>
       </c>
       <c r="R21" t="n">
-        <v>57.94388663245537</v>
+        <v>62.05129931327895</v>
       </c>
       <c r="S21" t="n">
-        <v>17.33486577341397</v>
+        <v>18.56366576658209</v>
       </c>
       <c r="T21" t="n">
-        <v>3.761686339024191</v>
+        <v>4.028337388309078</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06139858007112394</v>
+        <v>0.06575088229013734</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7824125066986938</v>
+        <v>0.8378746311508208</v>
       </c>
       <c r="H22" t="n">
-        <v>6.956358468648392</v>
+        <v>7.449467175140939</v>
       </c>
       <c r="I22" t="n">
-        <v>23.52927792872073</v>
+        <v>25.1971752713356</v>
       </c>
       <c r="J22" t="n">
-        <v>55.31656422359764</v>
+        <v>59.23773642236303</v>
       </c>
       <c r="K22" t="n">
-        <v>90.90210759644822</v>
+        <v>97.34579805552261</v>
       </c>
       <c r="L22" t="n">
-        <v>116.3234012231858</v>
+        <v>124.569106525823</v>
       </c>
       <c r="M22" t="n">
-        <v>122.6467168455052</v>
+        <v>131.3406569539418</v>
       </c>
       <c r="N22" t="n">
-        <v>119.7304520478102</v>
+        <v>128.2176696923798</v>
       </c>
       <c r="O22" t="n">
-        <v>110.5904514013754</v>
+        <v>118.4297705921179</v>
       </c>
       <c r="P22" t="n">
-        <v>94.62923626472198</v>
+        <v>101.3371281166411</v>
       </c>
       <c r="Q22" t="n">
-        <v>65.51637817456063</v>
+        <v>70.16057479572919</v>
       </c>
       <c r="R22" t="n">
-        <v>35.18011143756126</v>
+        <v>37.67389023338144</v>
       </c>
       <c r="S22" t="n">
-        <v>13.63531613946723</v>
+        <v>14.60186970832839</v>
       </c>
       <c r="T22" t="n">
-        <v>3.343035255894418</v>
+        <v>3.580009787644415</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0426770458199288</v>
+        <v>0.04570225260822664</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.744254469022213</v>
+        <v>1.867897761542258</v>
       </c>
       <c r="H23" t="n">
-        <v>17.86334608087374</v>
+        <v>19.12960795039465</v>
       </c>
       <c r="I23" t="n">
-        <v>67.24537041697891</v>
+        <v>72.01212845185798</v>
       </c>
       <c r="J23" t="n">
-        <v>148.0414177401742</v>
+        <v>158.5354876386974</v>
       </c>
       <c r="K23" t="n">
-        <v>221.8757094138844</v>
+        <v>237.6035998847812</v>
       </c>
       <c r="L23" t="n">
-        <v>275.256437120223</v>
+        <v>294.7682760045801</v>
       </c>
       <c r="M23" t="n">
-        <v>306.2758225336968</v>
+        <v>327.9865028214073</v>
       </c>
       <c r="N23" t="n">
-        <v>311.2316855438062</v>
+        <v>333.2936673363892</v>
       </c>
       <c r="O23" t="n">
-        <v>293.8872551674665</v>
+        <v>314.7197589700534</v>
       </c>
       <c r="P23" t="n">
-        <v>250.8259729634806</v>
+        <v>268.6060329819788</v>
       </c>
       <c r="Q23" t="n">
-        <v>188.3598597916226</v>
+        <v>201.7119443967466</v>
       </c>
       <c r="R23" t="n">
-        <v>109.5675247897167</v>
+        <v>117.334332763479</v>
       </c>
       <c r="S23" t="n">
-        <v>39.7471987128437</v>
+        <v>42.56472024114425</v>
       </c>
       <c r="T23" t="n">
-        <v>7.635473938144739</v>
+        <v>8.176722451151239</v>
       </c>
       <c r="U23" t="n">
-        <v>0.139540357521777</v>
+        <v>0.1494318209233806</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9332584170810836</v>
+        <v>0.9994134108100873</v>
       </c>
       <c r="H24" t="n">
-        <v>9.013311554440993</v>
+        <v>9.65222952019216</v>
       </c>
       <c r="I24" t="n">
-        <v>32.13192357055485</v>
+        <v>34.4096283985052</v>
       </c>
       <c r="J24" t="n">
-        <v>88.17245422080536</v>
+        <v>94.42265036078987</v>
       </c>
       <c r="K24" t="n">
-        <v>150.700768165238</v>
+        <v>161.3833488850657</v>
       </c>
       <c r="L24" t="n">
         <v>202.635780428066</v>
@@ -32806,22 +32806,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P24" t="n">
-        <v>178.2114252757729</v>
+        <v>190.8441275431999</v>
       </c>
       <c r="Q24" t="n">
-        <v>119.1296182926661</v>
+        <v>127.5742452114771</v>
       </c>
       <c r="R24" t="n">
-        <v>57.94388663245537</v>
+        <v>62.05129931327895</v>
       </c>
       <c r="S24" t="n">
-        <v>17.33486577341397</v>
+        <v>18.56366576658209</v>
       </c>
       <c r="T24" t="n">
-        <v>3.761686339024191</v>
+        <v>4.028337388309078</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06139858007112394</v>
+        <v>0.06575088229013734</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7824125066986938</v>
+        <v>0.8378746311508208</v>
       </c>
       <c r="H25" t="n">
-        <v>6.956358468648392</v>
+        <v>7.449467175140939</v>
       </c>
       <c r="I25" t="n">
-        <v>23.52927792872073</v>
+        <v>25.1971752713356</v>
       </c>
       <c r="J25" t="n">
-        <v>55.31656422359764</v>
+        <v>59.23773642236303</v>
       </c>
       <c r="K25" t="n">
-        <v>90.90210759644822</v>
+        <v>97.34579805552261</v>
       </c>
       <c r="L25" t="n">
-        <v>116.3234012231858</v>
+        <v>124.569106525823</v>
       </c>
       <c r="M25" t="n">
-        <v>122.6467168455052</v>
+        <v>131.3406569539418</v>
       </c>
       <c r="N25" t="n">
-        <v>119.7304520478102</v>
+        <v>128.2176696923798</v>
       </c>
       <c r="O25" t="n">
-        <v>110.5904514013754</v>
+        <v>118.4297705921179</v>
       </c>
       <c r="P25" t="n">
-        <v>94.62923626472198</v>
+        <v>101.3371281166411</v>
       </c>
       <c r="Q25" t="n">
-        <v>65.51637817456063</v>
+        <v>70.16057479572919</v>
       </c>
       <c r="R25" t="n">
-        <v>35.18011143756126</v>
+        <v>37.67389023338144</v>
       </c>
       <c r="S25" t="n">
-        <v>13.63531613946723</v>
+        <v>14.60186970832839</v>
       </c>
       <c r="T25" t="n">
-        <v>3.343035255894418</v>
+        <v>3.580009787644415</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0426770458199288</v>
+        <v>0.04570225260822664</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.744254469022213</v>
+        <v>1.867897761542258</v>
       </c>
       <c r="H26" t="n">
-        <v>17.86334608087374</v>
+        <v>19.12960795039466</v>
       </c>
       <c r="I26" t="n">
-        <v>67.24537041697891</v>
+        <v>72.01212845185798</v>
       </c>
       <c r="J26" t="n">
-        <v>148.0414177401742</v>
+        <v>158.5354876386974</v>
       </c>
       <c r="K26" t="n">
-        <v>221.8757094138844</v>
+        <v>237.6035998847812</v>
       </c>
       <c r="L26" t="n">
-        <v>275.256437120223</v>
+        <v>294.7682760045802</v>
       </c>
       <c r="M26" t="n">
-        <v>306.2758225336968</v>
+        <v>327.9865028214073</v>
       </c>
       <c r="N26" t="n">
-        <v>311.2316855438062</v>
+        <v>333.2936673363893</v>
       </c>
       <c r="O26" t="n">
-        <v>293.8872551674665</v>
+        <v>314.7197589700534</v>
       </c>
       <c r="P26" t="n">
-        <v>250.8259729634806</v>
+        <v>268.6060329819789</v>
       </c>
       <c r="Q26" t="n">
-        <v>188.3598597916226</v>
+        <v>201.7119443967467</v>
       </c>
       <c r="R26" t="n">
-        <v>109.5675247897167</v>
+        <v>117.334332763479</v>
       </c>
       <c r="S26" t="n">
-        <v>39.7471987128437</v>
+        <v>42.56472024114425</v>
       </c>
       <c r="T26" t="n">
-        <v>7.635473938144739</v>
+        <v>8.176722451151239</v>
       </c>
       <c r="U26" t="n">
-        <v>0.139540357521777</v>
+        <v>0.1494318209233806</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9332584170810836</v>
+        <v>0.9994134108100874</v>
       </c>
       <c r="H27" t="n">
-        <v>9.013311554440993</v>
+        <v>9.652229520192162</v>
       </c>
       <c r="I27" t="n">
-        <v>32.13192357055485</v>
+        <v>34.40962839850521</v>
       </c>
       <c r="J27" t="n">
-        <v>88.17245422080536</v>
+        <v>94.42265036078989</v>
       </c>
       <c r="K27" t="n">
-        <v>150.700768165238</v>
+        <v>161.3833488850657</v>
       </c>
       <c r="L27" t="n">
         <v>202.635780428066</v>
@@ -33043,22 +33043,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P27" t="n">
-        <v>178.2114252757729</v>
+        <v>190.8441275431999</v>
       </c>
       <c r="Q27" t="n">
-        <v>119.1296182926661</v>
+        <v>127.5742452114771</v>
       </c>
       <c r="R27" t="n">
-        <v>57.94388663245537</v>
+        <v>62.05129931327896</v>
       </c>
       <c r="S27" t="n">
-        <v>17.33486577341397</v>
+        <v>18.56366576658209</v>
       </c>
       <c r="T27" t="n">
-        <v>3.761686339024191</v>
+        <v>4.028337388309079</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06139858007112394</v>
+        <v>0.06575088229013736</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7824125066986938</v>
+        <v>0.8378746311508208</v>
       </c>
       <c r="H28" t="n">
-        <v>6.956358468648392</v>
+        <v>7.44946717514094</v>
       </c>
       <c r="I28" t="n">
-        <v>23.52927792872073</v>
+        <v>25.1971752713356</v>
       </c>
       <c r="J28" t="n">
-        <v>55.31656422359764</v>
+        <v>59.23773642236304</v>
       </c>
       <c r="K28" t="n">
-        <v>90.90210759644822</v>
+        <v>97.34579805552262</v>
       </c>
       <c r="L28" t="n">
-        <v>116.3234012231858</v>
+        <v>124.569106525823</v>
       </c>
       <c r="M28" t="n">
-        <v>122.6467168455052</v>
+        <v>131.3406569539418</v>
       </c>
       <c r="N28" t="n">
-        <v>119.7304520478102</v>
+        <v>128.2176696923798</v>
       </c>
       <c r="O28" t="n">
-        <v>110.5904514013754</v>
+        <v>118.4297705921179</v>
       </c>
       <c r="P28" t="n">
-        <v>94.62923626472198</v>
+        <v>101.3371281166411</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.51637817456063</v>
+        <v>70.1605747957292</v>
       </c>
       <c r="R28" t="n">
-        <v>35.18011143756126</v>
+        <v>37.67389023338145</v>
       </c>
       <c r="S28" t="n">
-        <v>13.63531613946723</v>
+        <v>14.60186970832839</v>
       </c>
       <c r="T28" t="n">
-        <v>3.343035255894418</v>
+        <v>3.580009787644415</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0426770458199288</v>
+        <v>0.04570225260822665</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.744254469022213</v>
+        <v>1.867897761542258</v>
       </c>
       <c r="H29" t="n">
-        <v>17.86334608087374</v>
+        <v>19.12960795039466</v>
       </c>
       <c r="I29" t="n">
-        <v>67.24537041697891</v>
+        <v>72.01212845185798</v>
       </c>
       <c r="J29" t="n">
-        <v>148.0414177401742</v>
+        <v>158.5354876386974</v>
       </c>
       <c r="K29" t="n">
-        <v>221.8757094138845</v>
+        <v>237.6035998847812</v>
       </c>
       <c r="L29" t="n">
-        <v>275.256437120223</v>
+        <v>294.7682760045802</v>
       </c>
       <c r="M29" t="n">
-        <v>306.2758225336968</v>
+        <v>327.9865028214073</v>
       </c>
       <c r="N29" t="n">
-        <v>311.2316855438062</v>
+        <v>333.2936673363893</v>
       </c>
       <c r="O29" t="n">
-        <v>293.8872551674665</v>
+        <v>314.7197589700534</v>
       </c>
       <c r="P29" t="n">
-        <v>250.8259729634806</v>
+        <v>268.6060329819789</v>
       </c>
       <c r="Q29" t="n">
-        <v>188.3598597916226</v>
+        <v>201.7119443967467</v>
       </c>
       <c r="R29" t="n">
-        <v>109.5675247897167</v>
+        <v>117.334332763479</v>
       </c>
       <c r="S29" t="n">
-        <v>39.74719871284371</v>
+        <v>42.56472024114425</v>
       </c>
       <c r="T29" t="n">
-        <v>7.635473938144739</v>
+        <v>8.176722451151239</v>
       </c>
       <c r="U29" t="n">
-        <v>0.139540357521777</v>
+        <v>0.1494318209233806</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9332584170810836</v>
+        <v>0.9994134108100874</v>
       </c>
       <c r="H30" t="n">
-        <v>9.013311554440994</v>
+        <v>9.652229520192162</v>
       </c>
       <c r="I30" t="n">
-        <v>32.13192357055485</v>
+        <v>34.40962839850521</v>
       </c>
       <c r="J30" t="n">
-        <v>88.17245422080536</v>
+        <v>94.42265036078989</v>
       </c>
       <c r="K30" t="n">
-        <v>150.700768165238</v>
+        <v>161.3833488850657</v>
       </c>
       <c r="L30" t="n">
         <v>202.635780428066</v>
@@ -33280,22 +33280,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P30" t="n">
-        <v>178.2114252757729</v>
+        <v>190.8441275431999</v>
       </c>
       <c r="Q30" t="n">
-        <v>119.1296182926661</v>
+        <v>127.5742452114771</v>
       </c>
       <c r="R30" t="n">
-        <v>57.94388663245537</v>
+        <v>62.05129931327896</v>
       </c>
       <c r="S30" t="n">
-        <v>17.33486577341398</v>
+        <v>18.56366576658209</v>
       </c>
       <c r="T30" t="n">
-        <v>3.761686339024191</v>
+        <v>4.028337388309079</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06139858007112395</v>
+        <v>0.06575088229013736</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7824125066986938</v>
+        <v>0.8378746311508208</v>
       </c>
       <c r="H31" t="n">
-        <v>6.956358468648392</v>
+        <v>7.44946717514094</v>
       </c>
       <c r="I31" t="n">
-        <v>23.52927792872073</v>
+        <v>25.1971752713356</v>
       </c>
       <c r="J31" t="n">
-        <v>55.31656422359765</v>
+        <v>59.23773642236304</v>
       </c>
       <c r="K31" t="n">
-        <v>90.90210759644822</v>
+        <v>97.34579805552262</v>
       </c>
       <c r="L31" t="n">
-        <v>116.3234012231858</v>
+        <v>124.569106525823</v>
       </c>
       <c r="M31" t="n">
-        <v>122.6467168455052</v>
+        <v>131.3406569539418</v>
       </c>
       <c r="N31" t="n">
-        <v>119.7304520478102</v>
+        <v>128.2176696923798</v>
       </c>
       <c r="O31" t="n">
-        <v>110.5904514013754</v>
+        <v>118.4297705921179</v>
       </c>
       <c r="P31" t="n">
-        <v>94.62923626472198</v>
+        <v>101.3371281166411</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.51637817456063</v>
+        <v>70.1605747957292</v>
       </c>
       <c r="R31" t="n">
-        <v>35.18011143756126</v>
+        <v>37.67389023338145</v>
       </c>
       <c r="S31" t="n">
-        <v>13.63531613946723</v>
+        <v>14.60186970832839</v>
       </c>
       <c r="T31" t="n">
-        <v>3.343035255894418</v>
+        <v>3.580009787644415</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0426770458199288</v>
+        <v>0.04570225260822665</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.744254469022213</v>
+        <v>1.867897761542258</v>
       </c>
       <c r="H32" t="n">
-        <v>17.86334608087374</v>
+        <v>19.12960795039466</v>
       </c>
       <c r="I32" t="n">
-        <v>67.24537041697891</v>
+        <v>72.01212845185798</v>
       </c>
       <c r="J32" t="n">
-        <v>148.0414177401742</v>
+        <v>158.5354876386974</v>
       </c>
       <c r="K32" t="n">
-        <v>221.8757094138844</v>
+        <v>237.6035998847812</v>
       </c>
       <c r="L32" t="n">
-        <v>275.256437120223</v>
+        <v>294.7682760045802</v>
       </c>
       <c r="M32" t="n">
-        <v>306.2758225336968</v>
+        <v>327.9865028214073</v>
       </c>
       <c r="N32" t="n">
-        <v>311.2316855438062</v>
+        <v>333.2936673363893</v>
       </c>
       <c r="O32" t="n">
-        <v>293.8872551674665</v>
+        <v>314.7197589700534</v>
       </c>
       <c r="P32" t="n">
-        <v>250.8259729634806</v>
+        <v>268.6060329819789</v>
       </c>
       <c r="Q32" t="n">
-        <v>188.3598597916226</v>
+        <v>201.7119443967467</v>
       </c>
       <c r="R32" t="n">
-        <v>109.5675247897167</v>
+        <v>117.334332763479</v>
       </c>
       <c r="S32" t="n">
-        <v>39.7471987128437</v>
+        <v>42.56472024114425</v>
       </c>
       <c r="T32" t="n">
-        <v>7.635473938144739</v>
+        <v>8.176722451151239</v>
       </c>
       <c r="U32" t="n">
-        <v>0.139540357521777</v>
+        <v>0.1494318209233806</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9332584170810836</v>
+        <v>0.9994134108100874</v>
       </c>
       <c r="H33" t="n">
-        <v>9.013311554440993</v>
+        <v>9.652229520192162</v>
       </c>
       <c r="I33" t="n">
-        <v>32.13192357055485</v>
+        <v>34.40962839850521</v>
       </c>
       <c r="J33" t="n">
-        <v>88.17245422080536</v>
+        <v>94.42265036078989</v>
       </c>
       <c r="K33" t="n">
-        <v>150.700768165238</v>
+        <v>161.3833488850657</v>
       </c>
       <c r="L33" t="n">
         <v>202.635780428066</v>
@@ -33517,22 +33517,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P33" t="n">
-        <v>178.2114252757729</v>
+        <v>190.8441275431999</v>
       </c>
       <c r="Q33" t="n">
-        <v>119.1296182926661</v>
+        <v>127.5742452114771</v>
       </c>
       <c r="R33" t="n">
-        <v>57.94388663245537</v>
+        <v>62.05129931327896</v>
       </c>
       <c r="S33" t="n">
-        <v>17.33486577341397</v>
+        <v>18.56366576658209</v>
       </c>
       <c r="T33" t="n">
-        <v>3.761686339024191</v>
+        <v>4.028337388309079</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06139858007112394</v>
+        <v>0.06575088229013736</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7824125066986938</v>
+        <v>0.8378746311508208</v>
       </c>
       <c r="H34" t="n">
-        <v>6.956358468648392</v>
+        <v>7.44946717514094</v>
       </c>
       <c r="I34" t="n">
-        <v>23.52927792872073</v>
+        <v>25.1971752713356</v>
       </c>
       <c r="J34" t="n">
-        <v>55.31656422359764</v>
+        <v>59.23773642236304</v>
       </c>
       <c r="K34" t="n">
-        <v>90.90210759644822</v>
+        <v>97.34579805552262</v>
       </c>
       <c r="L34" t="n">
-        <v>116.3234012231858</v>
+        <v>124.569106525823</v>
       </c>
       <c r="M34" t="n">
-        <v>122.6467168455052</v>
+        <v>131.3406569539418</v>
       </c>
       <c r="N34" t="n">
-        <v>119.7304520478102</v>
+        <v>128.2176696923798</v>
       </c>
       <c r="O34" t="n">
-        <v>110.5904514013754</v>
+        <v>118.4297705921179</v>
       </c>
       <c r="P34" t="n">
-        <v>94.62923626472198</v>
+        <v>101.3371281166411</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.51637817456063</v>
+        <v>70.1605747957292</v>
       </c>
       <c r="R34" t="n">
-        <v>35.18011143756126</v>
+        <v>37.67389023338145</v>
       </c>
       <c r="S34" t="n">
-        <v>13.63531613946723</v>
+        <v>14.60186970832839</v>
       </c>
       <c r="T34" t="n">
-        <v>3.343035255894418</v>
+        <v>3.580009787644415</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0426770458199288</v>
+        <v>0.04570225260822665</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.744254469022213</v>
+        <v>1.867897761542258</v>
       </c>
       <c r="H35" t="n">
-        <v>17.86334608087374</v>
+        <v>19.12960795039466</v>
       </c>
       <c r="I35" t="n">
-        <v>67.24537041697891</v>
+        <v>72.01212845185798</v>
       </c>
       <c r="J35" t="n">
-        <v>148.0414177401742</v>
+        <v>158.5354876386974</v>
       </c>
       <c r="K35" t="n">
-        <v>221.8757094138844</v>
+        <v>237.6035998847812</v>
       </c>
       <c r="L35" t="n">
-        <v>275.256437120223</v>
+        <v>294.7682760045802</v>
       </c>
       <c r="M35" t="n">
-        <v>306.2758225336968</v>
+        <v>327.9865028214072</v>
       </c>
       <c r="N35" t="n">
-        <v>311.2316855438062</v>
+        <v>333.2936673363892</v>
       </c>
       <c r="O35" t="n">
-        <v>293.8872551674665</v>
+        <v>314.7197589700534</v>
       </c>
       <c r="P35" t="n">
-        <v>250.8259729634806</v>
+        <v>268.6060329819788</v>
       </c>
       <c r="Q35" t="n">
-        <v>188.3598597916226</v>
+        <v>201.7119443967467</v>
       </c>
       <c r="R35" t="n">
-        <v>109.5675247897167</v>
+        <v>117.334332763479</v>
       </c>
       <c r="S35" t="n">
-        <v>39.7471987128437</v>
+        <v>42.56472024114425</v>
       </c>
       <c r="T35" t="n">
-        <v>7.635473938144739</v>
+        <v>8.176722451151239</v>
       </c>
       <c r="U35" t="n">
-        <v>0.139540357521777</v>
+        <v>0.1494318209233806</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9332584170810836</v>
+        <v>0.9994134108100873</v>
       </c>
       <c r="H36" t="n">
-        <v>9.013311554440993</v>
+        <v>9.65222952019216</v>
       </c>
       <c r="I36" t="n">
-        <v>32.13192357055485</v>
+        <v>34.4096283985052</v>
       </c>
       <c r="J36" t="n">
-        <v>88.17245422080536</v>
+        <v>94.42265036078989</v>
       </c>
       <c r="K36" t="n">
-        <v>150.700768165238</v>
+        <v>161.3833488850657</v>
       </c>
       <c r="L36" t="n">
         <v>202.635780428066</v>
@@ -33754,22 +33754,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P36" t="n">
-        <v>178.2114252757729</v>
+        <v>190.8441275431999</v>
       </c>
       <c r="Q36" t="n">
-        <v>119.1296182926661</v>
+        <v>127.5742452114771</v>
       </c>
       <c r="R36" t="n">
-        <v>57.94388663245537</v>
+        <v>62.05129931327895</v>
       </c>
       <c r="S36" t="n">
-        <v>17.33486577341397</v>
+        <v>18.56366576658209</v>
       </c>
       <c r="T36" t="n">
-        <v>3.761686339024191</v>
+        <v>4.028337388309078</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06139858007112394</v>
+        <v>0.06575088229013736</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7824125066986938</v>
+        <v>0.8378746311508207</v>
       </c>
       <c r="H37" t="n">
-        <v>6.956358468648392</v>
+        <v>7.44946717514094</v>
       </c>
       <c r="I37" t="n">
-        <v>23.52927792872073</v>
+        <v>25.1971752713356</v>
       </c>
       <c r="J37" t="n">
-        <v>55.31656422359764</v>
+        <v>59.23773642236303</v>
       </c>
       <c r="K37" t="n">
-        <v>90.90210759644822</v>
+        <v>97.34579805552262</v>
       </c>
       <c r="L37" t="n">
-        <v>116.3234012231858</v>
+        <v>124.569106525823</v>
       </c>
       <c r="M37" t="n">
-        <v>122.6467168455052</v>
+        <v>131.3406569539418</v>
       </c>
       <c r="N37" t="n">
-        <v>119.7304520478102</v>
+        <v>128.2176696923798</v>
       </c>
       <c r="O37" t="n">
-        <v>110.5904514013754</v>
+        <v>118.4297705921179</v>
       </c>
       <c r="P37" t="n">
-        <v>94.62923626472198</v>
+        <v>101.3371281166411</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.51637817456063</v>
+        <v>70.16057479572919</v>
       </c>
       <c r="R37" t="n">
-        <v>35.18011143756126</v>
+        <v>37.67389023338145</v>
       </c>
       <c r="S37" t="n">
-        <v>13.63531613946723</v>
+        <v>14.60186970832839</v>
       </c>
       <c r="T37" t="n">
-        <v>3.343035255894418</v>
+        <v>3.580009787644415</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0426770458199288</v>
+        <v>0.04570225260822665</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.744254469022213</v>
+        <v>1.867897761542258</v>
       </c>
       <c r="H38" t="n">
-        <v>17.86334608087374</v>
+        <v>19.12960795039466</v>
       </c>
       <c r="I38" t="n">
-        <v>67.24537041697891</v>
+        <v>72.01212845185798</v>
       </c>
       <c r="J38" t="n">
-        <v>148.0414177401742</v>
+        <v>158.5354876386974</v>
       </c>
       <c r="K38" t="n">
-        <v>221.8757094138844</v>
+        <v>237.6035998847812</v>
       </c>
       <c r="L38" t="n">
-        <v>275.256437120223</v>
+        <v>294.7682760045802</v>
       </c>
       <c r="M38" t="n">
-        <v>306.2758225336968</v>
+        <v>327.9865028214073</v>
       </c>
       <c r="N38" t="n">
-        <v>311.2316855438062</v>
+        <v>333.2936673363893</v>
       </c>
       <c r="O38" t="n">
-        <v>293.8872551674665</v>
+        <v>314.7197589700534</v>
       </c>
       <c r="P38" t="n">
-        <v>250.8259729634806</v>
+        <v>268.6060329819789</v>
       </c>
       <c r="Q38" t="n">
-        <v>188.3598597916226</v>
+        <v>201.7119443967467</v>
       </c>
       <c r="R38" t="n">
-        <v>109.5675247897167</v>
+        <v>117.334332763479</v>
       </c>
       <c r="S38" t="n">
-        <v>39.7471987128437</v>
+        <v>42.56472024114425</v>
       </c>
       <c r="T38" t="n">
-        <v>7.635473938144739</v>
+        <v>8.176722451151239</v>
       </c>
       <c r="U38" t="n">
-        <v>0.139540357521777</v>
+        <v>0.1494318209233806</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9332584170810836</v>
+        <v>0.9994134108100874</v>
       </c>
       <c r="H39" t="n">
-        <v>9.013311554440993</v>
+        <v>9.652229520192162</v>
       </c>
       <c r="I39" t="n">
-        <v>32.13192357055485</v>
+        <v>34.40962839850521</v>
       </c>
       <c r="J39" t="n">
-        <v>88.17245422080536</v>
+        <v>94.42265036078989</v>
       </c>
       <c r="K39" t="n">
-        <v>150.700768165238</v>
+        <v>161.3833488850657</v>
       </c>
       <c r="L39" t="n">
         <v>202.635780428066</v>
@@ -33991,22 +33991,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P39" t="n">
-        <v>178.2114252757729</v>
+        <v>190.8441275431999</v>
       </c>
       <c r="Q39" t="n">
-        <v>119.1296182926661</v>
+        <v>127.5742452114771</v>
       </c>
       <c r="R39" t="n">
-        <v>57.94388663245537</v>
+        <v>62.05129931327896</v>
       </c>
       <c r="S39" t="n">
-        <v>17.33486577341397</v>
+        <v>18.56366576658209</v>
       </c>
       <c r="T39" t="n">
-        <v>3.761686339024191</v>
+        <v>4.028337388309079</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06139858007112394</v>
+        <v>0.06575088229013736</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7824125066986938</v>
+        <v>0.8378746311508208</v>
       </c>
       <c r="H40" t="n">
-        <v>6.956358468648392</v>
+        <v>7.44946717514094</v>
       </c>
       <c r="I40" t="n">
-        <v>23.52927792872073</v>
+        <v>25.1971752713356</v>
       </c>
       <c r="J40" t="n">
-        <v>55.31656422359764</v>
+        <v>59.23773642236304</v>
       </c>
       <c r="K40" t="n">
-        <v>90.90210759644822</v>
+        <v>97.34579805552262</v>
       </c>
       <c r="L40" t="n">
-        <v>116.3234012231858</v>
+        <v>124.569106525823</v>
       </c>
       <c r="M40" t="n">
-        <v>122.6467168455052</v>
+        <v>131.3406569539418</v>
       </c>
       <c r="N40" t="n">
-        <v>119.7304520478102</v>
+        <v>128.2176696923798</v>
       </c>
       <c r="O40" t="n">
-        <v>110.5904514013754</v>
+        <v>118.4297705921179</v>
       </c>
       <c r="P40" t="n">
-        <v>94.62923626472198</v>
+        <v>101.3371281166411</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.51637817456063</v>
+        <v>70.1605747957292</v>
       </c>
       <c r="R40" t="n">
-        <v>35.18011143756126</v>
+        <v>37.67389023338145</v>
       </c>
       <c r="S40" t="n">
-        <v>13.63531613946723</v>
+        <v>14.60186970832839</v>
       </c>
       <c r="T40" t="n">
-        <v>3.343035255894418</v>
+        <v>3.580009787644415</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0426770458199288</v>
+        <v>0.04570225260822665</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.744254469022213</v>
+        <v>1.867897761542258</v>
       </c>
       <c r="H41" t="n">
-        <v>17.86334608087374</v>
+        <v>19.12960795039466</v>
       </c>
       <c r="I41" t="n">
-        <v>67.24537041697891</v>
+        <v>72.01212845185798</v>
       </c>
       <c r="J41" t="n">
-        <v>148.0414177401742</v>
+        <v>158.5354876386974</v>
       </c>
       <c r="K41" t="n">
-        <v>221.8757094138844</v>
+        <v>237.6035998847812</v>
       </c>
       <c r="L41" t="n">
-        <v>275.256437120223</v>
+        <v>294.7682760045802</v>
       </c>
       <c r="M41" t="n">
-        <v>306.2758225336968</v>
+        <v>327.9865028214073</v>
       </c>
       <c r="N41" t="n">
-        <v>311.2316855438062</v>
+        <v>333.2936673363893</v>
       </c>
       <c r="O41" t="n">
-        <v>293.8872551674665</v>
+        <v>314.7197589700534</v>
       </c>
       <c r="P41" t="n">
-        <v>250.8259729634806</v>
+        <v>268.6060329819789</v>
       </c>
       <c r="Q41" t="n">
-        <v>188.3598597916226</v>
+        <v>201.7119443967467</v>
       </c>
       <c r="R41" t="n">
-        <v>109.5675247897167</v>
+        <v>117.334332763479</v>
       </c>
       <c r="S41" t="n">
-        <v>39.7471987128437</v>
+        <v>42.56472024114425</v>
       </c>
       <c r="T41" t="n">
-        <v>7.635473938144739</v>
+        <v>8.176722451151239</v>
       </c>
       <c r="U41" t="n">
-        <v>0.139540357521777</v>
+        <v>0.1494318209233806</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9332584170810836</v>
+        <v>0.9994134108100874</v>
       </c>
       <c r="H42" t="n">
-        <v>9.013311554440993</v>
+        <v>9.652229520192162</v>
       </c>
       <c r="I42" t="n">
-        <v>32.13192357055485</v>
+        <v>34.40962839850521</v>
       </c>
       <c r="J42" t="n">
-        <v>88.17245422080536</v>
+        <v>94.42265036078989</v>
       </c>
       <c r="K42" t="n">
-        <v>150.700768165238</v>
+        <v>161.3833488850657</v>
       </c>
       <c r="L42" t="n">
         <v>202.635780428066</v>
@@ -34228,22 +34228,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P42" t="n">
-        <v>178.2114252757729</v>
+        <v>190.8441275431999</v>
       </c>
       <c r="Q42" t="n">
-        <v>119.1296182926661</v>
+        <v>127.5742452114771</v>
       </c>
       <c r="R42" t="n">
-        <v>57.94388663245537</v>
+        <v>62.05129931327896</v>
       </c>
       <c r="S42" t="n">
-        <v>17.33486577341397</v>
+        <v>18.56366576658209</v>
       </c>
       <c r="T42" t="n">
-        <v>3.761686339024191</v>
+        <v>4.028337388309079</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06139858007112394</v>
+        <v>0.06575088229013736</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7824125066986938</v>
+        <v>0.8378746311508208</v>
       </c>
       <c r="H43" t="n">
-        <v>6.956358468648392</v>
+        <v>7.44946717514094</v>
       </c>
       <c r="I43" t="n">
-        <v>23.52927792872073</v>
+        <v>25.1971752713356</v>
       </c>
       <c r="J43" t="n">
-        <v>55.31656422359764</v>
+        <v>59.23773642236304</v>
       </c>
       <c r="K43" t="n">
-        <v>90.90210759644822</v>
+        <v>97.34579805552262</v>
       </c>
       <c r="L43" t="n">
-        <v>116.3234012231858</v>
+        <v>124.569106525823</v>
       </c>
       <c r="M43" t="n">
-        <v>122.6467168455052</v>
+        <v>131.3406569539418</v>
       </c>
       <c r="N43" t="n">
-        <v>119.7304520478102</v>
+        <v>128.2176696923798</v>
       </c>
       <c r="O43" t="n">
-        <v>110.5904514013754</v>
+        <v>118.4297705921179</v>
       </c>
       <c r="P43" t="n">
-        <v>94.62923626472198</v>
+        <v>101.3371281166411</v>
       </c>
       <c r="Q43" t="n">
-        <v>65.51637817456063</v>
+        <v>70.1605747957292</v>
       </c>
       <c r="R43" t="n">
-        <v>35.18011143756126</v>
+        <v>37.67389023338145</v>
       </c>
       <c r="S43" t="n">
-        <v>13.63531613946723</v>
+        <v>14.60186970832839</v>
       </c>
       <c r="T43" t="n">
-        <v>3.343035255894418</v>
+        <v>3.580009787644415</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0426770458199288</v>
+        <v>0.04570225260822665</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.88035590775231</v>
+        <v>1.867897761542258</v>
       </c>
       <c r="H44" t="n">
-        <v>19.25719494026835</v>
+        <v>19.12960795039466</v>
       </c>
       <c r="I44" t="n">
-        <v>72.49242113362098</v>
+        <v>72.01212845185798</v>
       </c>
       <c r="J44" t="n">
-        <v>159.5928572255927</v>
+        <v>158.5354876386974</v>
       </c>
       <c r="K44" t="n">
-        <v>239.188322800748</v>
+        <v>237.6035998847812</v>
       </c>
       <c r="L44" t="n">
-        <v>296.7342649126228</v>
+        <v>294.7682760045802</v>
       </c>
       <c r="M44" t="n">
-        <v>330.174044287113</v>
+        <v>327.9865028214073</v>
       </c>
       <c r="N44" t="n">
-        <v>335.5166055100142</v>
+        <v>333.2936673363893</v>
       </c>
       <c r="O44" t="n">
-        <v>316.8188164523022</v>
+        <v>314.7197589700534</v>
       </c>
       <c r="P44" t="n">
-        <v>270.397529979667</v>
+        <v>268.6060329819789</v>
       </c>
       <c r="Q44" t="n">
-        <v>203.0572840332873</v>
+        <v>201.7119443967467</v>
       </c>
       <c r="R44" t="n">
-        <v>118.1169067903461</v>
+        <v>117.334332763479</v>
       </c>
       <c r="S44" t="n">
-        <v>42.8486102479058</v>
+        <v>42.56472024114425</v>
       </c>
       <c r="T44" t="n">
-        <v>8.23125798618574</v>
+        <v>8.176722451151239</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1494318209233806</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.006079106680871</v>
+        <v>0.9994134108100874</v>
       </c>
       <c r="H45" t="n">
-        <v>9.716606109259992</v>
+        <v>9.652229520192162</v>
       </c>
       <c r="I45" t="n">
-        <v>34.63912713791596</v>
+        <v>34.40962839850521</v>
       </c>
       <c r="J45" t="n">
-        <v>95.05241244303791</v>
+        <v>94.42265036078989</v>
       </c>
       <c r="K45" t="n">
-        <v>162.4597125906563</v>
+        <v>161.3833488850657</v>
       </c>
       <c r="L45" t="n">
         <v>202.635780428066</v>
@@ -34465,22 +34465,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P45" t="n">
-        <v>192.1169830994376</v>
+        <v>190.8441275431999</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.425115442281</v>
+        <v>127.5742452114771</v>
       </c>
       <c r="R45" t="n">
-        <v>62.46515716743164</v>
+        <v>62.05129931327896</v>
       </c>
       <c r="S45" t="n">
-        <v>18.68747814383108</v>
+        <v>18.56366576658209</v>
       </c>
       <c r="T45" t="n">
-        <v>4.055204820349649</v>
+        <v>4.028337388309079</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06618941491321521</v>
+        <v>0.06575088229013736</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8378746311508208</v>
       </c>
       <c r="H46" t="n">
-        <v>7.499152202429724</v>
+        <v>7.44946717514094</v>
       </c>
       <c r="I46" t="n">
-        <v>25.36523055791157</v>
+        <v>25.1971752713356</v>
       </c>
       <c r="J46" t="n">
-        <v>59.632828914413</v>
+        <v>59.23773642236304</v>
       </c>
       <c r="K46" t="n">
-        <v>97.99505638757849</v>
+        <v>97.34579805552262</v>
       </c>
       <c r="L46" t="n">
-        <v>125.3999336590344</v>
+        <v>124.569106525823</v>
       </c>
       <c r="M46" t="n">
-        <v>132.2166476753534</v>
+        <v>131.3406569539418</v>
       </c>
       <c r="N46" t="n">
-        <v>129.0728313123717</v>
+        <v>128.2176696923798</v>
       </c>
       <c r="O46" t="n">
-        <v>119.2196507600995</v>
+        <v>118.4297705921179</v>
       </c>
       <c r="P46" t="n">
-        <v>102.013007056365</v>
+        <v>101.3371281166411</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.62851834006149</v>
+        <v>70.1605747957292</v>
       </c>
       <c r="R46" t="n">
-        <v>37.92516032026317</v>
+        <v>37.67389023338145</v>
       </c>
       <c r="S46" t="n">
-        <v>14.69925845813677</v>
+        <v>14.60186970832839</v>
       </c>
       <c r="T46" t="n">
-        <v>3.60388705024741</v>
+        <v>3.580009787644415</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04570225260822665</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
